--- a/Stats MPG-saison4MPG.xlsx
+++ b/Stats MPG-saison4MPG.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="761">
   <si>
     <t>Paris SG</t>
   </si>
@@ -2260,6 +2260,66 @@
   </si>
   <si>
     <t>J07(E ): ASSE</t>
+  </si>
+  <si>
+    <t>J08(D): EAG</t>
+  </si>
+  <si>
+    <t>J08(E ): SRFC</t>
+  </si>
+  <si>
+    <t>J08(D): TFC</t>
+  </si>
+  <si>
+    <t>J08(E ): SMC</t>
+  </si>
+  <si>
+    <t>J08(D): MHSC</t>
+  </si>
+  <si>
+    <t>J08(E ): DFCO</t>
+  </si>
+  <si>
+    <t>Sessegnon</t>
+  </si>
+  <si>
+    <t>J08(D): ASNL</t>
+  </si>
+  <si>
+    <t>J08(D): ASM</t>
+  </si>
+  <si>
+    <t>J08(E ): FCM</t>
+  </si>
+  <si>
+    <t>J08(D): SCB</t>
+  </si>
+  <si>
+    <t>J08(E ): FCN</t>
+  </si>
+  <si>
+    <t>J08(D): FCGB</t>
+  </si>
+  <si>
+    <t>Ikoné</t>
+  </si>
+  <si>
+    <t>J08(E ): PSG</t>
+  </si>
+  <si>
+    <t>J08(D): OM</t>
+  </si>
+  <si>
+    <t>J08(D): ASSE</t>
+  </si>
+  <si>
+    <t>J08(E ): OL</t>
+  </si>
+  <si>
+    <t>J08(D): FCL</t>
+  </si>
+  <si>
+    <t>J08(E ): OGCN</t>
   </si>
 </sst>
 </file>
@@ -3859,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3933,7 +3993,9 @@
       <c r="M7" s="139" t="s">
         <v>730</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>746</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="77"/>
@@ -3973,12 +4035,12 @@
         <v>87</v>
       </c>
       <c r="C8" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="119"/>
       <c r="E8" s="117"/>
       <c r="F8" s="30">
-        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8)</f>
+        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8,N8)</f>
         <v>5</v>
       </c>
       <c r="G8" s="160">
@@ -4002,7 +4064,9 @@
       <c r="M8" s="106">
         <v>6</v>
       </c>
-      <c r="N8" s="106"/>
+      <c r="N8" s="106">
+        <v>5</v>
+      </c>
       <c r="O8" s="106"/>
       <c r="P8" s="106"/>
       <c r="Q8" s="106"/>
@@ -4220,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="130"/>
       <c r="F12" s="107">
@@ -4238,7 +4302,9 @@
         <v>2</v>
       </c>
       <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
+      <c r="N12" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O12" s="106"/>
       <c r="P12" s="106"/>
       <c r="Q12" s="106"/>
@@ -4330,13 +4396,13 @@
         <v>91</v>
       </c>
       <c r="C14" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="134"/>
       <c r="E14" s="130"/>
       <c r="F14" s="107">
-        <f>AVERAGE(G14,H14,I14,K14,L14,M14)</f>
-        <v>4.833333333333333</v>
+        <f>AVERAGE(G14,H14,I14,K14,L14,M14,N14)</f>
+        <v>4.7142857142857144</v>
       </c>
       <c r="G14" s="255">
         <v>7</v>
@@ -4357,7 +4423,9 @@
       <c r="M14" s="106">
         <v>4</v>
       </c>
-      <c r="N14" s="106"/>
+      <c r="N14" s="106">
+        <v>4</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="106"/>
       <c r="Q14" s="106"/>
@@ -4449,15 +4517,15 @@
         <v>275</v>
       </c>
       <c r="C16" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="134">
         <v>4</v>
       </c>
       <c r="E16" s="130"/>
       <c r="F16" s="107">
-        <f>AVERAGE(H16,I16,J16,M16)</f>
-        <v>5.5</v>
+        <f>AVERAGE(H16,I16,J16,M16,N16)</f>
+        <v>5.4</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>106</v>
@@ -4478,7 +4546,9 @@
       <c r="M16" s="88">
         <v>6</v>
       </c>
-      <c r="N16" s="106"/>
+      <c r="N16" s="106">
+        <v>5</v>
+      </c>
       <c r="O16" s="106"/>
       <c r="P16" s="106"/>
       <c r="Q16" s="106"/>
@@ -4519,13 +4589,15 @@
         <v>440</v>
       </c>
       <c r="C17" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="134"/>
-      <c r="E17" s="130"/>
+      <c r="E17" s="363" t="s">
+        <v>597</v>
+      </c>
       <c r="F17" s="107">
-        <f>AVERAGE(G17,H17,I17,J17,K17,M17)</f>
-        <v>4.166666666666667</v>
+        <f>AVERAGE(G17,H17,I17,J17,K17,M17,N17)</f>
+        <v>4</v>
       </c>
       <c r="G17" s="43">
         <v>5</v>
@@ -4546,7 +4618,9 @@
       <c r="M17" s="106">
         <v>5</v>
       </c>
-      <c r="N17" s="106"/>
+      <c r="N17" s="321">
+        <v>3</v>
+      </c>
       <c r="O17" s="106"/>
       <c r="P17" s="106"/>
       <c r="Q17" s="106"/>
@@ -4642,15 +4716,15 @@
         <v>336</v>
       </c>
       <c r="C19" s="136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="137">
         <v>1</v>
       </c>
       <c r="E19" s="138"/>
       <c r="F19" s="29">
-        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19)</f>
-        <v>4.7142857142857144</v>
+        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19,N19)</f>
+        <v>4.875</v>
       </c>
       <c r="G19" s="43">
         <v>6</v>
@@ -4673,7 +4747,9 @@
       <c r="M19" s="106">
         <v>5</v>
       </c>
-      <c r="N19" s="106"/>
+      <c r="N19" s="106">
+        <v>6</v>
+      </c>
       <c r="O19" s="106"/>
       <c r="P19" s="106"/>
       <c r="Q19" s="106"/>
@@ -4877,13 +4953,13 @@
         <v>268</v>
       </c>
       <c r="C23" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="134"/>
       <c r="E23" s="130"/>
       <c r="F23" s="107">
-        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>4.4285714285714288</v>
+        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23,N23)</f>
+        <v>4.375</v>
       </c>
       <c r="G23" s="43">
         <v>6</v>
@@ -4906,7 +4982,9 @@
       <c r="M23" s="106">
         <v>4</v>
       </c>
-      <c r="N23" s="106"/>
+      <c r="N23" s="106">
+        <v>4</v>
+      </c>
       <c r="O23" s="106"/>
       <c r="P23" s="106"/>
       <c r="Q23" s="106"/>
@@ -4998,15 +5076,15 @@
         <v>134</v>
       </c>
       <c r="C25" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="134"/>
       <c r="E25" s="130">
         <v>2</v>
       </c>
       <c r="F25" s="107">
-        <f>AVERAGE(G25,H25,I25,J25,K25,L25,M25)</f>
-        <v>5.7142857142857144</v>
+        <f>AVERAGE(G25,H25,I25,J25,K25,L25,M25,N25)</f>
+        <v>5.375</v>
       </c>
       <c r="G25" s="252">
         <v>7</v>
@@ -5029,7 +5107,9 @@
       <c r="M25" s="106">
         <v>6</v>
       </c>
-      <c r="N25" s="106"/>
+      <c r="N25" s="321">
+        <v>3</v>
+      </c>
       <c r="O25" s="106"/>
       <c r="P25" s="106"/>
       <c r="Q25" s="54"/>
@@ -5070,13 +5150,13 @@
         <v>279</v>
       </c>
       <c r="C26" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="134"/>
       <c r="E26" s="130"/>
       <c r="F26" s="107">
-        <f>AVERAGE(J26,K26,M26)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(J26,K26,M26,N26)</f>
+        <v>5</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="88"/>
@@ -5093,7 +5173,9 @@
       <c r="M26" s="106">
         <v>5</v>
       </c>
-      <c r="N26" s="106"/>
+      <c r="N26" s="106">
+        <v>4</v>
+      </c>
       <c r="O26" s="106"/>
       <c r="P26" s="106"/>
       <c r="Q26" s="54"/>
@@ -5126,56 +5208,39 @@
       <c r="AR26" s="33"/>
       <c r="AS26" s="140"/>
     </row>
-    <row r="27" spans="1:45">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:45" s="115" customFormat="1">
+      <c r="A27" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="136">
-        <v>7</v>
-      </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138">
-        <v>2</v>
-      </c>
-      <c r="F27" s="29">
-        <f>AVERAGE(G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>4.7142857142857144</v>
-      </c>
-      <c r="G27" s="203">
-        <v>6</v>
-      </c>
-      <c r="H27" s="295">
-        <v>3</v>
-      </c>
-      <c r="I27" s="88">
-        <v>5</v>
-      </c>
-      <c r="J27" s="44">
-        <v>6</v>
-      </c>
-      <c r="K27" s="106">
-        <v>4</v>
-      </c>
-      <c r="L27" s="54">
-        <v>6</v>
-      </c>
-      <c r="M27" s="321">
-        <v>3</v>
-      </c>
-      <c r="N27" s="106"/>
+      <c r="B27" s="375" t="s">
+        <v>747</v>
+      </c>
+      <c r="C27" s="356"/>
+      <c r="D27" s="358">
+        <v>1</v>
+      </c>
+      <c r="E27" s="354"/>
+      <c r="F27" s="371"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O27" s="106"/>
       <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
+      <c r="Q27" s="54"/>
       <c r="R27" s="106"/>
       <c r="S27" s="106"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
       <c r="V27" s="106"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="55"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
       <c r="Y27" s="106"/>
       <c r="Z27" s="106"/>
       <c r="AA27" s="106"/>
@@ -5183,367 +5248,450 @@
       <c r="AC27" s="106"/>
       <c r="AD27" s="106"/>
       <c r="AE27" s="106"/>
-      <c r="AF27" s="51"/>
+      <c r="AF27" s="374"/>
       <c r="AG27" s="106"/>
       <c r="AH27" s="106"/>
-      <c r="AI27" s="54"/>
+      <c r="AI27" s="106"/>
       <c r="AJ27" s="49"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="33"/>
+      <c r="AK27" s="374"/>
+      <c r="AL27" s="106"/>
+      <c r="AM27" s="374"/>
       <c r="AN27" s="106"/>
-      <c r="AO27" s="88"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="22"/>
+      <c r="AO27" s="106"/>
+      <c r="AP27" s="106"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="374"/>
+      <c r="AS27" s="140"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" s="132">
-        <v>4</v>
-      </c>
-      <c r="D28" s="134">
+      <c r="A28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="136">
+        <v>8</v>
+      </c>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138">
         <v>2</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="107">
-        <f>AVERAGE(I28,J28,K28,M28)</f>
-        <v>5</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="88" t="s">
-        <v>106</v>
+      <c r="F28" s="29">
+        <f>AVERAGE(G28,H28,I28,J28,K28,L28,M28,N28)</f>
+        <v>4.875</v>
+      </c>
+      <c r="G28" s="203">
+        <v>6</v>
+      </c>
+      <c r="H28" s="295">
+        <v>3</v>
       </c>
       <c r="I28" s="88">
-        <v>6</v>
-      </c>
-      <c r="J28" s="88">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J28" s="44">
+        <v>6</v>
       </c>
       <c r="K28" s="106">
-        <v>5</v>
-      </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="106">
-        <v>4</v>
-      </c>
-      <c r="N28" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="54">
+        <v>6</v>
+      </c>
+      <c r="M28" s="321">
+        <v>3</v>
+      </c>
+      <c r="N28" s="106">
+        <v>6</v>
+      </c>
       <c r="O28" s="106"/>
       <c r="P28" s="106"/>
       <c r="Q28" s="106"/>
-      <c r="R28" s="54"/>
+      <c r="R28" s="106"/>
       <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
       <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="88"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
       <c r="AD28" s="106"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="54"/>
       <c r="AM28" s="33"/>
-      <c r="AN28" s="88"/>
-      <c r="AO28" s="106"/>
-      <c r="AP28" s="49"/>
+      <c r="AN28" s="106"/>
+      <c r="AO28" s="88"/>
+      <c r="AP28" s="52"/>
       <c r="AQ28" s="88"/>
-      <c r="AR28" s="49"/>
+      <c r="AR28" s="33"/>
       <c r="AS28" s="22"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="150">
-        <v>3</v>
-      </c>
-      <c r="D29" s="50">
-        <v>4</v>
-      </c>
-      <c r="E29" s="152"/>
+      <c r="B29" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="132">
+        <v>4</v>
+      </c>
+      <c r="D29" s="134">
+        <v>2</v>
+      </c>
+      <c r="E29" s="130"/>
       <c r="F29" s="107">
-        <f>AVERAGE(G29,H29,L29)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="G29" s="203">
-        <v>5</v>
-      </c>
-      <c r="H29" s="88">
-        <v>6</v>
-      </c>
-      <c r="I29" s="88" t="s">
+        <f>AVERAGE(I29,J29,K29,M29)</f>
+        <v>5</v>
+      </c>
+      <c r="G29" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="J29" s="88" t="s">
+      <c r="H29" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="267">
-        <v>3</v>
-      </c>
-      <c r="M29" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" s="55"/>
+      <c r="I29" s="88">
+        <v>6</v>
+      </c>
+      <c r="J29" s="88">
+        <v>5</v>
+      </c>
+      <c r="K29" s="106">
+        <v>5</v>
+      </c>
+      <c r="L29" s="88"/>
+      <c r="M29" s="106">
+        <v>4</v>
+      </c>
+      <c r="N29" s="106"/>
       <c r="O29" s="106"/>
       <c r="P29" s="106"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="166"/>
-      <c r="W29" s="166"/>
-      <c r="X29" s="44"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
       <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
+      <c r="Z29" s="166"/>
       <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="49"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="106"/>
+      <c r="AJ29" s="33"/>
       <c r="AK29" s="33"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="49"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="33"/>
       <c r="AN29" s="88"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="52"/>
+      <c r="AO29" s="106"/>
+      <c r="AP29" s="49"/>
       <c r="AQ29" s="88"/>
       <c r="AR29" s="49"/>
       <c r="AS29" s="22"/>
     </row>
-    <row r="30" spans="1:45" s="115" customFormat="1">
+    <row r="30" spans="1:45">
       <c r="A30" s="149" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="150">
+        <v>3</v>
+      </c>
+      <c r="D30" s="50">
+        <v>4</v>
+      </c>
+      <c r="E30" s="152"/>
+      <c r="F30" s="107">
+        <f>AVERAGE(G30,H30,L30)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G30" s="203">
+        <v>5</v>
+      </c>
+      <c r="H30" s="88">
+        <v>6</v>
+      </c>
+      <c r="I30" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="267">
+        <v>3</v>
+      </c>
+      <c r="M30" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N30" s="55"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="166"/>
+      <c r="W30" s="166"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="88"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="88"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="88"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="88"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="22"/>
+    </row>
+    <row r="31" spans="1:45" s="115" customFormat="1">
+      <c r="A31" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="C30" s="150">
-        <v>5</v>
-      </c>
-      <c r="D30" s="50">
+      <c r="C31" s="150">
+        <v>6</v>
+      </c>
+      <c r="D31" s="50">
         <v>1</v>
       </c>
-      <c r="E30" s="152">
+      <c r="E31" s="152">
         <v>1</v>
       </c>
-      <c r="F30" s="107">
-        <f>AVERAGE(G30,H30,I30,K30,M30)</f>
+      <c r="F31" s="107">
+        <f>AVERAGE(G31,H31,I31,K31,M31,N31)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G31" s="244">
+        <v>4</v>
+      </c>
+      <c r="H31" s="44">
+        <v>6</v>
+      </c>
+      <c r="I31" s="166">
+        <v>4</v>
+      </c>
+      <c r="J31" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="166">
+        <v>5</v>
+      </c>
+      <c r="L31" s="156"/>
+      <c r="M31" s="166">
+        <v>4</v>
+      </c>
+      <c r="N31" s="55">
+        <v>5</v>
+      </c>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="156"/>
+      <c r="Z31" s="156"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="156"/>
+      <c r="AE31" s="156"/>
+      <c r="AF31" s="147"/>
+      <c r="AG31" s="156"/>
+      <c r="AH31" s="156"/>
+      <c r="AI31" s="156"/>
+      <c r="AJ31" s="146"/>
+      <c r="AK31" s="147"/>
+      <c r="AL31" s="156"/>
+      <c r="AM31" s="146"/>
+      <c r="AN31" s="156"/>
+      <c r="AO31" s="156"/>
+      <c r="AP31" s="146"/>
+      <c r="AQ31" s="156"/>
+      <c r="AR31" s="146"/>
+      <c r="AS31" s="140"/>
+    </row>
+    <row r="32" spans="1:45" s="115" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A32" s="169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="162" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" s="163">
+        <v>5</v>
+      </c>
+      <c r="D32" s="164">
+        <v>3</v>
+      </c>
+      <c r="E32" s="165">
+        <v>3</v>
+      </c>
+      <c r="F32" s="28">
+        <f>AVERAGE(G32,I32,J32,L32,N32)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="G30" s="244">
-        <v>4</v>
-      </c>
-      <c r="H30" s="44">
-        <v>6</v>
-      </c>
-      <c r="I30" s="166">
-        <v>4</v>
-      </c>
-      <c r="J30" s="166" t="s">
+      <c r="G32" s="203">
+        <v>5</v>
+      </c>
+      <c r="H32" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="K30" s="166">
-        <v>5</v>
-      </c>
-      <c r="L30" s="156"/>
-      <c r="M30" s="166">
-        <v>4</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="145"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="147"/>
-      <c r="AG30" s="156"/>
-      <c r="AH30" s="156"/>
-      <c r="AI30" s="156"/>
-      <c r="AJ30" s="146"/>
-      <c r="AK30" s="147"/>
-      <c r="AL30" s="156"/>
-      <c r="AM30" s="146"/>
-      <c r="AN30" s="156"/>
-      <c r="AO30" s="156"/>
-      <c r="AP30" s="146"/>
-      <c r="AQ30" s="156"/>
-      <c r="AR30" s="146"/>
-      <c r="AS30" s="140"/>
-    </row>
-    <row r="31" spans="1:45" s="115" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A31" s="169" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="162" t="s">
-        <v>374</v>
-      </c>
-      <c r="C31" s="163">
-        <v>4</v>
-      </c>
-      <c r="D31" s="164">
+      <c r="I32" s="166">
+        <v>4</v>
+      </c>
+      <c r="J32" s="267">
         <v>3</v>
       </c>
-      <c r="E31" s="165"/>
-      <c r="F31" s="28">
-        <f>AVERAGE(G31,I31,J31,L31)</f>
-        <v>3.75</v>
-      </c>
-      <c r="G31" s="203">
-        <v>5</v>
-      </c>
-      <c r="H31" s="88" t="s">
+      <c r="K32" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="166">
-        <v>4</v>
-      </c>
-      <c r="J31" s="267">
+      <c r="L32" s="267">
         <v>3</v>
       </c>
-      <c r="K31" s="88" t="s">
+      <c r="M32" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="267">
-        <v>3</v>
-      </c>
-      <c r="M31" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="N31" s="55"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="88"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="140"/>
-    </row>
-    <row r="32" spans="1:45">
-      <c r="G32" s="31">
-        <f>AVERAGE(G8,G11,G14,G17,G19,G23,G25,G27,G29,G31,G30)</f>
+      <c r="N32" s="251">
+        <v>8</v>
+      </c>
+      <c r="O32" s="106"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="88"/>
+      <c r="AI32" s="88"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="88"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="88"/>
+      <c r="AO32" s="88"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="140"/>
+    </row>
+    <row r="33" spans="7:44">
+      <c r="G33" s="31">
+        <f>AVERAGE(G8,G11,G14,G17,G19,G23,G25,G28,G30,G32,G31)</f>
         <v>5.7272727272727275</v>
       </c>
-      <c r="H32" s="25">
-        <f>AVERAGE(H8,H11,H14,H16,H17,H19,H23,H25,H27,H29,H30)</f>
+      <c r="H33" s="25">
+        <f>AVERAGE(H8,H11,H14,H16,H17,H19,H23,H25,H28,H30,H31)</f>
         <v>4.3636363636363633</v>
       </c>
-      <c r="I32" s="25">
-        <f>AVERAGE(I8,I11,I14,I17,I19,I23,I25,I27,I28,I30,I31)</f>
+      <c r="I33" s="25">
+        <f>AVERAGE(I8,I11,I14,I17,I19,I23,I25,I28,I29,I31,I32)</f>
         <v>5.0909090909090908</v>
       </c>
-      <c r="J32" s="25">
-        <f>AVERAGE(J8,J11,J16,J17,J19,J23,J25,J26,J27,J28,J31)</f>
+      <c r="J33" s="25">
+        <f>AVERAGE(J8,J11,J16,J17,J19,J23,J25,J26,J28,J29,J32)</f>
         <v>4.8181818181818183</v>
       </c>
-      <c r="K32" s="25">
-        <f>AVERAGE(K8,K11,K14,K17,K19,K23,K26,K25,K27,K28,K30)</f>
+      <c r="K33" s="25">
+        <f>AVERAGE(K8,K11,K14,K17,K19,K23,K26,K25,K28,K29,K31)</f>
         <v>5.0909090909090908</v>
       </c>
-      <c r="L32" s="25">
-        <f>AVERAGE(L8,L11,L12,L14,L23,L25,L27,L29,L31,L19)</f>
+      <c r="L33" s="25">
+        <f>AVERAGE(L8,L11,L12,L14,L23,L25,L28,L30,L32,L19)</f>
         <v>3.6</v>
       </c>
-      <c r="M32" s="25">
-        <f>AVERAGE(M8,M16,M14,M17,M19,M23,M25,M26,M27,M28,M30)</f>
+      <c r="M33" s="25">
+        <f>AVERAGE(M8,M16,M14,M17,M19,M23,M25,M26,M28,M29,M31)</f>
         <v>4.7272727272727275</v>
       </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
+      <c r="N33" s="25">
+        <f>AVERAGE(N8,N14,N16,N17,N19,N23,N25,N26,N28,N31,N32)</f>
+        <v>4.8181818181818183</v>
+      </c>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5627,7 +5775,9 @@
       <c r="M7" s="139" t="s">
         <v>718</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>744</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
@@ -5667,13 +5817,13 @@
         <v>381</v>
       </c>
       <c r="C8" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="119"/>
       <c r="E8" s="117"/>
       <c r="F8" s="30">
-        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>5.5714285714285712</v>
+        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8,N8)</f>
+        <v>5.5</v>
       </c>
       <c r="G8" s="160">
         <v>6</v>
@@ -5696,7 +5846,9 @@
       <c r="M8" s="251">
         <v>7</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="55">
+        <v>5</v>
+      </c>
       <c r="O8" s="55"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
@@ -6162,15 +6314,15 @@
         <v>382</v>
       </c>
       <c r="C17" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="134"/>
       <c r="E17" s="130">
         <v>1</v>
       </c>
       <c r="F17" s="107">
-        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17)</f>
-        <v>5.5714285714285712</v>
+        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17,N17)</f>
+        <v>5.5</v>
       </c>
       <c r="G17" s="173">
         <v>6</v>
@@ -6193,7 +6345,9 @@
       <c r="M17" s="55">
         <v>6</v>
       </c>
-      <c r="N17" s="55"/>
+      <c r="N17" s="55">
+        <v>5</v>
+      </c>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
       <c r="Q17" s="55"/>
@@ -6236,7 +6390,9 @@
       <c r="C18" s="132">
         <v>1</v>
       </c>
-      <c r="D18" s="134"/>
+      <c r="D18" s="134">
+        <v>1</v>
+      </c>
       <c r="E18" s="130"/>
       <c r="F18" s="107">
         <f>AVERAGE(G18)</f>
@@ -6251,7 +6407,9 @@
       <c r="K18" s="223"/>
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
+      <c r="N18" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -6292,15 +6450,15 @@
         <v>483</v>
       </c>
       <c r="C19" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="134"/>
       <c r="E19" s="130">
         <v>1</v>
       </c>
       <c r="F19" s="107">
-        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19,N19)</f>
+        <v>5.375</v>
       </c>
       <c r="G19" s="173">
         <v>5</v>
@@ -6323,7 +6481,9 @@
       <c r="M19" s="306">
         <v>7</v>
       </c>
-      <c r="N19" s="55"/>
+      <c r="N19" s="55">
+        <v>5</v>
+      </c>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
@@ -6364,12 +6524,12 @@
         <v>279</v>
       </c>
       <c r="C20" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="130"/>
       <c r="F20" s="107">
-        <f>AVERAGE(G20,H20,I20,J20,K20,L20,M20)</f>
+        <f>AVERAGE(G20,H20,I20,J20,K20,L20,M20,N20)</f>
         <v>5</v>
       </c>
       <c r="G20" s="43">
@@ -6393,7 +6553,9 @@
       <c r="M20" s="55">
         <v>6</v>
       </c>
-      <c r="N20" s="55"/>
+      <c r="N20" s="55">
+        <v>5</v>
+      </c>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
@@ -6434,15 +6596,15 @@
         <v>690</v>
       </c>
       <c r="C21" s="356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="358">
         <v>1</v>
       </c>
       <c r="E21" s="354"/>
       <c r="F21" s="371">
-        <f>AVERAGE(M21)</f>
-        <v>6</v>
+        <f>AVERAGE(M21,N21)</f>
+        <v>5.5</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="55"/>
@@ -6455,7 +6617,9 @@
       <c r="M21" s="55">
         <v>6</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="55">
+        <v>5</v>
+      </c>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
@@ -6496,13 +6660,13 @@
         <v>173</v>
       </c>
       <c r="C22" s="136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="137"/>
       <c r="E22" s="138"/>
       <c r="F22" s="29">
-        <f>AVERAGE(G22,H22,I22,J22,K22,L22,M22)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G22,H22,I22,J22,K22,L22,M22,N22)</f>
+        <v>5.25</v>
       </c>
       <c r="G22" s="173">
         <v>6</v>
@@ -6525,7 +6689,9 @@
       <c r="M22" s="55">
         <v>6</v>
       </c>
-      <c r="N22" s="55"/>
+      <c r="N22" s="55">
+        <v>4</v>
+      </c>
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
@@ -6621,7 +6787,7 @@
         <v>220</v>
       </c>
       <c r="C24" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="134">
         <v>2</v>
@@ -6630,8 +6796,8 @@
         <v>1</v>
       </c>
       <c r="F24" s="107">
-        <f>AVERAGE(G24,K24,L24,M24)</f>
-        <v>5.25</v>
+        <f>AVERAGE(G24,K24,L24,M24,N24)</f>
+        <v>5.2</v>
       </c>
       <c r="G24" s="173">
         <v>4</v>
@@ -6652,7 +6818,9 @@
       <c r="M24" s="305">
         <v>7</v>
       </c>
-      <c r="N24" s="55"/>
+      <c r="N24" s="55">
+        <v>5</v>
+      </c>
       <c r="O24" s="166"/>
       <c r="P24" s="166"/>
       <c r="Q24" s="55"/>
@@ -6744,15 +6912,15 @@
         <v>103</v>
       </c>
       <c r="C26" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
       </c>
       <c r="E26" s="130"/>
       <c r="F26" s="107">
-        <f>AVERAGE(G26,H26,I26,J26)</f>
-        <v>5.25</v>
+        <f>AVERAGE(G26,H26,I26,J26,N26)</f>
+        <v>5.2</v>
       </c>
       <c r="G26" s="173">
         <v>5</v>
@@ -6771,7 +6939,9 @@
       <c r="M26" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="166"/>
+      <c r="N26" s="166">
+        <v>5</v>
+      </c>
       <c r="O26" s="55"/>
       <c r="P26" s="156"/>
       <c r="Q26" s="55"/>
@@ -6812,13 +6982,13 @@
         <v>257</v>
       </c>
       <c r="C27" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="134"/>
       <c r="E27" s="130"/>
       <c r="F27" s="107">
-        <f>AVERAGE(G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>5.2857142857142856</v>
+        <f>AVERAGE(G27,H27,I27,J27,K27,L27,M27,N27)</f>
+        <v>5.125</v>
       </c>
       <c r="G27" s="173">
         <v>5</v>
@@ -6841,7 +7011,9 @@
       <c r="M27" s="166">
         <v>6</v>
       </c>
-      <c r="N27" s="166"/>
+      <c r="N27" s="166">
+        <v>4</v>
+      </c>
       <c r="O27" s="166"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="55"/>
@@ -7126,7 +7298,7 @@
         <v>604</v>
       </c>
       <c r="C32" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="134">
         <v>2</v>
@@ -7135,8 +7307,8 @@
         <v>2</v>
       </c>
       <c r="F32" s="107">
-        <f>AVERAGE(J32,K32,L32)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(J32,K32,L32,N32)</f>
+        <v>5</v>
       </c>
       <c r="G32" s="43"/>
       <c r="H32" s="88"/>
@@ -7155,7 +7327,9 @@
       <c r="M32" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="N32" s="166"/>
+      <c r="N32" s="166">
+        <v>4</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
@@ -7250,7 +7424,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="130">
         <v>2</v>
@@ -7280,7 +7454,9 @@
       <c r="M34" s="55">
         <v>5</v>
       </c>
-      <c r="N34" s="166"/>
+      <c r="N34" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O34" s="55"/>
       <c r="P34" s="166"/>
       <c r="Q34" s="166"/>
@@ -7324,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="130"/>
       <c r="F35" s="107">
@@ -7350,7 +7526,9 @@
       <c r="M35" s="55">
         <v>4</v>
       </c>
-      <c r="N35" s="166"/>
+      <c r="N35" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O35" s="55"/>
       <c r="P35" s="166"/>
       <c r="Q35" s="166"/>
@@ -7391,15 +7569,15 @@
         <v>171</v>
       </c>
       <c r="C36" s="133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="135"/>
       <c r="E36" s="131">
         <v>3</v>
       </c>
       <c r="F36" s="28">
-        <f>AVERAGE(G36,H36,J36,K36)</f>
-        <v>5.75</v>
+        <f>AVERAGE(G36,H36,J36,K36,N36)</f>
+        <v>5.2</v>
       </c>
       <c r="G36" s="55">
         <v>4</v>
@@ -7416,7 +7594,9 @@
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="145"/>
-      <c r="N36" s="166"/>
+      <c r="N36" s="295">
+        <v>3</v>
+      </c>
       <c r="O36" s="156"/>
       <c r="P36" s="55"/>
       <c r="Q36" s="166"/>
@@ -7478,7 +7658,10 @@
         <f>AVERAGE(M8,M12,M17,M19,M20,M21,M22,M24,M27,M34,M35)</f>
         <v>5.9090909090909092</v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="31">
+        <f>AVERAGE(N8,N17,N19,N20,N21,N22,N24,N26,N27,N32,N36)</f>
+        <v>4.5454545454545459</v>
+      </c>
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="31"/>
@@ -7595,7 +7778,9 @@
       <c r="M7" s="139" t="s">
         <v>720</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>752</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="71"/>
@@ -7755,10 +7940,15 @@
       <c r="B10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="136"/>
+      <c r="C10" s="136">
+        <v>1</v>
+      </c>
       <c r="D10" s="137"/>
       <c r="E10" s="138"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15">
+        <f>AVERAGE(N10)</f>
+        <v>6</v>
+      </c>
       <c r="G10" s="173"/>
       <c r="H10" s="166"/>
       <c r="I10" s="166"/>
@@ -7766,7 +7956,9 @@
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
+      <c r="N10" s="55">
+        <v>6</v>
+      </c>
       <c r="O10" s="55"/>
       <c r="P10" s="55"/>
       <c r="Q10" s="55"/>
@@ -7807,12 +7999,12 @@
         <v>112</v>
       </c>
       <c r="C11" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="134"/>
       <c r="E11" s="130"/>
       <c r="F11" s="107">
-        <f>AVERAGE(J11,K11,L11,M11)</f>
+        <f>AVERAGE(J11,K11,L11,M11,N11)</f>
         <v>5</v>
       </c>
       <c r="G11" s="173"/>
@@ -7830,7 +8022,9 @@
       <c r="M11" s="55">
         <v>6</v>
       </c>
-      <c r="N11" s="166"/>
+      <c r="N11" s="166">
+        <v>5</v>
+      </c>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
@@ -7871,14 +8065,14 @@
         <v>240</v>
       </c>
       <c r="C12" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
       </c>
       <c r="E12" s="130"/>
       <c r="F12" s="107">
-        <f>AVERAGE(G12,H12,I12)</f>
+        <f>AVERAGE(G12,H12,I12,N12)</f>
         <v>5</v>
       </c>
       <c r="G12" s="173">
@@ -7896,7 +8090,9 @@
       <c r="M12" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="N12" s="55">
+        <v>5</v>
+      </c>
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
@@ -7999,13 +8195,13 @@
         <v>133</v>
       </c>
       <c r="C14" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="134"/>
       <c r="E14" s="142"/>
       <c r="F14" s="107">
-        <f>AVERAGE(G14,H14,I14,J14,K14,L14,M14)</f>
-        <v>4.8571428571428568</v>
+        <f>AVERAGE(G14,H14,I14,J14,K14,L14,M14,N14)</f>
+        <v>4.875</v>
       </c>
       <c r="G14" s="173">
         <v>5</v>
@@ -8028,7 +8224,9 @@
       <c r="M14" s="55">
         <v>6</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="55">
+        <v>5</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
@@ -8069,15 +8267,15 @@
         <v>635</v>
       </c>
       <c r="C15" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="134"/>
       <c r="E15" s="142">
         <v>1</v>
       </c>
       <c r="F15" s="107">
-        <f>AVERAGE(J15,K15,L15,M15)</f>
-        <v>5.25</v>
+        <f>AVERAGE(J15,K15,L15,M15,N15)</f>
+        <v>5.4</v>
       </c>
       <c r="G15" s="173"/>
       <c r="H15" s="190"/>
@@ -8094,7 +8292,9 @@
       <c r="M15" s="55">
         <v>6</v>
       </c>
-      <c r="N15" s="55"/>
+      <c r="N15" s="55">
+        <v>6</v>
+      </c>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -8260,13 +8460,13 @@
         <v>116</v>
       </c>
       <c r="C18" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="134"/>
       <c r="E18" s="130"/>
       <c r="F18" s="107">
-        <f>AVERAGE(G18,H18,I18,J18,K18,L18,M18)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G18,H18,I18,J18,K18,L18,M18,N18)</f>
+        <v>5.375</v>
       </c>
       <c r="G18" s="173">
         <v>5</v>
@@ -8289,7 +8489,9 @@
       <c r="M18" s="55">
         <v>6</v>
       </c>
-      <c r="N18" s="55"/>
+      <c r="N18" s="55">
+        <v>5</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -8432,7 +8634,7 @@
         <v>253</v>
       </c>
       <c r="C21" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -8441,8 +8643,8 @@
         <v>1</v>
       </c>
       <c r="F21" s="107">
-        <f>AVERAGE(G21,H21,J21,K21,L21,M21)</f>
-        <v>5.5</v>
+        <f>AVERAGE(G21,H21,J21,K21,L21,M21,N21)</f>
+        <v>5.4285714285714288</v>
       </c>
       <c r="G21" s="173">
         <v>5</v>
@@ -8463,7 +8665,9 @@
       <c r="M21" s="55">
         <v>6</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="55">
+        <v>5</v>
+      </c>
       <c r="O21" s="166"/>
       <c r="P21" s="166"/>
       <c r="Q21" s="166"/>
@@ -8625,13 +8829,13 @@
         <v>358</v>
       </c>
       <c r="C24" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="134"/>
       <c r="E24" s="142"/>
       <c r="F24" s="107">
-        <f>AVERAGE(G24,H24,I24,J24,K24)</f>
-        <v>5.2</v>
+        <f>AVERAGE(G24,H24,I24,J24,K24,N24)</f>
+        <v>5.166666666666667</v>
       </c>
       <c r="G24" s="173">
         <v>5</v>
@@ -8650,7 +8854,9 @@
       </c>
       <c r="L24" s="166"/>
       <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+      <c r="N24" s="55">
+        <v>5</v>
+      </c>
       <c r="O24" s="55"/>
       <c r="P24" s="166"/>
       <c r="Q24" s="166"/>
@@ -8691,14 +8897,14 @@
         <v>325</v>
       </c>
       <c r="C25" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="134">
         <v>2</v>
       </c>
       <c r="E25" s="142"/>
       <c r="F25" s="107">
-        <f>AVERAGE(G25,K25,L25,M25)</f>
+        <f>AVERAGE(G25,K25,L25,M25,N25)</f>
         <v>5</v>
       </c>
       <c r="G25" s="173">
@@ -8720,7 +8926,9 @@
       <c r="M25" s="55">
         <v>6</v>
       </c>
-      <c r="N25" s="55"/>
+      <c r="N25" s="55">
+        <v>5</v>
+      </c>
       <c r="O25" s="55"/>
       <c r="P25" s="166"/>
       <c r="Q25" s="166"/>
@@ -8871,15 +9079,15 @@
         <v>532</v>
       </c>
       <c r="C28" s="150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="227">
         <v>1</v>
       </c>
       <c r="F28" s="107">
-        <f>AVERAGE(G28,H28,I28,J28,K28,L28,M28)</f>
-        <v>5.5714285714285712</v>
+        <f>AVERAGE(G28,H28,I28,J28,K28,L28,M28,N28)</f>
+        <v>5.5</v>
       </c>
       <c r="G28" s="173">
         <v>5</v>
@@ -8902,7 +9110,9 @@
       <c r="M28" s="55">
         <v>6</v>
       </c>
-      <c r="N28" s="145"/>
+      <c r="N28" s="55">
+        <v>5</v>
+      </c>
       <c r="O28" s="145"/>
       <c r="P28" s="156"/>
       <c r="Q28" s="156"/>
@@ -8946,12 +9156,12 @@
         <v>3</v>
       </c>
       <c r="D29" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="227"/>
       <c r="F29" s="107">
-        <f>AVERAGE(H29,J29,K29,L29)</f>
-        <v>4.5</v>
+        <f>AVERAGE(H29,J29,K29,L29,N29)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G29" s="173"/>
       <c r="H29" s="48">
@@ -8972,7 +9182,9 @@
       <c r="M29" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="N29" s="145"/>
+      <c r="N29" s="166">
+        <v>4</v>
+      </c>
       <c r="O29" s="145"/>
       <c r="P29" s="156"/>
       <c r="Q29" s="156"/>
@@ -9085,13 +9297,16 @@
         <v>534</v>
       </c>
       <c r="C31" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="134">
         <v>4</v>
       </c>
       <c r="E31" s="130"/>
-      <c r="F31" s="107"/>
+      <c r="F31" s="107">
+        <f>AVERAGE(H31,I31,N31)</f>
+        <v>4.666666666666667</v>
+      </c>
       <c r="G31" s="43" t="s">
         <v>106</v>
       </c>
@@ -9111,7 +9326,9 @@
       <c r="M31" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="N31" s="55"/>
+      <c r="N31" s="55">
+        <v>4</v>
+      </c>
       <c r="O31" s="55"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="55"/>
@@ -9153,7 +9370,7 @@
       </c>
       <c r="C32" s="132"/>
       <c r="D32" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="130"/>
       <c r="F32" s="107"/>
@@ -9166,7 +9383,9 @@
       </c>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
+      <c r="N32" s="166" t="s">
+        <v>106</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
@@ -9282,7 +9501,10 @@
         <f>AVERAGE(M8,M11,M14,M15,M18,M17,M21,M22,M25,M28,M30)</f>
         <v>5.7272727272727275</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="25">
+        <f>AVERAGE(N10,N11,N12,N14,N15,N18,N21,N24,N25,N28,N31)</f>
+        <v>5.0909090909090908</v>
+      </c>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
@@ -9398,7 +9620,9 @@
       <c r="M7" s="139" t="s">
         <v>725</v>
       </c>
-      <c r="N7" s="139"/>
+      <c r="N7" s="139" t="s">
+        <v>741</v>
+      </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
       <c r="Q7" s="139"/>
@@ -9438,13 +9662,13 @@
         <v>121</v>
       </c>
       <c r="C8" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="119"/>
       <c r="E8" s="117"/>
       <c r="F8" s="30">
-        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>5.1428571428571432</v>
+        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8,N8)</f>
+        <v>5.25</v>
       </c>
       <c r="G8" s="173">
         <v>4</v>
@@ -9467,7 +9691,9 @@
       <c r="M8" s="55">
         <v>4</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="54">
+        <v>6</v>
+      </c>
       <c r="O8" s="145"/>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -9661,13 +9887,13 @@
         <v>124</v>
       </c>
       <c r="C12" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="134"/>
       <c r="E12" s="130"/>
       <c r="F12" s="107">
-        <f>AVERAGE(H12,I12,J12,K12,L12,M12)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(H12,I12,J12,K12,L12,M12,N12)</f>
+        <v>5.2857142857142856</v>
       </c>
       <c r="G12" s="173"/>
       <c r="H12" s="310">
@@ -9688,7 +9914,9 @@
       <c r="M12" s="55">
         <v>4</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="N12" s="55">
+        <v>5</v>
+      </c>
       <c r="O12" s="166"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
@@ -9729,13 +9957,13 @@
         <v>199</v>
       </c>
       <c r="C13" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="130"/>
       <c r="F13" s="107">
-        <f>AVERAGE(I13,J13,K13,L13,M13)</f>
-        <v>4.8</v>
+        <f>AVERAGE(I13,J13,K13,L13,M13,N13)</f>
+        <v>5.166666666666667</v>
       </c>
       <c r="G13" s="244"/>
       <c r="H13" s="189"/>
@@ -9754,7 +9982,9 @@
       <c r="M13" s="55">
         <v>4</v>
       </c>
-      <c r="N13" s="55"/>
+      <c r="N13" s="306">
+        <v>7</v>
+      </c>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
@@ -9910,13 +10140,13 @@
         <v>305</v>
       </c>
       <c r="C16" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="134"/>
       <c r="E16" s="130"/>
       <c r="F16" s="107">
-        <f>AVERAGE(G16,H16,I16,J16,K16)</f>
-        <v>5</v>
+        <f>AVERAGE(G16,H16,I16,J16,K16,N16)</f>
+        <v>5.166666666666667</v>
       </c>
       <c r="G16" s="173">
         <v>5</v>
@@ -9935,7 +10165,9 @@
       </c>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
+      <c r="N16" s="55">
+        <v>6</v>
+      </c>
       <c r="O16" s="166"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
@@ -9976,13 +10208,13 @@
         <v>328</v>
       </c>
       <c r="C17" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="134"/>
       <c r="E17" s="130"/>
       <c r="F17" s="107">
-        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17)</f>
-        <v>4.2857142857142856</v>
+        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17,N17)</f>
+        <v>4.5</v>
       </c>
       <c r="G17" s="173">
         <v>4</v>
@@ -10005,7 +10237,9 @@
       <c r="M17" s="308">
         <v>3</v>
       </c>
-      <c r="N17" s="55"/>
+      <c r="N17" s="55">
+        <v>6</v>
+      </c>
       <c r="O17" s="166"/>
       <c r="P17" s="55"/>
       <c r="Q17" s="55"/>
@@ -10275,14 +10509,19 @@
       <c r="B22" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="150"/>
+      <c r="C22" s="150">
+        <v>1</v>
+      </c>
       <c r="D22" s="50">
         <v>2</v>
       </c>
       <c r="E22" s="152">
         <v>1</v>
       </c>
-      <c r="F22" s="107"/>
+      <c r="F22" s="107">
+        <f>AVERAGE(N22)</f>
+        <v>4</v>
+      </c>
       <c r="G22" s="173"/>
       <c r="H22" s="166"/>
       <c r="I22" s="166"/>
@@ -10294,7 +10533,9 @@
       <c r="M22" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="55"/>
+      <c r="N22" s="55">
+        <v>4</v>
+      </c>
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
@@ -10335,13 +10576,13 @@
         <v>115</v>
       </c>
       <c r="C23" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="134"/>
       <c r="E23" s="130"/>
       <c r="F23" s="107">
-        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23,N23)</f>
+        <v>5.5</v>
       </c>
       <c r="G23" s="244">
         <v>6</v>
@@ -10364,7 +10605,9 @@
       <c r="M23" s="308">
         <v>3</v>
       </c>
-      <c r="N23" s="55"/>
+      <c r="N23" s="55">
+        <v>6</v>
+      </c>
       <c r="O23" s="55"/>
       <c r="P23" s="166"/>
       <c r="Q23" s="166"/>
@@ -10520,15 +10763,15 @@
         <v>227</v>
       </c>
       <c r="C26" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
       </c>
       <c r="E26" s="130"/>
       <c r="F26" s="107">
-        <f>AVERAGE(G26,H26,J26,K26,L26,M26)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(G26,H26,J26,K26,L26,M26,N26)</f>
+        <v>5.5714285714285712</v>
       </c>
       <c r="G26" s="173">
         <v>5</v>
@@ -10551,7 +10794,9 @@
       <c r="M26" s="55">
         <v>5</v>
       </c>
-      <c r="N26" s="55"/>
+      <c r="N26" s="306">
+        <v>7</v>
+      </c>
       <c r="O26" s="55"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="55"/>
@@ -10595,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="130"/>
       <c r="F27" s="107">
@@ -10619,7 +10864,9 @@
       <c r="M27" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N27" s="166"/>
+      <c r="N27" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O27" s="166"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="55"/>
@@ -11038,15 +11285,15 @@
         <v>180</v>
       </c>
       <c r="C35" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="134">
         <v>1</v>
       </c>
       <c r="E35" s="130"/>
       <c r="F35" s="107">
-        <f>AVERAGE(K35,L35,M35)</f>
-        <v>4</v>
+        <f>AVERAGE(K35,L35,M35,N35)</f>
+        <v>4.5</v>
       </c>
       <c r="G35" s="173"/>
       <c r="H35" s="156"/>
@@ -11063,7 +11310,9 @@
       <c r="M35" s="55">
         <v>4</v>
       </c>
-      <c r="N35" s="55"/>
+      <c r="N35" s="55">
+        <v>6</v>
+      </c>
       <c r="O35" s="55"/>
       <c r="P35" s="166"/>
       <c r="Q35" s="55"/>
@@ -11104,7 +11353,7 @@
         <v>181</v>
       </c>
       <c r="C36" s="132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="141">
         <v>3</v>
@@ -11113,8 +11362,8 @@
         <v>1</v>
       </c>
       <c r="F36" s="107">
-        <f>AVERAGE(G36,M36)</f>
-        <v>4</v>
+        <f>AVERAGE(G36,M36,N36)</f>
+        <v>3.6666666666666665</v>
       </c>
       <c r="G36" s="173">
         <v>4</v>
@@ -11131,7 +11380,9 @@
       <c r="M36" s="166">
         <v>4</v>
       </c>
-      <c r="N36" s="166"/>
+      <c r="N36" s="295">
+        <v>3</v>
+      </c>
       <c r="O36" s="166"/>
       <c r="P36" s="156"/>
       <c r="Q36" s="156"/>
@@ -11172,15 +11423,15 @@
         <v>303</v>
       </c>
       <c r="C37" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" s="134"/>
       <c r="E37" s="130">
         <v>2</v>
       </c>
       <c r="F37" s="107">
-        <f>AVERAGE(G37,H37,I37,J37,K37,L37)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(G37,H37,I37,J37,K37,L37,N37)</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="G37" s="173">
         <v>4</v>
@@ -11201,7 +11452,9 @@
         <v>6</v>
       </c>
       <c r="M37" s="145"/>
-      <c r="N37" s="166"/>
+      <c r="N37" s="166">
+        <v>4</v>
+      </c>
       <c r="O37" s="55"/>
       <c r="P37" s="55"/>
       <c r="Q37" s="55"/>
@@ -11313,7 +11566,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="152">
         <v>1</v>
@@ -11341,7 +11594,9 @@
       <c r="M39" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N39" s="166"/>
+      <c r="N39" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O39" s="55"/>
       <c r="P39" s="55"/>
       <c r="Q39" s="166"/>
@@ -11383,10 +11638,10 @@
       </c>
       <c r="C40" s="163"/>
       <c r="D40" s="164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="43" t="s">
@@ -11402,7 +11657,9 @@
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="55"/>
-      <c r="N40" s="166"/>
+      <c r="N40" s="44" t="s">
+        <v>106</v>
+      </c>
       <c r="O40" s="55"/>
       <c r="P40" s="55"/>
       <c r="Q40" s="166"/>
@@ -11464,7 +11721,10 @@
         <f>AVERAGE(M8,M12,M13,M17,M19,M23,M24,M26,M35,M36,M38)</f>
         <v>3.8181818181818183</v>
       </c>
-      <c r="N41" s="31"/>
+      <c r="N41" s="31">
+        <f>AVERAGE(N8,N12,N13,N16,N17,N22,N23,N26,N35,N36,N37)</f>
+        <v>5.4545454545454541</v>
+      </c>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
       <c r="Q41" s="25"/>
@@ -11578,7 +11838,9 @@
       <c r="M7" s="139" t="s">
         <v>735</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>751</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="75"/>
@@ -11669,13 +11931,13 @@
         <v>139</v>
       </c>
       <c r="C9" s="136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="137"/>
       <c r="E9" s="138"/>
       <c r="F9" s="29">
-        <f>AVERAGE(G9,H9,I9,J9,K9,L9,M9)</f>
-        <v>5.2857142857142856</v>
+        <f>AVERAGE(G9,H9,I9,J9,K9,L9,M9,N9)</f>
+        <v>5.5</v>
       </c>
       <c r="G9" s="160">
         <v>6</v>
@@ -11698,7 +11960,9 @@
       <c r="M9" s="55">
         <v>6</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="251">
+        <v>7</v>
+      </c>
       <c r="O9" s="55"/>
       <c r="P9" s="145"/>
       <c r="Q9" s="145"/>
@@ -11841,13 +12105,13 @@
         <v>272</v>
       </c>
       <c r="C12" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="134"/>
       <c r="E12" s="130"/>
       <c r="F12" s="107">
-        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12)</f>
-        <v>4.8571428571428568</v>
+        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12,N12)</f>
+        <v>5</v>
       </c>
       <c r="G12" s="244">
         <v>6</v>
@@ -11870,7 +12134,9 @@
       <c r="M12" s="55">
         <v>4</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="N12" s="55">
+        <v>6</v>
+      </c>
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
@@ -11914,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="130"/>
       <c r="F13" s="107">
@@ -11932,7 +12198,9 @@
       </c>
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
+      <c r="N13" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
@@ -12097,13 +12365,13 @@
         <v>460</v>
       </c>
       <c r="C16" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="134"/>
       <c r="E16" s="130"/>
       <c r="F16" s="107">
-        <f>AVERAGE(G16,H16,I16)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(G16,H16,I16,N16)</f>
+        <v>5</v>
       </c>
       <c r="G16" s="244">
         <v>5</v>
@@ -12118,7 +12386,9 @@
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
+      <c r="N16" s="55">
+        <v>6</v>
+      </c>
       <c r="O16" s="55"/>
       <c r="P16" s="157"/>
       <c r="Q16" s="55"/>
@@ -12159,13 +12429,13 @@
         <v>461</v>
       </c>
       <c r="C17" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="134"/>
       <c r="E17" s="130"/>
       <c r="F17" s="107">
-        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17)</f>
-        <v>5.8571428571428568</v>
+        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17,N17)</f>
+        <v>6</v>
       </c>
       <c r="G17" s="346">
         <v>7</v>
@@ -12188,7 +12458,9 @@
       <c r="M17" s="55">
         <v>6</v>
       </c>
-      <c r="N17" s="55"/>
+      <c r="N17" s="306">
+        <v>7</v>
+      </c>
       <c r="O17" s="55"/>
       <c r="P17" s="157"/>
       <c r="Q17" s="55"/>
@@ -12229,13 +12501,13 @@
         <v>141</v>
       </c>
       <c r="C18" s="136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="137"/>
       <c r="E18" s="138"/>
       <c r="F18" s="29">
-        <f>AVERAGE(G18,H18,I18,J18,K18,L18,M18)</f>
-        <v>4.4285714285714288</v>
+        <f>AVERAGE(G18,H18,I18,J18,K18,L18,M18,N18)</f>
+        <v>4.5</v>
       </c>
       <c r="G18" s="173">
         <v>5</v>
@@ -12258,7 +12530,9 @@
       <c r="M18" s="55">
         <v>4</v>
       </c>
-      <c r="N18" s="55"/>
+      <c r="N18" s="55">
+        <v>5</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -12425,7 +12699,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="130"/>
       <c r="F21" s="107">
@@ -12443,7 +12717,9 @@
       <c r="M21" s="88">
         <v>5</v>
       </c>
-      <c r="N21" s="166"/>
+      <c r="N21" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O21" s="166"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="156"/>
@@ -12541,13 +12817,13 @@
         <v>395</v>
       </c>
       <c r="C23" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="134"/>
       <c r="E23" s="130"/>
       <c r="F23" s="107">
-        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23,N23)</f>
+        <v>5.5</v>
       </c>
       <c r="G23" s="173">
         <v>5</v>
@@ -12570,7 +12846,9 @@
       <c r="M23" s="166">
         <v>5</v>
       </c>
-      <c r="N23" s="166"/>
+      <c r="N23" s="166">
+        <v>6</v>
+      </c>
       <c r="O23" s="156"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="166"/>
@@ -12722,7 +13000,7 @@
         <v>462</v>
       </c>
       <c r="C26" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="134">
         <v>2</v>
@@ -12731,8 +13009,8 @@
         <v>1</v>
       </c>
       <c r="F26" s="107">
-        <f>AVERAGE(G26,H26,I26,J26,K26,M26)</f>
-        <v>4.5</v>
+        <f>AVERAGE(G26,H26,I26,J26,K26,M26,N26)</f>
+        <v>4.7142857142857144</v>
       </c>
       <c r="G26" s="160">
         <v>6</v>
@@ -12755,7 +13033,9 @@
       <c r="M26" s="166">
         <v>5</v>
       </c>
-      <c r="N26" s="55"/>
+      <c r="N26" s="55">
+        <v>6</v>
+      </c>
       <c r="O26" s="166"/>
       <c r="P26" s="166"/>
       <c r="Q26" s="166"/>
@@ -12796,13 +13076,13 @@
         <v>463</v>
       </c>
       <c r="C27" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="134"/>
       <c r="E27" s="130"/>
       <c r="F27" s="107">
-        <f>AVERAGE(G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>5.1428571428571432</v>
+        <f>AVERAGE(G27,H27,I27,J27,K27,L27,M27,N27)</f>
+        <v>5.125</v>
       </c>
       <c r="G27" s="106">
         <v>6</v>
@@ -12825,7 +13105,9 @@
       <c r="M27" s="166">
         <v>5</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="N27" s="55">
+        <v>5</v>
+      </c>
       <c r="O27" s="166"/>
       <c r="P27" s="166"/>
       <c r="Q27" s="166"/>
@@ -12866,15 +13148,15 @@
         <v>548</v>
       </c>
       <c r="C28" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="134">
         <v>2</v>
       </c>
       <c r="E28" s="130"/>
       <c r="F28" s="107">
-        <f>AVERAGE(H28,I28,L28)</f>
-        <v>4.333333333333333</v>
+        <f>AVERAGE(H28,I28,L28,N28)</f>
+        <v>4.5</v>
       </c>
       <c r="G28" s="109"/>
       <c r="H28" s="55">
@@ -12891,7 +13173,9 @@
       <c r="M28" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N28" s="55"/>
+      <c r="N28" s="55">
+        <v>5</v>
+      </c>
       <c r="O28" s="166"/>
       <c r="P28" s="166"/>
       <c r="Q28" s="166"/>
@@ -13045,7 +13329,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="130"/>
       <c r="F31" s="107">
@@ -13073,7 +13357,9 @@
       <c r="M31" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N31" s="145"/>
+      <c r="N31" s="166" t="s">
+        <v>106</v>
+      </c>
       <c r="O31" s="55"/>
       <c r="P31" s="145"/>
       <c r="Q31" s="145"/>
@@ -13114,7 +13400,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="134">
         <v>2</v>
@@ -13123,8 +13409,8 @@
         <v>1</v>
       </c>
       <c r="F32" s="107">
-        <f>AVERAGE(K32,L32,M32)</f>
-        <v>4</v>
+        <f>AVERAGE(K32,L32,M32,N32)</f>
+        <v>4.5</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>106</v>
@@ -13143,7 +13429,9 @@
       <c r="M32" s="44">
         <v>6</v>
       </c>
-      <c r="N32" s="55"/>
+      <c r="N32" s="55">
+        <v>6</v>
+      </c>
       <c r="O32" s="166"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="166"/>
@@ -13295,15 +13583,15 @@
         <v>651</v>
       </c>
       <c r="C35" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="134"/>
       <c r="E35" s="130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="107">
-        <f>AVERAGE(J35,K35,L35,M35)</f>
-        <v>4.5</v>
+        <f>AVERAGE(J35,K35,L35,M35,N35)</f>
+        <v>5</v>
       </c>
       <c r="G35" s="173"/>
       <c r="H35" s="55"/>
@@ -13320,7 +13608,9 @@
       <c r="M35" s="166">
         <v>4</v>
       </c>
-      <c r="N35" s="55"/>
+      <c r="N35" s="251">
+        <v>7</v>
+      </c>
       <c r="O35" s="166"/>
       <c r="P35" s="166"/>
       <c r="Q35" s="166"/>
@@ -13433,7 +13723,10 @@
         <f>AVERAGE(M9,M12,M14,M18,M17,M21,M23,M26,M27,M32,M35)</f>
         <v>4.9090909090909092</v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="31">
+        <f>AVERAGE(N9,N12,N16,N17,N18,N23,N26,N27,N28,N32,N35)</f>
+        <v>6</v>
+      </c>
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="31"/>
@@ -13551,7 +13844,9 @@
       <c r="M7" s="139" t="s">
         <v>728</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>750</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="72"/>
@@ -13700,13 +13995,13 @@
         <v>145</v>
       </c>
       <c r="C10" s="136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="137"/>
       <c r="E10" s="138"/>
       <c r="F10" s="29">
-        <f>AVERAGE(G10,H10,I10,K10,L10,M10)</f>
-        <v>5.5</v>
+        <f>AVERAGE(G10,H10,I10,K10,L10,M10,N10)</f>
+        <v>5.5714285714285712</v>
       </c>
       <c r="G10" s="45">
         <v>5</v>
@@ -13727,7 +14022,9 @@
       <c r="M10" s="55">
         <v>6</v>
       </c>
-      <c r="N10" s="88"/>
+      <c r="N10" s="44">
+        <v>6</v>
+      </c>
       <c r="O10" s="106"/>
       <c r="P10" s="166"/>
       <c r="Q10" s="44"/>
@@ -13768,17 +14065,17 @@
         <v>146</v>
       </c>
       <c r="C11" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="141">
         <v>1</v>
       </c>
       <c r="E11" s="130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="107">
-        <f>AVERAGE(G11,I11,J11,K11,L11)</f>
-        <v>5.8</v>
+        <f>AVERAGE(G11,I11,J11,K11,L11,N11)</f>
+        <v>6.166666666666667</v>
       </c>
       <c r="G11" s="345">
         <v>7</v>
@@ -13799,7 +14096,9 @@
       <c r="M11" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="88"/>
+      <c r="N11" s="305">
+        <v>8</v>
+      </c>
       <c r="O11" s="106"/>
       <c r="P11" s="88"/>
       <c r="Q11" s="88"/>
@@ -13955,13 +14254,13 @@
         <v>417</v>
       </c>
       <c r="C14" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="134"/>
       <c r="E14" s="130"/>
       <c r="F14" s="107">
-        <f>AVERAGE(G14,I14,J14,K14,L14)</f>
-        <v>5</v>
+        <f>AVERAGE(G14,I14,J14,K14,L14,N14)</f>
+        <v>5.166666666666667</v>
       </c>
       <c r="G14" s="45">
         <v>4</v>
@@ -13980,7 +14279,9 @@
         <v>3</v>
       </c>
       <c r="M14" s="184"/>
-      <c r="N14" s="88"/>
+      <c r="N14" s="88">
+        <v>6</v>
+      </c>
       <c r="O14" s="106"/>
       <c r="P14" s="88"/>
       <c r="Q14" s="106"/>
@@ -14021,15 +14322,15 @@
         <v>142</v>
       </c>
       <c r="C15" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="134">
         <v>2</v>
       </c>
       <c r="E15" s="130"/>
       <c r="F15" s="107">
-        <f>AVERAGE(K15,M15)</f>
-        <v>6.5</v>
+        <f>AVERAGE(K15,M15,N15)</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="46"/>
@@ -14046,7 +14347,9 @@
       <c r="M15" s="106">
         <v>5</v>
       </c>
-      <c r="N15" s="88"/>
+      <c r="N15" s="314">
+        <v>7</v>
+      </c>
       <c r="O15" s="106"/>
       <c r="P15" s="106"/>
       <c r="Q15" s="88"/>
@@ -14151,15 +14454,15 @@
         <v>51</v>
       </c>
       <c r="C17" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="134"/>
       <c r="E17" s="130">
         <v>1</v>
       </c>
       <c r="F17" s="107">
-        <f>AVERAGE(G17,I17,J17,L17)</f>
-        <v>5.75</v>
+        <f>AVERAGE(G17,I17,J17,L17,N17)</f>
+        <v>5.8</v>
       </c>
       <c r="G17" s="45">
         <v>6</v>
@@ -14176,7 +14479,9 @@
         <v>3</v>
       </c>
       <c r="M17" s="106"/>
-      <c r="N17" s="88"/>
+      <c r="N17" s="88">
+        <v>6</v>
+      </c>
       <c r="O17" s="106"/>
       <c r="P17" s="106"/>
       <c r="Q17" s="88"/>
@@ -14217,15 +14522,15 @@
         <v>525</v>
       </c>
       <c r="C18" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="134"/>
       <c r="E18" s="130">
         <v>2</v>
       </c>
       <c r="F18" s="107">
-        <f>AVERAGE(G18,H18,I18,J18,K18,L18,M18)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G18,H18,I18,J18,K18,L18,M18,N18)</f>
+        <v>5.5</v>
       </c>
       <c r="G18" s="45">
         <v>5</v>
@@ -14248,7 +14553,9 @@
       <c r="M18" s="54">
         <v>6</v>
       </c>
-      <c r="N18" s="88"/>
+      <c r="N18" s="88">
+        <v>6</v>
+      </c>
       <c r="O18" s="106"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="88"/>
@@ -14407,17 +14714,17 @@
         <v>411</v>
       </c>
       <c r="C21" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="134">
         <v>2</v>
       </c>
       <c r="E21" s="130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="107">
-        <f>AVERAGE(G21,I21,J21,L21,M21)</f>
-        <v>5.4</v>
+        <f>AVERAGE(G21,I21,J21,L21,M21,N21)</f>
+        <v>5.833333333333333</v>
       </c>
       <c r="G21" s="274">
         <v>7</v>
@@ -14438,7 +14745,9 @@
       <c r="M21" s="106">
         <v>5</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="305">
+        <v>8</v>
+      </c>
       <c r="O21" s="88"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="44"/>
@@ -14611,7 +14920,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="134">
         <v>2</v>
@@ -14620,8 +14929,8 @@
         <v>1</v>
       </c>
       <c r="F24" s="107">
-        <f>AVERAGE(H24,I24,K24,L24,M24)</f>
-        <v>5.8</v>
+        <f>AVERAGE(H24,I24,K24,L24,M24,N24)</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>106</v>
@@ -14644,7 +14953,9 @@
       <c r="M24" s="106">
         <v>5</v>
       </c>
-      <c r="N24" s="88"/>
+      <c r="N24" s="88">
+        <v>5</v>
+      </c>
       <c r="O24" s="106"/>
       <c r="P24" s="166"/>
       <c r="Q24" s="88"/>
@@ -14751,17 +15062,17 @@
         <v>341</v>
       </c>
       <c r="C26" s="150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="50">
         <v>2</v>
       </c>
       <c r="E26" s="152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="107">
-        <f>AVERAGE(G26,K26,L26)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(G26,K26,L26,N26)</f>
+        <v>5.75</v>
       </c>
       <c r="G26" s="45">
         <v>5</v>
@@ -14780,7 +15091,9 @@
       <c r="M26" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="88"/>
+      <c r="N26" s="305">
+        <v>7</v>
+      </c>
       <c r="O26" s="106"/>
       <c r="P26" s="88"/>
       <c r="Q26" s="88"/>
@@ -14875,10 +15188,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="50">
+        <v>3</v>
+      </c>
+      <c r="E28" s="152">
         <v>2</v>
-      </c>
-      <c r="E28" s="152">
-        <v>1</v>
       </c>
       <c r="F28" s="64">
         <f>AVERAGE(H28,M28)</f>
@@ -14897,7 +15210,9 @@
       <c r="M28" s="166">
         <v>6</v>
       </c>
-      <c r="N28" s="156"/>
+      <c r="N28" s="44" t="s">
+        <v>106</v>
+      </c>
       <c r="O28" s="156"/>
       <c r="P28" s="156"/>
       <c r="Q28" s="156"/>
@@ -14941,7 +15256,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="152"/>
       <c r="F29" s="64">
@@ -14961,7 +15276,9 @@
       <c r="M29" s="166">
         <v>6</v>
       </c>
-      <c r="N29" s="156"/>
+      <c r="N29" s="166" t="s">
+        <v>106</v>
+      </c>
       <c r="O29" s="156"/>
       <c r="P29" s="156"/>
       <c r="Q29" s="156"/>
@@ -15170,15 +15487,17 @@
         <v>153</v>
       </c>
       <c r="C33" s="150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="50">
         <v>2</v>
       </c>
-      <c r="E33" s="152"/>
+      <c r="E33" s="152">
+        <v>1</v>
+      </c>
       <c r="F33" s="107">
-        <f>AVERAGE(I33,J33,K33,L33,M33)</f>
-        <v>4.5999999999999996</v>
+        <f>AVERAGE(I33,J33,K33,L33,M33,N33)</f>
+        <v>5</v>
       </c>
       <c r="G33" s="45"/>
       <c r="H33" s="53" t="s">
@@ -15199,7 +15518,9 @@
       <c r="M33" s="166">
         <v>4</v>
       </c>
-      <c r="N33" s="88"/>
+      <c r="N33" s="305">
+        <v>7</v>
+      </c>
       <c r="O33" s="88"/>
       <c r="P33" s="88"/>
       <c r="Q33" s="44"/>
@@ -15302,15 +15623,17 @@
         <v>308</v>
       </c>
       <c r="C35" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="134">
         <v>2</v>
       </c>
-      <c r="E35" s="142"/>
+      <c r="E35" s="142">
+        <v>2</v>
+      </c>
       <c r="F35" s="107">
-        <f>AVERAGE(G35,L35,M35)</f>
-        <v>3.6666666666666665</v>
+        <f>AVERAGE(G35,L35,M35,N35)</f>
+        <v>4.75</v>
       </c>
       <c r="G35" s="286">
         <v>3</v>
@@ -15327,7 +15650,9 @@
       <c r="M35" s="166">
         <v>4</v>
       </c>
-      <c r="N35" s="88"/>
+      <c r="N35" s="305">
+        <v>8</v>
+      </c>
       <c r="O35" s="88"/>
       <c r="P35" s="88"/>
       <c r="Q35" s="88"/>
@@ -15479,7 +15804,9 @@
       <c r="C38" s="133">
         <v>1</v>
       </c>
-      <c r="D38" s="135"/>
+      <c r="D38" s="135">
+        <v>1</v>
+      </c>
       <c r="E38" s="249"/>
       <c r="F38" s="28"/>
       <c r="G38" s="43" t="s">
@@ -15491,7 +15818,9 @@
       <c r="K38" s="88"/>
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
+      <c r="N38" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O38" s="88"/>
       <c r="P38" s="88"/>
       <c r="Q38" s="88"/>
@@ -15553,7 +15882,10 @@
         <f>AVERAGE(M10,M15,M16,M18,M20,M21,M24,M25,M29,M33,M35)</f>
         <v>5.2727272727272725</v>
       </c>
-      <c r="N39" s="31"/>
+      <c r="N39" s="31">
+        <f>AVERAGE(N10,N11,N14,N15,N17,N18,N21,N24,N26,N33,N35)</f>
+        <v>6.7272727272727275</v>
+      </c>
       <c r="O39" s="31"/>
       <c r="P39" s="31"/>
       <c r="Q39" s="31"/>
@@ -15666,7 +15998,9 @@
       <c r="M7" s="139" t="s">
         <v>723</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>743</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="72"/>
@@ -15764,13 +16098,13 @@
         <v>205</v>
       </c>
       <c r="C9" s="395">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="396"/>
       <c r="E9" s="394"/>
       <c r="F9" s="373">
-        <f>AVERAGE(G9,H9,I9,J9,K9,L9,M9)</f>
-        <v>4.8571428571428568</v>
+        <f>AVERAGE(G9,H9,I9,J9,K9,L9,M9,N9)</f>
+        <v>5</v>
       </c>
       <c r="G9" s="173">
         <v>5</v>
@@ -15793,7 +16127,9 @@
       <c r="M9" s="51">
         <v>6</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="44">
+        <v>6</v>
+      </c>
       <c r="O9" s="54"/>
       <c r="P9" s="54"/>
       <c r="Q9" s="106"/>
@@ -15899,15 +16235,15 @@
         <v>105</v>
       </c>
       <c r="C11" s="392">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="374"/>
       <c r="E11" s="391" t="s">
         <v>597</v>
       </c>
       <c r="F11" s="371">
-        <f>AVERAGE(G11,H11,I11,J11,K11,L11,M11)</f>
-        <v>5</v>
+        <f>AVERAGE(G11,H11,I11,J11,K11,L11,M11,N11)</f>
+        <v>5.125</v>
       </c>
       <c r="G11" s="173">
         <v>6</v>
@@ -15930,7 +16266,9 @@
       <c r="M11" s="33">
         <v>6</v>
       </c>
-      <c r="N11" s="88"/>
+      <c r="N11" s="88">
+        <v>6</v>
+      </c>
       <c r="O11" s="106"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="106"/>
@@ -15974,15 +16312,15 @@
         <v>211</v>
       </c>
       <c r="C12" s="392">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="374">
         <v>1</v>
       </c>
       <c r="E12" s="391"/>
       <c r="F12" s="371">
-        <f>AVERAGE(G12,H12,L12,M12)</f>
-        <v>4.75</v>
+        <f>AVERAGE(G12,H12,L12,M12,N12)</f>
+        <v>5</v>
       </c>
       <c r="G12" s="173">
         <v>5</v>
@@ -16001,7 +16339,9 @@
       <c r="M12" s="33">
         <v>5</v>
       </c>
-      <c r="N12" s="88"/>
+      <c r="N12" s="88">
+        <v>6</v>
+      </c>
       <c r="O12" s="106"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="106"/>
@@ -16269,15 +16609,15 @@
         <v>542</v>
       </c>
       <c r="C17" s="392">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="374">
         <v>1</v>
       </c>
       <c r="E17" s="393"/>
       <c r="F17" s="371">
-        <f>AVERAGE(I17,J17,K17,L17,M17)</f>
-        <v>4</v>
+        <f>AVERAGE(I17,J17,K17,L17,M17,N17)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G17" s="173"/>
       <c r="H17" s="88" t="s">
@@ -16298,7 +16638,9 @@
       <c r="M17" s="33">
         <v>5</v>
       </c>
-      <c r="N17" s="88"/>
+      <c r="N17" s="88">
+        <v>6</v>
+      </c>
       <c r="O17" s="106"/>
       <c r="P17" s="55"/>
       <c r="Q17" s="106"/>
@@ -16338,15 +16680,15 @@
         <v>207</v>
       </c>
       <c r="C18" s="395">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="396">
         <v>1</v>
       </c>
       <c r="E18" s="397"/>
       <c r="F18" s="373">
-        <f>AVERAGE(G18,H18,L18,M18)</f>
-        <v>5</v>
+        <f>AVERAGE(G18,H18,L18,M18,N18)</f>
+        <v>5.2</v>
       </c>
       <c r="G18" s="173">
         <v>6</v>
@@ -16365,7 +16707,9 @@
       <c r="M18" s="33">
         <v>5</v>
       </c>
-      <c r="N18" s="44"/>
+      <c r="N18" s="166">
+        <v>6</v>
+      </c>
       <c r="O18" s="106"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="106"/>
@@ -16409,15 +16753,15 @@
         <v>127</v>
       </c>
       <c r="C19" s="392">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="374"/>
       <c r="E19" s="393">
         <v>1</v>
       </c>
       <c r="F19" s="371">
-        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19)</f>
-        <v>4.8571428571428568</v>
+        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19,N19)</f>
+        <v>5</v>
       </c>
       <c r="G19" s="173">
         <v>5</v>
@@ -16440,7 +16784,9 @@
       <c r="M19" s="33">
         <v>5</v>
       </c>
-      <c r="N19" s="88"/>
+      <c r="N19" s="88">
+        <v>6</v>
+      </c>
       <c r="O19" s="106"/>
       <c r="P19" s="54"/>
       <c r="Q19" s="106"/>
@@ -16484,13 +16830,13 @@
         <v>55</v>
       </c>
       <c r="C20" s="392">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="374"/>
       <c r="E20" s="393"/>
       <c r="F20" s="371">
-        <f>AVERAGE(G20,H20,I20,L20,M20)</f>
-        <v>5.6</v>
+        <f>AVERAGE(G20,H20,I20,L20,M20,N20)</f>
+        <v>5.5</v>
       </c>
       <c r="G20" s="173">
         <v>5</v>
@@ -16509,7 +16855,9 @@
       <c r="M20" s="33">
         <v>5</v>
       </c>
-      <c r="N20" s="88"/>
+      <c r="N20" s="88">
+        <v>5</v>
+      </c>
       <c r="O20" s="106"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="106"/>
@@ -16820,14 +17168,14 @@
         <v>69</v>
       </c>
       <c r="C26" s="392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="374">
         <v>1</v>
       </c>
       <c r="E26" s="393"/>
       <c r="F26" s="371">
-        <f>AVERAGE(L26,M26)</f>
+        <f>AVERAGE(L26,M26,N26)</f>
         <v>5</v>
       </c>
       <c r="G26" s="173"/>
@@ -16843,7 +17191,9 @@
       <c r="M26" s="49">
         <v>5</v>
       </c>
-      <c r="N26" s="88"/>
+      <c r="N26" s="88">
+        <v>5</v>
+      </c>
       <c r="O26" s="88"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="88"/>
@@ -17011,7 +17361,7 @@
         <v>433</v>
       </c>
       <c r="C29" s="388">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="379">
         <v>2</v>
@@ -17020,8 +17370,8 @@
         <v>1</v>
       </c>
       <c r="F29" s="382">
-        <f>AVERAGE(H29,I29,J29,K29,M29)</f>
-        <v>4.4000000000000004</v>
+        <f>AVERAGE(H29,I29,J29,K29,M29,N29)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G29" s="173" t="s">
         <v>106</v>
@@ -17044,7 +17394,9 @@
       <c r="M29" s="379">
         <v>4</v>
       </c>
-      <c r="N29" s="156"/>
+      <c r="N29" s="166">
+        <v>4</v>
+      </c>
       <c r="O29" s="156"/>
       <c r="P29" s="145"/>
       <c r="Q29" s="145"/>
@@ -17084,7 +17436,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="388">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="379">
         <v>1</v>
@@ -17093,8 +17445,8 @@
         <v>1</v>
       </c>
       <c r="F30" s="371">
-        <f>AVERAGE(G30,H30,I30,J30,K30,L30)</f>
-        <v>5</v>
+        <f>AVERAGE(G30,H30,I30,J30,K30,L30,N30)</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="G30" s="160">
         <v>6</v>
@@ -17117,7 +17469,9 @@
       <c r="M30" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N30" s="44"/>
+      <c r="N30" s="166">
+        <v>6</v>
+      </c>
       <c r="O30" s="166"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
@@ -17160,7 +17514,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="374">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="393">
         <v>1</v>
@@ -17186,7 +17540,9 @@
       <c r="M31" s="33">
         <v>4</v>
       </c>
-      <c r="N31" s="88"/>
+      <c r="N31" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O31" s="88"/>
       <c r="P31" s="54"/>
       <c r="Q31" s="106"/>
@@ -17276,15 +17632,15 @@
         <v>432</v>
       </c>
       <c r="C33" s="392">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="374"/>
       <c r="E33" s="393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="371">
-        <f>AVERAGE(G33,H33,I33,J33,K33,L33)</f>
-        <v>4.333333333333333</v>
+        <f>AVERAGE(G33,H33,I33,J33,K33,L33,N33)</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="G33" s="252">
         <v>8</v>
@@ -17305,7 +17661,9 @@
         <v>3</v>
       </c>
       <c r="M33" s="49"/>
-      <c r="N33" s="88"/>
+      <c r="N33" s="44">
+        <v>6</v>
+      </c>
       <c r="O33" s="88"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="88"/>
@@ -17348,7 +17706,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="399">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="390"/>
       <c r="F34" s="372">
@@ -17370,7 +17728,9 @@
       <c r="M34" s="49">
         <v>4</v>
       </c>
-      <c r="N34" s="88"/>
+      <c r="N34" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O34" s="88"/>
       <c r="P34" s="55"/>
       <c r="Q34" s="88"/>
@@ -17431,7 +17791,10 @@
         <f>AVERAGE(M9,M11,M12,M17,M18,M19,M20,M26,M29,M31,M34)</f>
         <v>4.9090909090909092</v>
       </c>
-      <c r="N35" s="25"/>
+      <c r="N35" s="25">
+        <f>AVERAGE(N9,N11,N12,N17,N18,N19,N20,N26,N29,N30,N33)</f>
+        <v>5.6363636363636367</v>
+      </c>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
@@ -17552,7 +17915,9 @@
       <c r="M7" s="139" t="s">
         <v>721</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>742</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="79"/>
@@ -17650,13 +18015,13 @@
         <v>526</v>
       </c>
       <c r="C9" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="134"/>
       <c r="E9" s="130"/>
       <c r="F9" s="37">
-        <f>AVERAGE(G9,H9,I9,J9,M9)</f>
-        <v>5.4</v>
+        <f>AVERAGE(G9,H9,I9,J9,M9,N9)</f>
+        <v>5.5</v>
       </c>
       <c r="G9" s="173">
         <v>5</v>
@@ -17677,7 +18042,9 @@
       <c r="M9" s="50">
         <v>6</v>
       </c>
-      <c r="N9" s="166"/>
+      <c r="N9" s="166">
+        <v>6</v>
+      </c>
       <c r="O9" s="55"/>
       <c r="P9" s="55"/>
       <c r="Q9" s="55"/>
@@ -17878,15 +18245,15 @@
         <v>234</v>
       </c>
       <c r="C13" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
       </c>
       <c r="E13" s="130"/>
       <c r="F13" s="37">
-        <f>AVERAGE(G13,M13)</f>
-        <v>5</v>
+        <f>AVERAGE(G13,M13,N13)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G13" s="173">
         <v>5</v>
@@ -17901,7 +18268,9 @@
       <c r="M13" s="50">
         <v>5</v>
       </c>
-      <c r="N13" s="166"/>
+      <c r="N13" s="166">
+        <v>4</v>
+      </c>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
@@ -17945,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="152"/>
       <c r="F14" s="37">
@@ -17963,7 +18332,9 @@
       <c r="M14" s="55">
         <v>5</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
@@ -18004,15 +18375,15 @@
         <v>162</v>
       </c>
       <c r="C15" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="134"/>
       <c r="E15" s="142">
         <v>1</v>
       </c>
       <c r="F15" s="37">
-        <f>AVERAGE(G15,H15,I15,J15,K15,L15,M15)</f>
-        <v>5.5714285714285712</v>
+        <f>AVERAGE(G15,H15,I15,J15,K15,L15,M15,N15)</f>
+        <v>5.5</v>
       </c>
       <c r="G15" s="173">
         <v>5</v>
@@ -18035,7 +18406,9 @@
       <c r="M15" s="50">
         <v>5</v>
       </c>
-      <c r="N15" s="166"/>
+      <c r="N15" s="166">
+        <v>5</v>
+      </c>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -18178,15 +18551,15 @@
         <v>527</v>
       </c>
       <c r="C18" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="134">
         <v>1</v>
       </c>
       <c r="E18" s="142"/>
       <c r="F18" s="37">
-        <f>AVERAGE(G18,H18,I18,J18,K18,L18)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(G18,H18,I18,J18,K18,L18,N18)</f>
+        <v>5.2857142857142856</v>
       </c>
       <c r="G18" s="173">
         <v>5</v>
@@ -18209,7 +18582,9 @@
       <c r="M18" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="166"/>
+      <c r="N18" s="166">
+        <v>5</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -18379,12 +18754,12 @@
         <v>165</v>
       </c>
       <c r="C21" s="136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="137"/>
       <c r="E21" s="121"/>
       <c r="F21" s="29">
-        <f>AVERAGE(G21,H21,I21,J21,K21,L21,M21)</f>
+        <f>AVERAGE(G21,H21,I21,J21,K21,L21,M21,N21)</f>
         <v>5</v>
       </c>
       <c r="G21" s="173">
@@ -18408,7 +18783,9 @@
       <c r="M21" s="50">
         <v>5</v>
       </c>
-      <c r="N21" s="166"/>
+      <c r="N21" s="166">
+        <v>5</v>
+      </c>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
@@ -18449,15 +18826,15 @@
         <v>163</v>
       </c>
       <c r="C22" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="134"/>
       <c r="E22" s="130">
         <v>2</v>
       </c>
       <c r="F22" s="37">
-        <f>AVERAGE(G22,H22,I22,J22,K22,L22)</f>
-        <v>5.833333333333333</v>
+        <f>AVERAGE(G22,H22,I22,J22,K22,L22,N22)</f>
+        <v>5.4285714285714288</v>
       </c>
       <c r="G22" s="160">
         <v>6</v>
@@ -18478,7 +18855,9 @@
         <v>6</v>
       </c>
       <c r="M22" s="48"/>
-      <c r="N22" s="166"/>
+      <c r="N22" s="295">
+        <v>3</v>
+      </c>
       <c r="O22" s="166"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
@@ -18519,7 +18898,7 @@
         <v>164</v>
       </c>
       <c r="C23" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -18528,8 +18907,8 @@
         <v>1</v>
       </c>
       <c r="F23" s="37">
-        <f>AVERAGE(I23,J23)</f>
-        <v>6</v>
+        <f>AVERAGE(I23,J23,N23)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>106</v>
@@ -18546,7 +18925,9 @@
       </c>
       <c r="L23" s="166"/>
       <c r="M23" s="50"/>
-      <c r="N23" s="166"/>
+      <c r="N23" s="166">
+        <v>4</v>
+      </c>
       <c r="O23" s="166"/>
       <c r="P23" s="166"/>
       <c r="Q23" s="166"/>
@@ -18587,7 +18968,7 @@
         <v>254</v>
       </c>
       <c r="C24" s="127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="128">
         <v>1</v>
@@ -18596,8 +18977,8 @@
         <v>1</v>
       </c>
       <c r="F24" s="37">
-        <f>AVERAGE(G24,H24,I24,J24,K24,L24)</f>
-        <v>5.166666666666667</v>
+        <f>AVERAGE(G24,H24,I24,J24,K24,L24,N24)</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="G24" s="173">
         <v>5</v>
@@ -18620,7 +19001,9 @@
       <c r="M24" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="166"/>
+      <c r="N24" s="166">
+        <v>5</v>
+      </c>
       <c r="O24" s="55"/>
       <c r="P24" s="166"/>
       <c r="Q24" s="55"/>
@@ -18712,7 +19095,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="33">
         <v>1</v>
@@ -18721,8 +19104,8 @@
         <v>1</v>
       </c>
       <c r="F26" s="37">
-        <f>AVERAGE(G26,H26,I26,J26,M26)</f>
-        <v>5</v>
+        <f>AVERAGE(G26,H26,I26,J26,M26,N26)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G26" s="173">
         <v>5</v>
@@ -18745,7 +19128,9 @@
       <c r="M26" s="410">
         <v>3</v>
       </c>
-      <c r="N26" s="166"/>
+      <c r="N26" s="295">
+        <v>3</v>
+      </c>
       <c r="O26" s="55"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="166"/>
@@ -18789,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="130"/>
       <c r="F27" s="37">
@@ -18817,7 +19202,9 @@
       <c r="M27" s="50">
         <v>4</v>
       </c>
-      <c r="N27" s="166"/>
+      <c r="N27" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O27" s="55"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="166"/>
@@ -18910,7 +19297,7 @@
       </c>
       <c r="C29" s="132"/>
       <c r="D29" s="109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="143"/>
       <c r="F29" s="37"/>
@@ -18929,7 +19316,9 @@
       <c r="M29" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N29" s="166"/>
+      <c r="N29" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O29" s="55"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
@@ -18970,13 +19359,13 @@
         <v>528</v>
       </c>
       <c r="C30" s="136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="137"/>
       <c r="E30" s="138"/>
       <c r="F30" s="179">
-        <f>AVERAGE(G30,H30,I30,J30,K30,L30,M30)</f>
-        <v>5.2857142857142856</v>
+        <f>AVERAGE(G30,H30,I30,J30,K30,L30,M30,N30)</f>
+        <v>5.125</v>
       </c>
       <c r="G30" s="173">
         <v>6</v>
@@ -18999,7 +19388,9 @@
       <c r="M30" s="48">
         <v>4</v>
       </c>
-      <c r="N30" s="166"/>
+      <c r="N30" s="166">
+        <v>4</v>
+      </c>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
@@ -19091,7 +19482,7 @@
         <v>330</v>
       </c>
       <c r="C32" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="109">
         <v>1</v>
@@ -19100,8 +19491,8 @@
         <v>2</v>
       </c>
       <c r="F32" s="37">
-        <f>AVERAGE(G32,H32,K32,L32,M32)</f>
-        <v>5</v>
+        <f>AVERAGE(G32,H32,K32,L32,M32,N32)</f>
+        <v>4.833333333333333</v>
       </c>
       <c r="G32" s="173">
         <v>6</v>
@@ -19122,7 +19513,9 @@
       <c r="M32" s="48">
         <v>4</v>
       </c>
-      <c r="N32" s="166"/>
+      <c r="N32" s="166">
+        <v>4</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
@@ -19252,7 +19645,10 @@
         <f>AVERAGE(M9,M13,M14,M15,M21,M26,M27,M30,M32,M33)</f>
         <v>4.5</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="25">
+        <f>AVERAGE(N9,N13,N15,N18,N21,N22,N23,N24,N26,N30,N32)</f>
+        <v>4.3636363636363633</v>
+      </c>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
@@ -19367,7 +19763,9 @@
       <c r="M7" s="139" t="s">
         <v>729</v>
       </c>
-      <c r="N7" s="139"/>
+      <c r="N7" s="139" t="s">
+        <v>756</v>
+      </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
       <c r="Q7" s="139"/>
@@ -19407,13 +19805,13 @@
         <v>276</v>
       </c>
       <c r="C8" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="134"/>
       <c r="E8" s="130"/>
       <c r="F8" s="107">
-        <f>AVERAGE(G8,H8)</f>
-        <v>5.5</v>
+        <f>AVERAGE(G8,H8,N8)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="G8" s="173">
         <v>5</v>
@@ -19426,7 +19824,9 @@
       <c r="K8" s="166"/>
       <c r="L8" s="166"/>
       <c r="M8" s="50"/>
-      <c r="N8" s="166"/>
+      <c r="N8" s="166">
+        <v>5</v>
+      </c>
       <c r="O8" s="55"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
@@ -19631,13 +20031,13 @@
         <v>284</v>
       </c>
       <c r="C12" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="134"/>
       <c r="E12" s="130"/>
       <c r="F12" s="107">
-        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12)</f>
-        <v>4.7142857142857144</v>
+        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12,N12)</f>
+        <v>4.75</v>
       </c>
       <c r="G12" s="173">
         <v>5</v>
@@ -19660,7 +20060,9 @@
       <c r="M12" s="50">
         <v>4</v>
       </c>
-      <c r="N12" s="166"/>
+      <c r="N12" s="166">
+        <v>5</v>
+      </c>
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
@@ -19750,13 +20152,13 @@
         <v>294</v>
       </c>
       <c r="C14" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="134"/>
       <c r="E14" s="130"/>
       <c r="F14" s="107">
-        <f>AVERAGE(G14,H14,I14,J14,M14)</f>
-        <v>4.4000000000000004</v>
+        <f>AVERAGE(G14,H14,I14,J14,M14,N14)</f>
+        <v>4.5</v>
       </c>
       <c r="G14" s="173">
         <v>4</v>
@@ -19775,7 +20177,9 @@
       <c r="M14" s="50">
         <v>4</v>
       </c>
-      <c r="N14" s="166"/>
+      <c r="N14" s="166">
+        <v>5</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
@@ -19815,12 +20219,12 @@
         <v>281</v>
       </c>
       <c r="C15" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="134"/>
       <c r="E15" s="130"/>
       <c r="F15" s="107">
-        <f>AVERAGE(G15,H15,I15,J15,K15,L15)</f>
+        <f>AVERAGE(G15,H15,I15,J15,K15,L15,N15)</f>
         <v>5</v>
       </c>
       <c r="G15" s="173">
@@ -19842,7 +20246,9 @@
         <v>5</v>
       </c>
       <c r="M15" s="50"/>
-      <c r="N15" s="166"/>
+      <c r="N15" s="166">
+        <v>5</v>
+      </c>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -19882,14 +20288,14 @@
         <v>285</v>
       </c>
       <c r="C16" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
       </c>
       <c r="E16" s="130"/>
       <c r="F16" s="107">
-        <f>AVERAGE(G16,H16,J16,K16,L16,M16)</f>
+        <f>AVERAGE(G16,H16,J16,K16,L16,M16,N16)</f>
         <v>5</v>
       </c>
       <c r="G16" s="173">
@@ -19913,7 +20319,9 @@
       <c r="M16" s="50">
         <v>4</v>
       </c>
-      <c r="N16" s="166"/>
+      <c r="N16" s="166">
+        <v>5</v>
+      </c>
       <c r="O16" s="55"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
@@ -20075,13 +20483,13 @@
         <v>286</v>
       </c>
       <c r="C19" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="134"/>
       <c r="E19" s="130"/>
       <c r="F19" s="107">
-        <f>AVERAGE(I19,J19,K19,L19,M19)</f>
-        <v>5.2</v>
+        <f>AVERAGE(I19,J19,K19,L19,M19,N19)</f>
+        <v>5.5</v>
       </c>
       <c r="G19" s="173"/>
       <c r="H19" s="55"/>
@@ -20100,7 +20508,9 @@
       <c r="M19" s="48">
         <v>4</v>
       </c>
-      <c r="N19" s="166"/>
+      <c r="N19" s="307">
+        <v>7</v>
+      </c>
       <c r="O19" s="166"/>
       <c r="P19" s="166"/>
       <c r="Q19" s="55"/>
@@ -20193,9 +20603,11 @@
         <v>3</v>
       </c>
       <c r="D21" s="134">
-        <v>3</v>
-      </c>
-      <c r="E21" s="130"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="130">
+        <v>1</v>
+      </c>
       <c r="F21" s="107">
         <f>AVERAGE(G21,K21,L21,M21)</f>
         <v>4.75</v>
@@ -20219,7 +20631,9 @@
       <c r="M21" s="50">
         <v>4</v>
       </c>
-      <c r="N21" s="166"/>
+      <c r="N21" s="44" t="s">
+        <v>106</v>
+      </c>
       <c r="O21" s="166"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="166"/>
@@ -20259,15 +20673,15 @@
         <v>319</v>
       </c>
       <c r="C22" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="134"/>
       <c r="E22" s="130">
         <v>1</v>
       </c>
       <c r="F22" s="107">
-        <f>AVERAGE(G22,H22,I22,J22,K22,L22,M22)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G22,H22,I22,J22,K22,L22,M22,N22)</f>
+        <v>5.25</v>
       </c>
       <c r="G22" s="173">
         <v>4</v>
@@ -20290,7 +20704,9 @@
       <c r="M22" s="50">
         <v>5</v>
       </c>
-      <c r="N22" s="166"/>
+      <c r="N22" s="166">
+        <v>4</v>
+      </c>
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
@@ -20437,14 +20853,14 @@
         <v>442</v>
       </c>
       <c r="C25" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
       </c>
       <c r="E25" s="130"/>
       <c r="F25" s="107">
-        <f>AVERAGE(G25,I25,J25,K25,L25,M25)</f>
+        <f>AVERAGE(G25,I25,J25,K25,L25,M25,N25)</f>
         <v>5</v>
       </c>
       <c r="G25" s="173">
@@ -20468,7 +20884,9 @@
       <c r="M25" s="50">
         <v>5</v>
       </c>
-      <c r="N25" s="166"/>
+      <c r="N25" s="166">
+        <v>5</v>
+      </c>
       <c r="O25" s="55"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
@@ -20789,7 +21207,7 @@
         <v>444</v>
       </c>
       <c r="C31" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -20798,8 +21216,8 @@
         <v>2</v>
       </c>
       <c r="F31" s="107">
-        <f>AVERAGE(G31,H31,J31,K31,L31,M31)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(G31,H31,J31,K31,L31,M31,N31)</f>
+        <v>4.4285714285714288</v>
       </c>
       <c r="G31" s="173">
         <v>4</v>
@@ -20822,7 +21240,9 @@
       <c r="M31" s="51">
         <v>6</v>
       </c>
-      <c r="N31" s="166"/>
+      <c r="N31" s="295">
+        <v>3</v>
+      </c>
       <c r="O31" s="55"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="55"/>
@@ -20862,15 +21282,15 @@
         <v>443</v>
       </c>
       <c r="C32" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="134"/>
       <c r="E32" s="130">
         <v>2</v>
       </c>
       <c r="F32" s="107">
-        <f>AVERAGE(G32,H32,I32,J32,K32,L32,M32)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G32,H32,I32,J32,K32,L32,M32,N32)</f>
+        <v>5.375</v>
       </c>
       <c r="G32" s="173">
         <v>6</v>
@@ -20893,7 +21313,9 @@
       <c r="M32" s="50">
         <v>5</v>
       </c>
-      <c r="N32" s="166"/>
+      <c r="N32" s="166">
+        <v>5</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
@@ -20932,14 +21354,16 @@
       <c r="B33" s="257" t="s">
         <v>445</v>
       </c>
-      <c r="C33" s="132"/>
+      <c r="C33" s="132">
+        <v>1</v>
+      </c>
       <c r="D33" s="134">
         <v>6</v>
       </c>
       <c r="E33" s="130"/>
       <c r="F33" s="107">
-        <f>AVERAGE(J33)</f>
-        <v>6</v>
+        <f>AVERAGE(J33,N33)</f>
+        <v>5.5</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>106</v>
@@ -20960,7 +21384,9 @@
         <v>106</v>
       </c>
       <c r="M33" s="50"/>
-      <c r="N33" s="166"/>
+      <c r="N33" s="166">
+        <v>5</v>
+      </c>
       <c r="O33" s="55"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="55"/>
@@ -21001,7 +21427,7 @@
       </c>
       <c r="C34" s="132"/>
       <c r="D34" s="134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="363" t="s">
         <v>597</v>
@@ -21020,7 +21446,9 @@
       <c r="M34" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N34" s="166"/>
+      <c r="N34" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O34" s="55"/>
       <c r="P34" s="55"/>
       <c r="Q34" s="55"/>
@@ -21062,7 +21490,9 @@
       <c r="C35" s="133">
         <v>3</v>
       </c>
-      <c r="D35" s="135"/>
+      <c r="D35" s="135">
+        <v>1</v>
+      </c>
       <c r="E35" s="131"/>
       <c r="F35" s="28">
         <f>AVERAGE(G35,H35,I35)</f>
@@ -21081,7 +21511,9 @@
       <c r="K35" s="166"/>
       <c r="L35" s="166"/>
       <c r="M35" s="50"/>
-      <c r="N35" s="166"/>
+      <c r="N35" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O35" s="55"/>
       <c r="P35" s="55"/>
       <c r="Q35" s="55"/>
@@ -21142,7 +21574,10 @@
         <f>AVERAGE(M9,M12,M14,M16,M18,M19,M21,M22,M25,M31,M32)</f>
         <v>4.6363636363636367</v>
       </c>
-      <c r="N36" s="116"/>
+      <c r="N36" s="116">
+        <f>AVERAGE(N8,N12,N14,N15,N16,N19,N22,N25,N31,N32,N33)</f>
+        <v>4.9090909090909092</v>
+      </c>
       <c r="O36" s="116"/>
       <c r="P36" s="116"/>
       <c r="Q36" s="116"/>
@@ -21258,7 +21693,9 @@
       <c r="M7" s="139" t="s">
         <v>736</v>
       </c>
-      <c r="N7" s="139"/>
+      <c r="N7" s="139" t="s">
+        <v>742</v>
+      </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
       <c r="Q7" s="139"/>
@@ -21298,13 +21735,13 @@
         <v>498</v>
       </c>
       <c r="C8" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="119"/>
       <c r="E8" s="117"/>
       <c r="F8" s="30">
-        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>5.2857142857142856</v>
+        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8,N8)</f>
+        <v>5.375</v>
       </c>
       <c r="G8" s="144">
         <v>5</v>
@@ -21327,7 +21764,9 @@
       <c r="M8" s="55">
         <v>5</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="55">
+        <v>6</v>
+      </c>
       <c r="O8" s="55"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
@@ -21536,13 +21975,13 @@
         <v>500</v>
       </c>
       <c r="C12" s="212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="213"/>
       <c r="F12" s="107">
-        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12)</f>
-        <v>4.4285714285714288</v>
+        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12,N12)</f>
+        <v>4.5</v>
       </c>
       <c r="G12" s="258">
         <v>3</v>
@@ -21565,7 +22004,9 @@
       <c r="M12" s="55">
         <v>5</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="N12" s="55">
+        <v>5</v>
+      </c>
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
@@ -21730,15 +22171,15 @@
         <v>508</v>
       </c>
       <c r="C15" s="212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="33">
         <v>2</v>
       </c>
       <c r="E15" s="213"/>
       <c r="F15" s="107">
-        <f>AVERAGE(G15,K15,L15,M15)</f>
-        <v>4.5</v>
+        <f>AVERAGE(G15,K15,L15,M15,N15)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G15" s="43">
         <v>4</v>
@@ -21755,7 +22196,9 @@
       <c r="M15" s="55">
         <v>4</v>
       </c>
-      <c r="N15" s="55"/>
+      <c r="N15" s="55">
+        <v>4</v>
+      </c>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -21795,10 +22238,15 @@
       <c r="B16" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="C16" s="212"/>
+      <c r="C16" s="212">
+        <v>1</v>
+      </c>
       <c r="D16" s="33"/>
       <c r="E16" s="208"/>
-      <c r="F16" s="107"/>
+      <c r="F16" s="107">
+        <f>AVERAGE(N16)</f>
+        <v>5</v>
+      </c>
       <c r="G16" s="144"/>
       <c r="H16" s="166"/>
       <c r="I16" s="166"/>
@@ -21806,7 +22254,9 @@
       <c r="K16" s="166"/>
       <c r="L16" s="55"/>
       <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
+      <c r="N16" s="166">
+        <v>5</v>
+      </c>
       <c r="O16" s="55"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
@@ -21847,13 +22297,13 @@
         <v>512</v>
       </c>
       <c r="C17" s="212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="208"/>
       <c r="F17" s="107">
-        <f>AVERAGE(L17,M17)</f>
-        <v>5</v>
+        <f>AVERAGE(L17,M17,N17)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G17" s="144"/>
       <c r="H17" s="166"/>
@@ -21866,7 +22316,9 @@
       <c r="M17" s="55">
         <v>5</v>
       </c>
-      <c r="N17" s="166"/>
+      <c r="N17" s="166">
+        <v>4</v>
+      </c>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
       <c r="Q17" s="55"/>
@@ -21907,13 +22359,13 @@
         <v>698</v>
       </c>
       <c r="C18" s="392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="374"/>
       <c r="E18" s="391"/>
       <c r="F18" s="371">
-        <f>AVERAGE(L18,M18)</f>
-        <v>4.5</v>
+        <f>AVERAGE(L18,M18,N18)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G18" s="144"/>
       <c r="H18" s="166"/>
@@ -21926,7 +22378,9 @@
       <c r="M18" s="55">
         <v>5</v>
       </c>
-      <c r="N18" s="166"/>
+      <c r="N18" s="166">
+        <v>5</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -21967,12 +22421,12 @@
         <v>513</v>
       </c>
       <c r="C19" s="215">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="216"/>
       <c r="E19" s="217"/>
       <c r="F19" s="29">
-        <f>AVERAGE(H19,I19,J19,K19,L19,M19)</f>
+        <f>AVERAGE(H19,I19,J19,K19,L19,M19,N19)</f>
         <v>5</v>
       </c>
       <c r="G19" s="144"/>
@@ -21994,7 +22448,9 @@
       <c r="M19" s="55">
         <v>5</v>
       </c>
-      <c r="N19" s="166"/>
+      <c r="N19" s="166">
+        <v>5</v>
+      </c>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
@@ -22035,15 +22491,15 @@
         <v>502</v>
       </c>
       <c r="C20" s="212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="33">
         <v>4</v>
       </c>
       <c r="E20" s="213"/>
       <c r="F20" s="107">
-        <f>AVERAGE(G20,H20,L20,M20)</f>
-        <v>3.75</v>
+        <f>AVERAGE(G20,H20,L20,M20,N20)</f>
+        <v>3.8</v>
       </c>
       <c r="G20" s="55">
         <v>4</v>
@@ -22064,7 +22520,9 @@
       <c r="M20" s="267">
         <v>3</v>
       </c>
-      <c r="N20" s="55"/>
+      <c r="N20" s="55">
+        <v>4</v>
+      </c>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
@@ -22105,15 +22563,15 @@
         <v>503</v>
       </c>
       <c r="C21" s="212">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="213">
         <v>1</v>
       </c>
       <c r="F21" s="107">
-        <f>AVERAGE(G21,H21,I21,J21,K21,L21)</f>
-        <v>5.166666666666667</v>
+        <f>AVERAGE(G21,H21,I21,J21,K21,L21,N21)</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="G21" s="144">
         <v>4</v>
@@ -22134,7 +22592,9 @@
         <v>5</v>
       </c>
       <c r="M21" s="55"/>
-      <c r="N21" s="166"/>
+      <c r="N21" s="166">
+        <v>5</v>
+      </c>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="166"/>
@@ -22375,15 +22835,15 @@
         <v>514</v>
       </c>
       <c r="C25" s="212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="33">
         <v>1</v>
       </c>
       <c r="E25" s="213"/>
       <c r="F25" s="107">
-        <f>AVERAGE(L25,M25)</f>
-        <v>5</v>
+        <f>AVERAGE(L25,M25,N25)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G25" s="144"/>
       <c r="H25" s="166"/>
@@ -22398,7 +22858,9 @@
       <c r="M25" s="166">
         <v>5</v>
       </c>
-      <c r="N25" s="55"/>
+      <c r="N25" s="55">
+        <v>4</v>
+      </c>
       <c r="O25" s="55"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
@@ -22566,7 +23028,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="214">
         <v>1</v>
@@ -22592,7 +23054,9 @@
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
+      <c r="N28" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
@@ -22633,7 +23097,7 @@
         <v>507</v>
       </c>
       <c r="C29" s="212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="33">
         <v>3</v>
@@ -22642,8 +23106,8 @@
         <v>1</v>
       </c>
       <c r="F29" s="107">
-        <f>AVERAGE(G29,H29,L29)</f>
-        <v>3.3333333333333335</v>
+        <f>AVERAGE(G29,H29,L29,N29)</f>
+        <v>3.5</v>
       </c>
       <c r="G29" s="268">
         <v>3</v>
@@ -22664,7 +23128,9 @@
         <v>4</v>
       </c>
       <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
+      <c r="N29" s="55">
+        <v>4</v>
+      </c>
       <c r="O29" s="55"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="166"/>
@@ -22708,7 +23174,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="152"/>
       <c r="F30" s="107">
@@ -22732,7 +23198,9 @@
       <c r="M30" s="308">
         <v>3</v>
       </c>
-      <c r="N30" s="55"/>
+      <c r="N30" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
@@ -22842,7 +23310,7 @@
       </c>
       <c r="C32" s="392"/>
       <c r="D32" s="374">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="393"/>
       <c r="F32" s="371"/>
@@ -22857,7 +23325,9 @@
       <c r="M32" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N32" s="55"/>
+      <c r="N32" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="166"/>
@@ -22970,7 +23440,10 @@
         <f>AVERAGE(M8,M12,M15,M18,M17,M19,M22,M23,M25,M30,M20)</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="N34" s="116"/>
+      <c r="N34" s="116">
+        <f>AVERAGE(N8,N12,N15,N16,N17,N18,N19,N20,N21,N25,N29)</f>
+        <v>4.6363636363636367</v>
+      </c>
       <c r="O34" s="116"/>
       <c r="P34" s="116"/>
       <c r="Q34" s="116"/>
@@ -23086,7 +23559,9 @@
       <c r="M6" s="139" t="s">
         <v>733</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="139" t="s">
+        <v>744</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="82"/>
@@ -23126,13 +23601,13 @@
         <v>169</v>
       </c>
       <c r="C7" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="113"/>
       <c r="E7" s="110"/>
       <c r="F7" s="30">
-        <f>AVERAGE(G7,H7,I7,J7,K7,L7,M7)</f>
-        <v>5.1428571428571432</v>
+        <f>AVERAGE(G7,H7,I7,J7,K7,L7,M7,N7)</f>
+        <v>5.25</v>
       </c>
       <c r="G7" s="266">
         <v>6</v>
@@ -23155,7 +23630,9 @@
       <c r="M7" s="55">
         <v>5</v>
       </c>
-      <c r="N7" s="106"/>
+      <c r="N7" s="106">
+        <v>6</v>
+      </c>
       <c r="O7" s="106"/>
       <c r="P7" s="54"/>
       <c r="Q7" s="106"/>
@@ -23298,13 +23775,13 @@
         <v>239</v>
       </c>
       <c r="C10" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="126"/>
       <c r="E10" s="191"/>
       <c r="F10" s="107">
-        <f>AVERAGE(G10,H10,I10,J10,K10,M10)</f>
-        <v>4.833333333333333</v>
+        <f>AVERAGE(G10,H10,I10,J10,K10,M10,N10)</f>
+        <v>4.8571428571428568</v>
       </c>
       <c r="G10" s="185">
         <v>5</v>
@@ -23325,7 +23802,9 @@
       <c r="M10" s="88">
         <v>6</v>
       </c>
-      <c r="N10" s="88"/>
+      <c r="N10" s="88">
+        <v>5</v>
+      </c>
       <c r="O10" s="88"/>
       <c r="P10" s="88"/>
       <c r="Q10" s="44"/>
@@ -23587,7 +24066,9 @@
         <v>351</v>
       </c>
       <c r="C15" s="132"/>
-      <c r="D15" s="140"/>
+      <c r="D15" s="140">
+        <v>1</v>
+      </c>
       <c r="E15" s="143"/>
       <c r="F15" s="107"/>
       <c r="G15" s="106"/>
@@ -23597,7 +24078,9 @@
       <c r="K15" s="106"/>
       <c r="L15" s="106"/>
       <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
+      <c r="N15" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O15" s="106"/>
       <c r="P15" s="106"/>
       <c r="Q15" s="106"/>
@@ -23638,13 +24121,13 @@
         <v>479</v>
       </c>
       <c r="C16" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="140"/>
       <c r="E16" s="143"/>
       <c r="F16" s="107">
-        <f>AVERAGE(G16,H16,I16,J16,K16,M16)</f>
-        <v>5.166666666666667</v>
+        <f>AVERAGE(G16,H16,I16,J16,K16,M16,N16)</f>
+        <v>5</v>
       </c>
       <c r="G16" s="106">
         <v>5</v>
@@ -23667,7 +24150,9 @@
       <c r="M16" s="313">
         <v>7</v>
       </c>
-      <c r="N16" s="106"/>
+      <c r="N16" s="106">
+        <v>4</v>
+      </c>
       <c r="O16" s="106"/>
       <c r="P16" s="106"/>
       <c r="Q16" s="106"/>
@@ -23780,13 +24265,13 @@
         <v>734</v>
       </c>
       <c r="C18" s="356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="140"/>
       <c r="E18" s="143"/>
       <c r="F18" s="371">
-        <f>AVERAGE(M18)</f>
-        <v>6</v>
+        <f>AVERAGE(M18,N18)</f>
+        <v>5.5</v>
       </c>
       <c r="G18" s="106"/>
       <c r="H18" s="88"/>
@@ -23797,7 +24282,9 @@
       <c r="M18" s="106">
         <v>6</v>
       </c>
-      <c r="N18" s="106"/>
+      <c r="N18" s="106">
+        <v>5</v>
+      </c>
       <c r="O18" s="106"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="106"/>
@@ -23838,13 +24325,13 @@
         <v>477</v>
       </c>
       <c r="C19" s="136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="114"/>
       <c r="E19" s="111"/>
       <c r="F19" s="29">
-        <f>AVERAGE(K19,L19,M19)</f>
-        <v>4</v>
+        <f>AVERAGE(K19,L19,M19,N19)</f>
+        <v>4.25</v>
       </c>
       <c r="G19" s="185" t="s">
         <v>430</v>
@@ -23861,7 +24348,9 @@
       <c r="M19" s="88">
         <v>4</v>
       </c>
-      <c r="N19" s="106"/>
+      <c r="N19" s="106">
+        <v>5</v>
+      </c>
       <c r="O19" s="106"/>
       <c r="P19" s="106"/>
       <c r="Q19" s="106"/>
@@ -23953,15 +24442,15 @@
         <v>301</v>
       </c>
       <c r="C21" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="126">
         <v>3</v>
       </c>
       <c r="E21" s="143"/>
       <c r="F21" s="107">
-        <f>AVERAGE(G21,H21,J21,K21)</f>
-        <v>4.5</v>
+        <f>AVERAGE(G21,H21,J21,K21,N21)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G21" s="88">
         <v>5</v>
@@ -23984,7 +24473,9 @@
       <c r="M21" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="88"/>
+      <c r="N21" s="88">
+        <v>4</v>
+      </c>
       <c r="O21" s="88"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="106"/>
@@ -24025,7 +24516,7 @@
         <v>343</v>
       </c>
       <c r="C22" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="109">
         <v>1</v>
@@ -24034,8 +24525,8 @@
         <v>1</v>
       </c>
       <c r="F22" s="107">
-        <f>AVERAGE(G22,H22,I22,L22,M22)</f>
-        <v>5.4</v>
+        <f>AVERAGE(G22,H22,I22,L22,M22,N22)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="G22" s="106">
         <v>5</v>
@@ -24056,7 +24547,9 @@
       <c r="M22" s="106">
         <v>5</v>
       </c>
-      <c r="N22" s="88"/>
+      <c r="N22" s="88">
+        <v>5</v>
+      </c>
       <c r="O22" s="88"/>
       <c r="P22" s="88"/>
       <c r="Q22" s="106"/>
@@ -24159,14 +24652,14 @@
         <v>368</v>
       </c>
       <c r="C24" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="126">
         <v>2</v>
       </c>
       <c r="E24" s="143"/>
       <c r="F24" s="107">
-        <f>AVERAGE(J24,K24,L24,M24)</f>
+        <f>AVERAGE(J24,K24,L24,M24,N24)</f>
         <v>5</v>
       </c>
       <c r="G24" s="106"/>
@@ -24186,7 +24679,9 @@
       <c r="M24" s="106">
         <v>5</v>
       </c>
-      <c r="N24" s="88"/>
+      <c r="N24" s="88">
+        <v>5</v>
+      </c>
       <c r="O24" s="88"/>
       <c r="P24" s="88"/>
       <c r="Q24" s="106"/>
@@ -24227,17 +24722,17 @@
         <v>406</v>
       </c>
       <c r="C25" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="109">
         <v>1</v>
       </c>
       <c r="E25" s="143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="107">
-        <f>AVERAGE(G25,I25,J25,K25,L25,M25)</f>
-        <v>5</v>
+        <f>AVERAGE(G25,I25,J25,K25,L25,M25,N25)</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="G25" s="106">
         <v>4</v>
@@ -24260,7 +24755,9 @@
       <c r="M25" s="106">
         <v>6</v>
       </c>
-      <c r="N25" s="106"/>
+      <c r="N25" s="54">
+        <v>6</v>
+      </c>
       <c r="O25" s="106"/>
       <c r="P25" s="106"/>
       <c r="Q25" s="106"/>
@@ -24432,7 +24929,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="143"/>
       <c r="F28" s="107">
@@ -24456,7 +24953,9 @@
         <v>4</v>
       </c>
       <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
+      <c r="N28" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O28" s="106"/>
       <c r="P28" s="106"/>
       <c r="Q28" s="106"/>
@@ -24497,13 +24996,13 @@
         <v>648</v>
       </c>
       <c r="C29" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="109"/>
       <c r="E29" s="143"/>
       <c r="F29" s="107">
-        <f>AVERAGE(J29,K29,L29,M29)</f>
-        <v>5.75</v>
+        <f>AVERAGE(J29,K29,L29,M29,N29)</f>
+        <v>5.8</v>
       </c>
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
@@ -24520,7 +25019,9 @@
       <c r="M29" s="313">
         <v>7</v>
       </c>
-      <c r="N29" s="106"/>
+      <c r="N29" s="106">
+        <v>6</v>
+      </c>
       <c r="O29" s="106"/>
       <c r="P29" s="106"/>
       <c r="Q29" s="106"/>
@@ -24774,7 +25275,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="143"/>
       <c r="F34" s="107">
@@ -24796,7 +25297,9 @@
       </c>
       <c r="L34" s="106"/>
       <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
+      <c r="N34" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O34" s="106"/>
       <c r="P34" s="106"/>
       <c r="Q34" s="106"/>
@@ -24905,15 +25408,15 @@
         <v>480</v>
       </c>
       <c r="C36" s="133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="176"/>
       <c r="E36" s="112">
         <v>5</v>
       </c>
       <c r="F36" s="28">
-        <f>AVERAGE(G36,I36,H36,J36,K36,L36,M36)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G36,I36,H36,J36,K36,L36,M36,N36)</f>
+        <v>5.25</v>
       </c>
       <c r="G36" s="106">
         <v>5</v>
@@ -24936,7 +25439,9 @@
       <c r="M36" s="54">
         <v>6</v>
       </c>
-      <c r="N36" s="106"/>
+      <c r="N36" s="106">
+        <v>4</v>
+      </c>
       <c r="O36" s="106"/>
       <c r="P36" s="106"/>
       <c r="Q36" s="106"/>
@@ -24998,7 +25503,10 @@
         <f>AVERAGE(M7,M10,M16,M18,M19,M22,M24,M25,M29,M35,M36)</f>
         <v>5.7272727272727275</v>
       </c>
-      <c r="N37" s="32"/>
+      <c r="N37" s="32">
+        <f>AVERAGE(N7,N10,N16,N18,N19,N22,N21,N24,N25,N29,N36)</f>
+        <v>5</v>
+      </c>
       <c r="O37" s="32"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="32"/>
@@ -25114,7 +25622,9 @@
       <c r="M7" s="139" t="s">
         <v>724</v>
       </c>
-      <c r="N7" s="139"/>
+      <c r="N7" s="139" t="s">
+        <v>745</v>
+      </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
       <c r="Q7" s="139"/>
@@ -25154,13 +25664,13 @@
         <v>447</v>
       </c>
       <c r="C8" s="224">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="225"/>
       <c r="E8" s="226"/>
       <c r="F8" s="232">
-        <f>AVERAGE(I8,G8,H8,J8,K8,L8,M8)</f>
-        <v>5.2857142857142856</v>
+        <f>AVERAGE(I8,G8,H8,J8,K8,L8,M8,N8)</f>
+        <v>5.125</v>
       </c>
       <c r="G8" s="173">
         <v>5</v>
@@ -25183,7 +25693,9 @@
       <c r="M8" s="51">
         <v>6</v>
       </c>
-      <c r="N8" s="166"/>
+      <c r="N8" s="166">
+        <v>4</v>
+      </c>
       <c r="O8" s="55"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
@@ -25451,13 +25963,13 @@
         <v>450</v>
       </c>
       <c r="C13" s="150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="152"/>
       <c r="F13" s="107">
-        <f>AVERAGE(G13,H13,I13,J13,K13,M13)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(G13,H13,I13,J13,K13,M13,N13)</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="G13" s="173">
         <v>5</v>
@@ -25478,7 +25990,9 @@
       <c r="M13" s="50">
         <v>5</v>
       </c>
-      <c r="N13" s="166"/>
+      <c r="N13" s="166">
+        <v>4</v>
+      </c>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
@@ -25518,13 +26032,13 @@
         <v>451</v>
       </c>
       <c r="C14" s="150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="152"/>
       <c r="F14" s="107">
-        <f>AVERAGE(G14,H14,I14,J14,L14,M14)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(G14,H14,I14,J14,L14,M14,N14)</f>
+        <v>4.7142857142857144</v>
       </c>
       <c r="G14" s="173">
         <v>5</v>
@@ -25545,7 +26059,9 @@
       <c r="M14" s="50">
         <v>5</v>
       </c>
-      <c r="N14" s="166"/>
+      <c r="N14" s="166">
+        <v>5</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
@@ -25585,12 +26101,12 @@
         <v>558</v>
       </c>
       <c r="C15" s="150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="152"/>
       <c r="F15" s="107">
-        <f>AVERAGE(H15,I15,J15,K15,M15)</f>
+        <f>AVERAGE(H15,I15,J15,K15,M15,N15)</f>
         <v>5</v>
       </c>
       <c r="G15" s="173"/>
@@ -25610,7 +26126,9 @@
       <c r="M15" s="50">
         <v>6</v>
       </c>
-      <c r="N15" s="166"/>
+      <c r="N15" s="166">
+        <v>5</v>
+      </c>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -25757,15 +26275,15 @@
         <v>693</v>
       </c>
       <c r="C18" s="388">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="379"/>
       <c r="E18" s="391" t="s">
         <v>597</v>
       </c>
       <c r="F18" s="371">
-        <f>AVERAGE(L18,M18)</f>
-        <v>4.5</v>
+        <f>AVERAGE(L18,M18,N18)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G18" s="173"/>
       <c r="H18" s="55"/>
@@ -25778,7 +26296,9 @@
       <c r="M18" s="379">
         <v>6</v>
       </c>
-      <c r="N18" s="166"/>
+      <c r="N18" s="166">
+        <v>4</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -25877,7 +26397,7 @@
         <v>452</v>
       </c>
       <c r="C20" s="150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="50">
         <v>1</v>
@@ -25886,8 +26406,8 @@
         <v>2</v>
       </c>
       <c r="F20" s="107">
-        <f>AVERAGE(K20,G20,H20,I20,J20,M20)</f>
-        <v>5.5</v>
+        <f>AVERAGE(K20,G20,H20,I20,J20,M20,N20)</f>
+        <v>5.2857142857142856</v>
       </c>
       <c r="G20" s="173">
         <v>5</v>
@@ -25910,7 +26430,9 @@
       <c r="M20" s="50">
         <v>6</v>
       </c>
-      <c r="N20" s="166"/>
+      <c r="N20" s="166">
+        <v>4</v>
+      </c>
       <c r="O20" s="166"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="166"/>
@@ -25950,15 +26472,15 @@
         <v>453</v>
       </c>
       <c r="C21" s="150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="227">
         <v>1</v>
       </c>
       <c r="F21" s="64">
-        <f>AVERAGE(I21,G21,H21,J21,L21,M21)</f>
-        <v>5.166666666666667</v>
+        <f>AVERAGE(I21,G21,H21,J21,L21,M21,N21)</f>
+        <v>5.1428571428571432</v>
       </c>
       <c r="G21" s="173">
         <v>5</v>
@@ -25979,7 +26501,9 @@
       <c r="M21" s="349">
         <v>8</v>
       </c>
-      <c r="N21" s="166"/>
+      <c r="N21" s="166">
+        <v>5</v>
+      </c>
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
@@ -26158,10 +26682,13 @@
       </c>
       <c r="C24" s="150"/>
       <c r="D24" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="152"/>
-      <c r="F24" s="107"/>
+      <c r="F24" s="107">
+        <f>AVERAGE(N24)</f>
+        <v>5</v>
+      </c>
       <c r="G24" s="43" t="s">
         <v>106</v>
       </c>
@@ -26175,7 +26702,9 @@
       <c r="M24" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="166"/>
+      <c r="N24" s="88">
+        <v>5</v>
+      </c>
       <c r="O24" s="55"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
@@ -26218,12 +26747,12 @@
         <v>1</v>
       </c>
       <c r="D25" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="152"/>
       <c r="F25" s="107">
-        <f>AVERAGE(L25)</f>
-        <v>3</v>
+        <f>AVERAGE(L25,N25)</f>
+        <v>4</v>
       </c>
       <c r="G25" s="173"/>
       <c r="H25" s="55"/>
@@ -26238,7 +26767,9 @@
       <c r="M25" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="166"/>
+      <c r="N25" s="88">
+        <v>5</v>
+      </c>
       <c r="O25" s="166"/>
       <c r="P25" s="166"/>
       <c r="Q25" s="55"/>
@@ -26278,7 +26809,7 @@
         <v>579</v>
       </c>
       <c r="C26" s="150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="50">
         <v>2</v>
@@ -26287,8 +26818,8 @@
         <v>1</v>
       </c>
       <c r="F26" s="107">
-        <f>AVERAGE(K26,L26,M26)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(K26,L26,M26,N26)</f>
+        <v>4.75</v>
       </c>
       <c r="G26" s="173"/>
       <c r="H26" s="166"/>
@@ -26307,7 +26838,9 @@
       <c r="M26" s="50">
         <v>5</v>
       </c>
-      <c r="N26" s="166"/>
+      <c r="N26" s="166">
+        <v>5</v>
+      </c>
       <c r="O26" s="55"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="55"/>
@@ -26447,15 +26980,15 @@
         <v>633</v>
       </c>
       <c r="C29" s="150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="50">
         <v>1</v>
       </c>
       <c r="E29" s="152"/>
       <c r="F29" s="107">
-        <f>AVERAGE(K29,L29,M29)</f>
-        <v>5.666666666666667</v>
+        <f>AVERAGE(K29,L29,M29,N29)</f>
+        <v>5.5</v>
       </c>
       <c r="G29" s="173"/>
       <c r="H29" s="55"/>
@@ -26472,7 +27005,9 @@
       <c r="M29" s="411">
         <v>8</v>
       </c>
-      <c r="N29" s="166"/>
+      <c r="N29" s="166">
+        <v>5</v>
+      </c>
       <c r="O29" s="55"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
@@ -26629,7 +27164,7 @@
         <v>455</v>
       </c>
       <c r="C32" s="150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="50">
         <v>4</v>
@@ -26638,8 +27173,8 @@
         <v>1</v>
       </c>
       <c r="F32" s="107">
-        <f>AVERAGE(G32,H32,J32,K32,L32)</f>
-        <v>4.4000000000000004</v>
+        <f>AVERAGE(G32,H32,J32,K32,L32,N32)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G32" s="173">
         <v>5</v>
@@ -26662,7 +27197,9 @@
       <c r="M32" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N32" s="166"/>
+      <c r="N32" s="166">
+        <v>4</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
@@ -26702,17 +27239,17 @@
         <v>457</v>
       </c>
       <c r="C33" s="150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="50">
         <v>2</v>
       </c>
       <c r="E33" s="152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="107">
-        <f>AVERAGE(I33,J33,K33,M33)</f>
-        <v>5.25</v>
+        <f>AVERAGE(I33,J33,K33,M33,N33)</f>
+        <v>5.6</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>106</v>
@@ -26733,7 +27270,9 @@
       <c r="M33" s="349">
         <v>8</v>
       </c>
-      <c r="N33" s="166"/>
+      <c r="N33" s="305">
+        <v>7</v>
+      </c>
       <c r="O33" s="166"/>
       <c r="P33" s="166"/>
       <c r="Q33" s="55"/>
@@ -26774,9 +27313,11 @@
       </c>
       <c r="C34" s="163"/>
       <c r="D34" s="164">
-        <v>2</v>
-      </c>
-      <c r="E34" s="165"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="165">
+        <v>1</v>
+      </c>
       <c r="F34" s="28"/>
       <c r="G34" s="43" t="s">
         <v>106</v>
@@ -26789,7 +27330,9 @@
       <c r="K34" s="166"/>
       <c r="L34" s="166"/>
       <c r="M34" s="48"/>
-      <c r="N34" s="166"/>
+      <c r="N34" s="44" t="s">
+        <v>106</v>
+      </c>
       <c r="O34" s="166"/>
       <c r="P34" s="55"/>
       <c r="Q34" s="166"/>
@@ -26850,7 +27393,10 @@
         <f>AVERAGE(M8,M13,M14,M15,M18,M20,M21,M22,M26,M29,M33)</f>
         <v>6.2727272727272725</v>
       </c>
-      <c r="N35" s="116"/>
+      <c r="N35" s="116">
+        <f>AVERAGE(N8,N13,N14,N15,N18,N21,N20,N26,N29,N32,N33)</f>
+        <v>4.7272727272727275</v>
+      </c>
       <c r="O35" s="116"/>
       <c r="P35" s="116"/>
       <c r="Q35" s="116"/>
@@ -26965,7 +27511,9 @@
       <c r="M7" s="139" t="s">
         <v>731</v>
       </c>
-      <c r="N7" s="139"/>
+      <c r="N7" s="139" t="s">
+        <v>749</v>
+      </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
       <c r="Q7" s="139"/>
@@ -27005,13 +27553,13 @@
         <v>464</v>
       </c>
       <c r="C8" s="229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="230"/>
       <c r="E8" s="231"/>
       <c r="F8" s="232">
-        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>6</v>
+        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8,N8)</f>
+        <v>5.5</v>
       </c>
       <c r="G8" s="173">
         <v>5</v>
@@ -27034,7 +27582,9 @@
       <c r="M8" s="51">
         <v>6</v>
       </c>
-      <c r="N8" s="166"/>
+      <c r="N8" s="295">
+        <v>2</v>
+      </c>
       <c r="O8" s="55"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
@@ -27174,15 +27724,15 @@
         <v>466</v>
       </c>
       <c r="C11" s="127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="128">
         <v>1</v>
       </c>
       <c r="E11" s="235"/>
       <c r="F11" s="64">
-        <f>AVERAGE(G11,L11,M11)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(G11,L11,M11,N11)</f>
+        <v>4.75</v>
       </c>
       <c r="G11" s="173">
         <v>6</v>
@@ -27199,7 +27749,9 @@
       <c r="M11" s="50">
         <v>6</v>
       </c>
-      <c r="N11" s="166"/>
+      <c r="N11" s="295">
+        <v>3</v>
+      </c>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
@@ -27239,15 +27791,15 @@
         <v>467</v>
       </c>
       <c r="C12" s="127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="128"/>
       <c r="E12" s="129">
         <v>1</v>
       </c>
       <c r="F12" s="64">
-        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12)</f>
-        <v>5.4285714285714288</v>
+        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12,N12)</f>
+        <v>5.125</v>
       </c>
       <c r="G12" s="173">
         <v>5</v>
@@ -27270,7 +27822,9 @@
       <c r="M12" s="50">
         <v>5</v>
       </c>
-      <c r="N12" s="166"/>
+      <c r="N12" s="295">
+        <v>3</v>
+      </c>
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
@@ -27502,13 +28056,13 @@
         <v>565</v>
       </c>
       <c r="C16" s="127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="128"/>
       <c r="E16" s="129"/>
       <c r="F16" s="64">
-        <f>AVERAGE(H16,I16,J16,K16,L16,M16)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(H16,I16,J16,K16,L16,M16,N16)</f>
+        <v>4.4285714285714288</v>
       </c>
       <c r="G16" s="173"/>
       <c r="H16" s="308">
@@ -27529,7 +28083,9 @@
       <c r="M16" s="50">
         <v>5</v>
       </c>
-      <c r="N16" s="166"/>
+      <c r="N16" s="295">
+        <v>3</v>
+      </c>
       <c r="O16" s="55"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
@@ -27570,7 +28126,7 @@
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="129"/>
       <c r="F17" s="64"/>
@@ -27583,7 +28139,9 @@
       <c r="K17" s="166"/>
       <c r="L17" s="166"/>
       <c r="M17" s="50"/>
-      <c r="N17" s="166"/>
+      <c r="N17" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
       <c r="Q17" s="166"/>
@@ -27723,13 +28281,13 @@
         <v>732</v>
       </c>
       <c r="C20" s="127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="128"/>
       <c r="E20" s="129"/>
       <c r="F20" s="382">
-        <f>AVERAGE(M20)</f>
-        <v>5</v>
+        <f>AVERAGE(M20,N20)</f>
+        <v>3</v>
       </c>
       <c r="G20" s="173"/>
       <c r="H20" s="55"/>
@@ -27740,7 +28298,9 @@
       <c r="M20" s="379">
         <v>5</v>
       </c>
-      <c r="N20" s="166"/>
+      <c r="N20" s="295">
+        <v>1</v>
+      </c>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="166"/>
@@ -27893,13 +28453,13 @@
         <v>67</v>
       </c>
       <c r="C23" s="127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="128"/>
       <c r="E23" s="129"/>
       <c r="F23" s="64">
-        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>5.1428571428571432</v>
+        <f>AVERAGE(G23,H23,I23,J23,K23,L23,M23,N23)</f>
+        <v>4.75</v>
       </c>
       <c r="G23" s="173">
         <v>5</v>
@@ -27922,7 +28482,9 @@
       <c r="M23" s="50">
         <v>5</v>
       </c>
-      <c r="N23" s="166"/>
+      <c r="N23" s="295">
+        <v>2</v>
+      </c>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
@@ -27965,7 +28527,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="129"/>
       <c r="F24" s="64">
@@ -27991,7 +28553,9 @@
       <c r="M24" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="166"/>
+      <c r="N24" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O24" s="55"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="166"/>
@@ -28031,13 +28595,13 @@
         <v>472</v>
       </c>
       <c r="C25" s="127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="128"/>
       <c r="E25" s="129"/>
       <c r="F25" s="64">
-        <f>AVERAGE(G25,H25,I25,J25,K25,M25)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(G25,H25,I25,J25,K25,M25,N25)</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="G25" s="173">
         <v>5</v>
@@ -28058,7 +28622,9 @@
       <c r="M25" s="48">
         <v>6</v>
       </c>
-      <c r="N25" s="166"/>
+      <c r="N25" s="166">
+        <v>4</v>
+      </c>
       <c r="O25" s="166"/>
       <c r="P25" s="166"/>
       <c r="Q25" s="55"/>
@@ -28098,15 +28664,15 @@
         <v>301</v>
       </c>
       <c r="C26" s="127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="128">
         <v>3</v>
       </c>
       <c r="E26" s="129"/>
       <c r="F26" s="64">
-        <f>AVERAGE(J26,K26,L26,M26)</f>
-        <v>4.5</v>
+        <f>AVERAGE(J26,K26,L26,M26,N26)</f>
+        <v>4.2</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>106</v>
@@ -28129,7 +28695,9 @@
       <c r="M26" s="48">
         <v>6</v>
       </c>
-      <c r="N26" s="166"/>
+      <c r="N26" s="295">
+        <v>3</v>
+      </c>
       <c r="O26" s="166"/>
       <c r="P26" s="166"/>
       <c r="Q26" s="55"/>
@@ -28169,13 +28737,13 @@
         <v>566</v>
       </c>
       <c r="C27" s="127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="128"/>
       <c r="E27" s="129"/>
       <c r="F27" s="64">
-        <f>AVERAGE(H27,I27,J27,K27,L27,M27)</f>
-        <v>5</v>
+        <f>AVERAGE(H27,I27,J27,K27,L27,M27,N27)</f>
+        <v>4.7142857142857144</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="166">
@@ -28196,7 +28764,9 @@
       <c r="M27" s="48">
         <v>5</v>
       </c>
-      <c r="N27" s="166"/>
+      <c r="N27" s="295">
+        <v>3</v>
+      </c>
       <c r="O27" s="166"/>
       <c r="P27" s="166"/>
       <c r="Q27" s="55"/>
@@ -28286,13 +28856,13 @@
         <v>708</v>
       </c>
       <c r="C29" s="127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="128"/>
       <c r="E29" s="129"/>
       <c r="F29" s="382">
-        <f>AVERAGE(L29,M29)</f>
-        <v>5</v>
+        <f>AVERAGE(L29,M29,N29)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="166"/>
@@ -28305,7 +28875,9 @@
       <c r="M29" s="48">
         <v>6</v>
       </c>
-      <c r="N29" s="166"/>
+      <c r="N29" s="295">
+        <v>3</v>
+      </c>
       <c r="O29" s="166"/>
       <c r="P29" s="166"/>
       <c r="Q29" s="55"/>
@@ -28518,15 +29090,15 @@
         <v>398</v>
       </c>
       <c r="C33" s="150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="152">
         <v>6</v>
       </c>
       <c r="F33" s="64">
-        <f>AVERAGE(G33,H33,I33,J33,K33,L33,M33)</f>
-        <v>5.1428571428571432</v>
+        <f>AVERAGE(G33,H33,I33,J33,K33,L33,M33,N33)</f>
+        <v>4.875</v>
       </c>
       <c r="G33" s="252">
         <v>7</v>
@@ -28549,7 +29121,9 @@
       <c r="M33" s="52">
         <v>6</v>
       </c>
-      <c r="N33" s="166"/>
+      <c r="N33" s="295">
+        <v>3</v>
+      </c>
       <c r="O33" s="55"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="55"/>
@@ -28592,7 +29166,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="164">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" s="165"/>
       <c r="F34" s="237">
@@ -28620,7 +29194,9 @@
       <c r="M34" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="N34" s="166"/>
+      <c r="N34" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O34" s="55"/>
       <c r="P34" s="166"/>
       <c r="Q34" s="55"/>
@@ -28681,7 +29257,10 @@
         <f>AVERAGE(M8,M11,M12,M16,M20,M23,M25,M26,M27,M29,M33)</f>
         <v>5.5454545454545459</v>
       </c>
-      <c r="N35" s="116"/>
+      <c r="N35" s="116">
+        <f>AVERAGE(N8,N11,N12,N16,N20,N23,N25,N26,N27,N29,N33)</f>
+        <v>2.7272727272727271</v>
+      </c>
       <c r="O35" s="116"/>
       <c r="P35" s="116"/>
       <c r="Q35" s="116"/>
@@ -28798,7 +29377,9 @@
       <c r="M6" s="139" t="s">
         <v>727</v>
       </c>
-      <c r="N6" s="139"/>
+      <c r="N6" s="139" t="s">
+        <v>757</v>
+      </c>
       <c r="O6" s="139"/>
       <c r="P6" s="139"/>
       <c r="Q6" s="139"/>
@@ -28838,13 +29419,13 @@
         <v>29</v>
       </c>
       <c r="C7" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="119"/>
       <c r="E7" s="108"/>
       <c r="F7" s="30">
-        <f>AVERAGE(G7,H7,I7,J7,K7,L7,M7)</f>
-        <v>5.2857142857142856</v>
+        <f>AVERAGE(G7,H7,I7,J7,K7,L7,M7,N7)</f>
+        <v>5.5</v>
       </c>
       <c r="G7" s="296">
         <v>7</v>
@@ -28867,7 +29448,9 @@
       <c r="M7" s="55">
         <v>5</v>
       </c>
-      <c r="N7" s="106"/>
+      <c r="N7" s="251">
+        <v>7</v>
+      </c>
       <c r="O7" s="54"/>
       <c r="P7" s="106"/>
       <c r="Q7" s="54"/>
@@ -29061,13 +29644,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="134"/>
       <c r="E11" s="130"/>
       <c r="F11" s="107">
-        <f>AVERAGE(G11,J11,K11,L11,M11)</f>
-        <v>4.8</v>
+        <f>AVERAGE(G11,J11,K11,L11,M11,N11)</f>
+        <v>4.833333333333333</v>
       </c>
       <c r="G11" s="193">
         <v>6</v>
@@ -29086,7 +29669,9 @@
       <c r="M11" s="106">
         <v>5</v>
       </c>
-      <c r="N11" s="106"/>
+      <c r="N11" s="106">
+        <v>5</v>
+      </c>
       <c r="O11" s="106"/>
       <c r="P11" s="106"/>
       <c r="Q11" s="106"/>
@@ -29265,12 +29850,12 @@
         <v>540</v>
       </c>
       <c r="C14" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="134"/>
       <c r="E14" s="142"/>
       <c r="F14" s="107">
-        <f>AVERAGE(H14,I14,K14,L14,M14)</f>
+        <f>AVERAGE(H14,I14,K14,L14,M14,N14)</f>
         <v>5</v>
       </c>
       <c r="G14" s="193"/>
@@ -29290,7 +29875,9 @@
       <c r="M14" s="106">
         <v>5</v>
       </c>
-      <c r="N14" s="106"/>
+      <c r="N14" s="106">
+        <v>5</v>
+      </c>
       <c r="O14" s="106"/>
       <c r="P14" s="106"/>
       <c r="Q14" s="106"/>
@@ -29389,12 +29976,12 @@
         <v>703</v>
       </c>
       <c r="C16" s="356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="358"/>
       <c r="E16" s="363"/>
       <c r="F16" s="371">
-        <f>AVERAGE(L16,M16)</f>
+        <f>AVERAGE(L16,M16,N16)</f>
         <v>6</v>
       </c>
       <c r="G16" s="193"/>
@@ -29408,7 +29995,9 @@
       <c r="M16" s="106">
         <v>5</v>
       </c>
-      <c r="N16" s="106"/>
+      <c r="N16" s="106">
+        <v>6</v>
+      </c>
       <c r="O16" s="106"/>
       <c r="P16" s="106"/>
       <c r="Q16" s="106"/>
@@ -29449,13 +30038,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="137"/>
       <c r="E17" s="138"/>
       <c r="F17" s="29">
-        <f>AVERAGE(G17,H17,I17,K17,L17)</f>
-        <v>5.6</v>
+        <f>AVERAGE(G17,H17,I17,K17,L17,N17)</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="G17" s="193">
         <v>6</v>
@@ -29474,7 +30063,9 @@
         <v>6</v>
       </c>
       <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
+      <c r="N17" s="106">
+        <v>6</v>
+      </c>
       <c r="O17" s="106"/>
       <c r="P17" s="106"/>
       <c r="Q17" s="106"/>
@@ -29628,9 +30219,11 @@
         <v>1</v>
       </c>
       <c r="D20" s="134">
-        <v>3</v>
-      </c>
-      <c r="E20" s="130"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="130">
+        <v>1</v>
+      </c>
       <c r="F20" s="107">
         <f>AVERAGE(J20)</f>
         <v>4</v>
@@ -29650,7 +30243,9 @@
       <c r="M20" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="88"/>
+      <c r="N20" s="44" t="s">
+        <v>106</v>
+      </c>
       <c r="O20" s="88"/>
       <c r="P20" s="106"/>
       <c r="Q20" s="88"/>
@@ -29691,15 +30286,15 @@
         <v>35</v>
       </c>
       <c r="C21" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="134">
         <v>3</v>
       </c>
       <c r="E21" s="130"/>
       <c r="F21" s="107">
-        <f>AVERAGE(J21,K21,M21)</f>
-        <v>4.333333333333333</v>
+        <f>AVERAGE(J21,K21,M21,N21)</f>
+        <v>4.75</v>
       </c>
       <c r="G21" s="193" t="s">
         <v>106</v>
@@ -29720,7 +30315,9 @@
       <c r="M21" s="106">
         <v>5</v>
       </c>
-      <c r="N21" s="106"/>
+      <c r="N21" s="106">
+        <v>6</v>
+      </c>
       <c r="O21" s="106"/>
       <c r="P21" s="106"/>
       <c r="Q21" s="106"/>
@@ -29825,7 +30422,7 @@
         <v>154</v>
       </c>
       <c r="C23" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -29834,8 +30431,8 @@
         <v>2</v>
       </c>
       <c r="F23" s="107">
-        <f>AVERAGE(G23,H23,I23,K23,L23,M23)</f>
-        <v>6.166666666666667</v>
+        <f>AVERAGE(G23,H23,I23,K23,L23,M23,N23)</f>
+        <v>6.1428571428571432</v>
       </c>
       <c r="G23" s="193">
         <v>5</v>
@@ -29858,7 +30455,9 @@
       <c r="M23" s="55">
         <v>5</v>
       </c>
-      <c r="N23" s="106"/>
+      <c r="N23" s="106">
+        <v>6</v>
+      </c>
       <c r="O23" s="106"/>
       <c r="P23" s="106"/>
       <c r="Q23" s="106"/>
@@ -29899,15 +30498,15 @@
         <v>172</v>
       </c>
       <c r="C24" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="134"/>
       <c r="E24" s="130">
         <v>2</v>
       </c>
       <c r="F24" s="107">
-        <f>AVERAGE(G24,H24,I24,L24,M24)</f>
-        <v>5.8</v>
+        <f>AVERAGE(G24,H24,I24,L24,M24,N24)</f>
+        <v>5.833333333333333</v>
       </c>
       <c r="G24" s="211">
         <v>6</v>
@@ -29926,7 +30525,9 @@
       <c r="M24" s="55">
         <v>5</v>
       </c>
-      <c r="N24" s="106"/>
+      <c r="N24" s="106">
+        <v>6</v>
+      </c>
       <c r="O24" s="106"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="106"/>
@@ -29967,15 +30568,15 @@
         <v>331</v>
       </c>
       <c r="C25" s="132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="134">
         <v>3</v>
       </c>
       <c r="E25" s="130"/>
       <c r="F25" s="107">
-        <f>AVERAGE(I25,M25)</f>
-        <v>4.5</v>
+        <f>AVERAGE(I25,M25,N25)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G25" s="195" t="s">
         <v>106</v>
@@ -29994,7 +30595,9 @@
       <c r="M25" s="55">
         <v>6</v>
       </c>
-      <c r="N25" s="106"/>
+      <c r="N25" s="106">
+        <v>4</v>
+      </c>
       <c r="O25" s="106"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="54"/>
@@ -30035,13 +30638,15 @@
         <v>347</v>
       </c>
       <c r="C26" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="134"/>
-      <c r="E26" s="130"/>
+      <c r="E26" s="130">
+        <v>1</v>
+      </c>
       <c r="F26" s="107">
-        <f>AVERAGE(G26,H26,I26,J26,K26,L26)</f>
-        <v>5.166666666666667</v>
+        <f>AVERAGE(G26,H26,I26,J26,K26,L26,N26)</f>
+        <v>5.4285714285714288</v>
       </c>
       <c r="G26" s="211">
         <v>5</v>
@@ -30062,7 +30667,9 @@
         <v>6</v>
       </c>
       <c r="M26" s="55"/>
-      <c r="N26" s="106"/>
+      <c r="N26" s="251">
+        <v>7</v>
+      </c>
       <c r="O26" s="106"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="54"/>
@@ -30103,15 +30710,15 @@
         <v>352</v>
       </c>
       <c r="C27" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
       </c>
       <c r="E27" s="130"/>
       <c r="F27" s="107">
-        <f>AVERAGE(K27,L27,M27)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(K27,L27,M27,N27)</f>
+        <v>5.5</v>
       </c>
       <c r="G27" s="195"/>
       <c r="H27" s="88"/>
@@ -30128,7 +30735,9 @@
       <c r="M27" s="55">
         <v>5</v>
       </c>
-      <c r="N27" s="106"/>
+      <c r="N27" s="106">
+        <v>6</v>
+      </c>
       <c r="O27" s="106"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="106"/>
@@ -30400,7 +31009,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="130">
         <v>1</v>
@@ -30420,7 +31029,9 @@
       </c>
       <c r="L32" s="88"/>
       <c r="M32" s="54"/>
-      <c r="N32" s="88"/>
+      <c r="N32" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O32" s="54"/>
       <c r="P32" s="54"/>
       <c r="Q32" s="106"/>
@@ -30612,7 +31223,10 @@
         <f>AVERAGE(M7,M11,M28,M13,M14,M16,M21,M24,M23,M25,M27)</f>
         <v>5.0909090909090908</v>
       </c>
-      <c r="N35" s="186"/>
+      <c r="N35" s="186">
+        <f>AVERAGE(N7,N11,N14,N16,N17,N21,N23,N24,N25,N26,N27)</f>
+        <v>5.8181818181818183</v>
+      </c>
       <c r="O35" s="186"/>
       <c r="P35" s="186"/>
       <c r="Q35" s="186"/>
@@ -30656,7 +31270,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS37"/>
+  <dimension ref="A1:AS38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -30730,7 +31344,9 @@
       <c r="M6" s="139" t="s">
         <v>719</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="139" t="s">
+        <v>753</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
@@ -30821,13 +31437,13 @@
         <v>536</v>
       </c>
       <c r="C8" s="356">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="358"/>
       <c r="E8" s="354"/>
       <c r="F8" s="107">
-        <f>AVERAGE(K8,L8,M8)</f>
-        <v>5.666666666666667</v>
+        <f>AVERAGE(K8,L8,M8,N8)</f>
+        <v>5.75</v>
       </c>
       <c r="G8" s="88"/>
       <c r="H8" s="106"/>
@@ -30842,7 +31458,9 @@
       <c r="M8" s="106">
         <v>5</v>
       </c>
-      <c r="N8" s="106"/>
+      <c r="N8" s="54">
+        <v>6</v>
+      </c>
       <c r="O8" s="106"/>
       <c r="P8" s="106"/>
       <c r="Q8" s="106"/>
@@ -30947,12 +31565,12 @@
         <v>11</v>
       </c>
       <c r="C10" s="356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="358"/>
       <c r="E10" s="363"/>
       <c r="F10" s="107">
-        <f>AVERAGE(L10,M10)</f>
+        <f>AVERAGE(L10,M10,N10)</f>
         <v>6</v>
       </c>
       <c r="G10" s="88"/>
@@ -30966,7 +31584,9 @@
       <c r="M10" s="88">
         <v>6</v>
       </c>
-      <c r="N10" s="106"/>
+      <c r="N10" s="106">
+        <v>6</v>
+      </c>
       <c r="O10" s="106"/>
       <c r="P10" s="106"/>
       <c r="Q10" s="106"/>
@@ -31007,15 +31627,15 @@
         <v>12</v>
       </c>
       <c r="C11" s="356">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="358">
         <v>1</v>
       </c>
       <c r="E11" s="354"/>
       <c r="F11" s="107">
-        <f>AVERAGE(J11,K11,M11)</f>
-        <v>5.666666666666667</v>
+        <f>AVERAGE(J11,K11,M11,N11)</f>
+        <v>5.75</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="88"/>
@@ -31032,7 +31652,9 @@
       <c r="M11" s="55">
         <v>5</v>
       </c>
-      <c r="N11" s="106"/>
+      <c r="N11" s="106">
+        <v>6</v>
+      </c>
       <c r="O11" s="88"/>
       <c r="P11" s="106"/>
       <c r="Q11" s="106"/>
@@ -31331,15 +31953,15 @@
         <v>147</v>
       </c>
       <c r="C16" s="356">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="364"/>
       <c r="E16" s="363">
         <v>2</v>
       </c>
       <c r="F16" s="107">
-        <f>AVERAGE(G16,H16,I16,J16)</f>
-        <v>5.75</v>
+        <f>AVERAGE(G16,H16,I16,J16,N16)</f>
+        <v>6</v>
       </c>
       <c r="G16" s="44">
         <v>6</v>
@@ -31356,7 +31978,9 @@
       <c r="K16" s="49"/>
       <c r="L16" s="106"/>
       <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
+      <c r="N16" s="313">
+        <v>7</v>
+      </c>
       <c r="O16" s="106"/>
       <c r="P16" s="166"/>
       <c r="Q16" s="54"/>
@@ -31397,15 +32021,15 @@
         <v>599</v>
       </c>
       <c r="C17" s="356">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="364">
         <v>1</v>
       </c>
       <c r="E17" s="363"/>
       <c r="F17" s="107">
-        <f>AVERAGE(J17,K17,L17)</f>
-        <v>6.666666666666667</v>
+        <f>AVERAGE(J17,K17,L17,N17)</f>
+        <v>6.5</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="106"/>
@@ -31422,7 +32046,9 @@
         <v>6</v>
       </c>
       <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
+      <c r="N17" s="106">
+        <v>6</v>
+      </c>
       <c r="O17" s="106"/>
       <c r="P17" s="166"/>
       <c r="Q17" s="54"/>
@@ -31514,15 +32140,15 @@
         <v>15</v>
       </c>
       <c r="C19" s="356">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="358">
         <v>2</v>
       </c>
       <c r="E19" s="354"/>
       <c r="F19" s="40">
-        <f>AVERAGE(G19,H19,I19,J19,L19)</f>
-        <v>6.2</v>
+        <f>AVERAGE(G19,H19,I19,J19,L19,N19)</f>
+        <v>6.333333333333333</v>
       </c>
       <c r="G19" s="88">
         <v>5</v>
@@ -31545,7 +32171,9 @@
       <c r="M19" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="N19" s="88"/>
+      <c r="N19" s="314">
+        <v>7</v>
+      </c>
       <c r="O19" s="106"/>
       <c r="P19" s="88"/>
       <c r="Q19" s="106"/>
@@ -31586,15 +32214,15 @@
         <v>17</v>
       </c>
       <c r="C20" s="356">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="358">
         <v>4</v>
       </c>
       <c r="E20" s="354"/>
       <c r="F20" s="107">
-        <f>AVERAGE(J20,K20,M20)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(J20,K20,M20,N20)</f>
+        <v>5.5</v>
       </c>
       <c r="G20" s="88" t="s">
         <v>106</v>
@@ -31617,7 +32245,9 @@
       <c r="M20" s="88">
         <v>4</v>
       </c>
-      <c r="N20" s="106"/>
+      <c r="N20" s="106">
+        <v>6</v>
+      </c>
       <c r="O20" s="106"/>
       <c r="P20" s="106"/>
       <c r="Q20" s="88"/>
@@ -31658,7 +32288,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="358">
         <v>2</v>
@@ -31667,8 +32297,8 @@
         <v>1</v>
       </c>
       <c r="F21" s="107">
-        <f>AVERAGE(I21,J21)</f>
-        <v>5</v>
+        <f>AVERAGE(I21,J21,N21)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="G21" s="170" t="s">
         <v>106</v>
@@ -31685,7 +32315,9 @@
       <c r="K21" s="106"/>
       <c r="L21" s="106"/>
       <c r="M21" s="88"/>
-      <c r="N21" s="106"/>
+      <c r="N21" s="106">
+        <v>6</v>
+      </c>
       <c r="O21" s="106"/>
       <c r="P21" s="106"/>
       <c r="Q21" s="106"/>
@@ -31728,7 +32360,9 @@
       <c r="C22" s="356">
         <v>6</v>
       </c>
-      <c r="D22" s="358"/>
+      <c r="D22" s="358">
+        <v>1</v>
+      </c>
       <c r="E22" s="354"/>
       <c r="F22" s="107">
         <f>AVERAGE(G22,H22,I22,K22,L22,M22)</f>
@@ -31753,7 +32387,9 @@
       <c r="M22" s="106">
         <v>5</v>
       </c>
-      <c r="N22" s="106"/>
+      <c r="N22" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O22" s="106"/>
       <c r="P22" s="106"/>
       <c r="Q22" s="106"/>
@@ -31860,15 +32496,15 @@
         <v>348</v>
       </c>
       <c r="C24" s="356">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="358">
         <v>1</v>
       </c>
       <c r="E24" s="354"/>
       <c r="F24" s="107">
-        <f>AVERAGE(G24,H24,I24,K24,L24,M24)</f>
-        <v>5.833333333333333</v>
+        <f>AVERAGE(G24,H24,I24,K24,L24,M24,N24)</f>
+        <v>6</v>
       </c>
       <c r="G24" s="185">
         <v>6</v>
@@ -31891,7 +32527,9 @@
       <c r="M24" s="55">
         <v>5</v>
       </c>
-      <c r="N24" s="54"/>
+      <c r="N24" s="306">
+        <v>7</v>
+      </c>
       <c r="O24" s="106"/>
       <c r="P24" s="106"/>
       <c r="Q24" s="55"/>
@@ -32047,7 +32685,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="354"/>
       <c r="F27" s="107">
@@ -32069,7 +32707,9 @@
       <c r="K27" s="45"/>
       <c r="L27" s="106"/>
       <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
+      <c r="N27" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O27" s="106"/>
       <c r="P27" s="106"/>
       <c r="Q27" s="106"/>
@@ -32230,314 +32870,376 @@
       <c r="AR29" s="106"/>
       <c r="AS29" s="140"/>
     </row>
-    <row r="30" spans="1:45">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:45" s="115" customFormat="1">
+      <c r="A30" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="360">
-        <v>7</v>
-      </c>
-      <c r="D30" s="361"/>
-      <c r="E30" s="362">
-        <v>4</v>
-      </c>
-      <c r="F30" s="29">
-        <f>AVERAGE(G30,H30,I30,J30,K30,L30,M30)</f>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="G30" s="222">
-        <v>4</v>
-      </c>
-      <c r="H30" s="305">
-        <v>7</v>
-      </c>
-      <c r="I30" s="88">
-        <v>5</v>
-      </c>
-      <c r="J30" s="52">
-        <v>6</v>
-      </c>
-      <c r="K30" s="345">
-        <v>8</v>
-      </c>
-      <c r="L30" s="44">
-        <v>6</v>
-      </c>
-      <c r="M30" s="55">
-        <v>4</v>
-      </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="54"/>
+      <c r="B30" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C30" s="356"/>
+      <c r="D30" s="358">
+        <v>1</v>
+      </c>
+      <c r="E30" s="354"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" s="106"/>
       <c r="P30" s="106"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="44"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
       <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="44"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="106"/>
       <c r="Y30" s="106"/>
-      <c r="Z30" s="55"/>
+      <c r="Z30" s="106"/>
       <c r="AA30" s="106"/>
       <c r="AB30" s="54"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="48"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="379"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="374"/>
       <c r="AG30" s="106"/>
       <c r="AH30" s="51"/>
-      <c r="AI30" s="106"/>
-      <c r="AJ30" s="88"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
       <c r="AK30" s="106"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="106"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="106"/>
+      <c r="AN30" s="88"/>
       <c r="AO30" s="106"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="22"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="374"/>
+      <c r="AR30" s="106"/>
+      <c r="AS30" s="140"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="360">
+        <v>8</v>
+      </c>
+      <c r="D31" s="361"/>
+      <c r="E31" s="362">
+        <v>4</v>
+      </c>
+      <c r="F31" s="29">
+        <f>AVERAGE(G31,H31,I31,J31,K31,L31,M31,N31)</f>
+        <v>5.75</v>
+      </c>
+      <c r="G31" s="222">
+        <v>4</v>
+      </c>
+      <c r="H31" s="305">
+        <v>7</v>
+      </c>
+      <c r="I31" s="88">
+        <v>5</v>
+      </c>
+      <c r="J31" s="52">
+        <v>6</v>
+      </c>
+      <c r="K31" s="345">
+        <v>8</v>
+      </c>
+      <c r="L31" s="44">
+        <v>6</v>
+      </c>
+      <c r="M31" s="55">
+        <v>4</v>
+      </c>
+      <c r="N31" s="88">
+        <v>6</v>
+      </c>
+      <c r="O31" s="54"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="106"/>
+      <c r="AJ31" s="88"/>
+      <c r="AK31" s="106"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="22"/>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="356">
-        <v>5</v>
-      </c>
-      <c r="D31" s="358">
+      <c r="C32" s="356">
+        <v>6</v>
+      </c>
+      <c r="D32" s="358">
         <v>1</v>
       </c>
-      <c r="E31" s="354">
-        <v>6</v>
-      </c>
-      <c r="F31" s="107">
-        <f>AVERAGE(H31,I31,K31,L31,M31)</f>
-        <v>5.4</v>
-      </c>
-      <c r="G31" s="106"/>
-      <c r="H31" s="166">
-        <v>4</v>
-      </c>
-      <c r="I31" s="44">
-        <v>5</v>
-      </c>
-      <c r="J31" s="48" t="s">
+      <c r="E32" s="354">
+        <v>8</v>
+      </c>
+      <c r="F32" s="107">
+        <f>AVERAGE(H32,I32,K32,L32,M32,N32)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G32" s="106"/>
+      <c r="H32" s="166">
+        <v>4</v>
+      </c>
+      <c r="I32" s="44">
+        <v>5</v>
+      </c>
+      <c r="J32" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="345">
+      <c r="K32" s="345">
         <v>9</v>
       </c>
-      <c r="L31" s="54">
-        <v>6</v>
-      </c>
-      <c r="M31" s="321">
+      <c r="L32" s="54">
+        <v>6</v>
+      </c>
+      <c r="M32" s="321">
         <v>3</v>
       </c>
-      <c r="N31" s="44"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="106"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="166"/>
-      <c r="AS31" s="22"/>
-    </row>
-    <row r="32" spans="1:45">
-      <c r="A32" s="42" t="s">
+      <c r="N32" s="305">
+        <v>8</v>
+      </c>
+      <c r="O32" s="106"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="106"/>
+      <c r="AA32" s="166"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="88"/>
+      <c r="AJ32" s="54"/>
+      <c r="AK32" s="106"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="166"/>
+      <c r="AS32" s="22"/>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B33" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="351"/>
-      <c r="D32" s="352"/>
-      <c r="E32" s="353"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="289"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="181"/>
-      <c r="S32" s="181"/>
-      <c r="T32" s="181"/>
-      <c r="U32" s="181"/>
-      <c r="V32" s="181"/>
-      <c r="W32" s="181"/>
-      <c r="X32" s="181"/>
-      <c r="Y32" s="181"/>
-      <c r="Z32" s="181"/>
-      <c r="AA32" s="181"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="181"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="181"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="181"/>
-      <c r="AI32" s="181"/>
-      <c r="AJ32" s="181"/>
-      <c r="AK32" s="181"/>
-      <c r="AL32" s="124"/>
-      <c r="AM32" s="181"/>
-      <c r="AN32" s="181"/>
-      <c r="AO32" s="124"/>
-      <c r="AP32" s="124"/>
-      <c r="AQ32" s="124"/>
-      <c r="AR32" s="181"/>
-      <c r="AS32" s="22"/>
-    </row>
-    <row r="33" spans="1:45" s="115" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A33" s="2" t="s">
+      <c r="C33" s="351"/>
+      <c r="D33" s="352"/>
+      <c r="E33" s="353"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="289"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="181"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="181"/>
+      <c r="AD33" s="124"/>
+      <c r="AE33" s="181"/>
+      <c r="AF33" s="124"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="181"/>
+      <c r="AJ33" s="181"/>
+      <c r="AK33" s="181"/>
+      <c r="AL33" s="124"/>
+      <c r="AM33" s="181"/>
+      <c r="AN33" s="181"/>
+      <c r="AO33" s="124"/>
+      <c r="AP33" s="124"/>
+      <c r="AQ33" s="124"/>
+      <c r="AR33" s="181"/>
+      <c r="AS33" s="22"/>
+    </row>
+    <row r="34" spans="1:45" s="115" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="159" t="s">
+      <c r="B34" s="159" t="s">
         <v>379</v>
       </c>
-      <c r="C33" s="357"/>
-      <c r="D33" s="359"/>
-      <c r="E33" s="355"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="106"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="106"/>
-      <c r="AP33" s="51"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="106"/>
-      <c r="AS33" s="140"/>
-    </row>
-    <row r="34" spans="1:45">
-      <c r="G34" s="32">
-        <f>AVERAGE(G9,G12,G13,G14,G16,G19,G22,G23,G24,G27,G30)</f>
+      <c r="C34" s="357"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="355"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="106"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="106"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="106"/>
+      <c r="AN34" s="88"/>
+      <c r="AO34" s="106"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="33"/>
+      <c r="AR34" s="106"/>
+      <c r="AS34" s="140"/>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="G35" s="32">
+        <f>AVERAGE(G9,G12,G13,G14,G16,G19,G22,G23,G24,G27,G31)</f>
         <v>5.3636363636363633</v>
       </c>
-      <c r="H34" s="26">
-        <f>AVERAGE(H9,H12,H13,H14,H16,H19,H22,H23,H24,H30,H31)</f>
+      <c r="H35" s="26">
+        <f>AVERAGE(H9,H12,H13,H14,H16,H19,H22,H23,H24,H31,H32)</f>
         <v>6.7272727272727275</v>
       </c>
-      <c r="I34" s="26">
-        <f>AVERAGE(I9,I12,I13,I14,I16,I19,I21,I22,I24,I31,I30)</f>
+      <c r="I35" s="26">
+        <f>AVERAGE(I9,I12,I13,I14,I16,I19,I21,I22,I24,I32,I31)</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="J34" s="26">
-        <f>AVERAGE(J9,J11,J13,J16,J17,J19,J20,J21,J27,J30,J29)</f>
+      <c r="J35" s="26">
+        <f>AVERAGE(J9,J11,J13,J16,J17,J19,J20,J21,J27,J31,J29)</f>
         <v>5.4545454545454541</v>
       </c>
-      <c r="K34" s="26">
-        <f>AVERAGE(K8,K11,K13,K15,K17,K20,K22,K24,K28,K30,K31)</f>
+      <c r="K35" s="26">
+        <f>AVERAGE(K8,K11,K13,K15,K17,K20,K22,K24,K28,K31,K32)</f>
         <v>7</v>
       </c>
-      <c r="L34" s="26">
-        <f>AVERAGE(L8,L13,L10,L15,L17,L19,L22,L23,L24,L30,L31)</f>
+      <c r="L35" s="26">
+        <f>AVERAGE(L8,L13,L10,L15,L17,L19,L22,L23,L24,L31,L32)</f>
         <v>6.2727272727272725</v>
       </c>
-      <c r="M34" s="26">
-        <f>AVERAGE(M8,M10,M11,M14,M15,M20,M22,M24,M28,M30,M31)</f>
+      <c r="M35" s="26">
+        <f>AVERAGE(M8,M10,M11,M14,M15,M20,M22,M24,M28,M31,M32)</f>
         <v>4.6363636363636367</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-    </row>
-    <row r="37" spans="1:45" ht="48.75" customHeight="1"/>
+      <c r="N35" s="26">
+        <f>AVERAGE(N8,N10,N11,N16,N17,N19,N20,N21,N24,N31,N32)</f>
+        <v>6.4545454545454541</v>
+      </c>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+    </row>
+    <row r="38" spans="1:45" ht="48.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C5:E5"/>
@@ -32626,7 +33328,9 @@
       <c r="M7" s="139" t="s">
         <v>737</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>759</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="80"/>
@@ -32666,13 +33370,13 @@
         <v>229</v>
       </c>
       <c r="C8" s="229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="230"/>
       <c r="E8" s="239"/>
       <c r="F8" s="30">
-        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>6</v>
+        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8,N8)</f>
+        <v>5.875</v>
       </c>
       <c r="G8" s="238">
         <v>6</v>
@@ -32695,7 +33399,9 @@
       <c r="M8" s="54">
         <v>6</v>
       </c>
-      <c r="N8" s="106"/>
+      <c r="N8" s="106">
+        <v>5</v>
+      </c>
       <c r="O8" s="106"/>
       <c r="P8" s="106"/>
       <c r="Q8" s="106"/>
@@ -32991,15 +33697,15 @@
         <v>324</v>
       </c>
       <c r="C14" s="127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="128"/>
       <c r="E14" s="129">
         <v>1</v>
       </c>
       <c r="F14" s="107">
-        <f>AVERAGE(G14,H14,I14,J14,K14,L14,M14)</f>
-        <v>6.1428571428571432</v>
+        <f>AVERAGE(G14,H14,I14,J14,K14,L14,M14,N14)</f>
+        <v>6</v>
       </c>
       <c r="G14" s="109">
         <v>6</v>
@@ -33022,7 +33728,9 @@
       <c r="M14" s="106">
         <v>6</v>
       </c>
-      <c r="N14" s="88"/>
+      <c r="N14" s="88">
+        <v>5</v>
+      </c>
       <c r="O14" s="106"/>
       <c r="P14" s="106"/>
       <c r="Q14" s="106"/>
@@ -33063,13 +33771,15 @@
         <v>362</v>
       </c>
       <c r="C15" s="127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="128"/>
-      <c r="E15" s="129"/>
+      <c r="E15" s="129">
+        <v>1</v>
+      </c>
       <c r="F15" s="107">
-        <f>AVERAGE(H15,I15,J15,L15,M15)</f>
-        <v>5.8</v>
+        <f>AVERAGE(H15,I15,J15,L15,M15,N15)</f>
+        <v>6</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="185">
@@ -33088,7 +33798,9 @@
       <c r="M15" s="106">
         <v>5</v>
       </c>
-      <c r="N15" s="106"/>
+      <c r="N15" s="251">
+        <v>7</v>
+      </c>
       <c r="O15" s="106"/>
       <c r="P15" s="106"/>
       <c r="Q15" s="106"/>
@@ -33129,12 +33841,12 @@
         <v>487</v>
       </c>
       <c r="C16" s="127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="128"/>
       <c r="E16" s="129"/>
       <c r="F16" s="107">
-        <f>AVERAGE(G16,H16,I16,J16,K16,L16,M16)</f>
+        <f>AVERAGE(G16,H16,I16,J16,K16,L16,M16,N16)</f>
         <v>5</v>
       </c>
       <c r="G16" s="109">
@@ -33158,7 +33870,9 @@
       <c r="M16" s="106">
         <v>5</v>
       </c>
-      <c r="N16" s="106"/>
+      <c r="N16" s="106">
+        <v>5</v>
+      </c>
       <c r="O16" s="106"/>
       <c r="P16" s="106"/>
       <c r="Q16" s="106"/>
@@ -33199,15 +33913,15 @@
         <v>301</v>
       </c>
       <c r="C17" s="127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="128"/>
       <c r="E17" s="129">
         <v>1</v>
       </c>
       <c r="F17" s="107">
-        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17)</f>
-        <v>5.2857142857142856</v>
+        <f>AVERAGE(G17,H17,I17,J17,K17,L17,M17,N17)</f>
+        <v>5.25</v>
       </c>
       <c r="G17" s="274">
         <v>7</v>
@@ -33230,7 +33944,9 @@
       <c r="M17" s="106">
         <v>5</v>
       </c>
-      <c r="N17" s="106"/>
+      <c r="N17" s="106">
+        <v>5</v>
+      </c>
       <c r="O17" s="106"/>
       <c r="P17" s="106"/>
       <c r="Q17" s="106"/>
@@ -33331,13 +34047,13 @@
         <v>643</v>
       </c>
       <c r="C19" s="127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="128"/>
       <c r="E19" s="129"/>
       <c r="F19" s="107">
-        <f>AVERAGE(J19,K19,L19,M19)</f>
-        <v>5.5</v>
+        <f>AVERAGE(J19,K19,L19,M19,N19)</f>
+        <v>5.6</v>
       </c>
       <c r="G19" s="109"/>
       <c r="H19" s="185"/>
@@ -33354,7 +34070,9 @@
       <c r="M19" s="106">
         <v>6</v>
       </c>
-      <c r="N19" s="106"/>
+      <c r="N19" s="106">
+        <v>6</v>
+      </c>
       <c r="O19" s="106"/>
       <c r="P19" s="106"/>
       <c r="Q19" s="106"/>
@@ -33395,15 +34113,15 @@
         <v>16</v>
       </c>
       <c r="C20" s="233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="234">
         <v>2</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="29">
-        <f>AVERAGE(H20,I20,K20,M20)</f>
-        <v>5.25</v>
+        <f>AVERAGE(H20,I20,K20,M20,N20)</f>
+        <v>5.2</v>
       </c>
       <c r="G20" s="47" t="s">
         <v>106</v>
@@ -33424,7 +34142,9 @@
       <c r="M20" s="55">
         <v>6</v>
       </c>
-      <c r="N20" s="106"/>
+      <c r="N20" s="106">
+        <v>5</v>
+      </c>
       <c r="O20" s="55"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="106"/>
@@ -33635,13 +34355,13 @@
         <v>292</v>
       </c>
       <c r="C24" s="150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="152"/>
       <c r="F24" s="107">
-        <f>AVERAGE(G24,H24,I24,J24,L24)</f>
-        <v>6.6</v>
+        <f>AVERAGE(G24,H24,I24,J24,L24,N24)</f>
+        <v>6.333333333333333</v>
       </c>
       <c r="G24" s="45">
         <v>6</v>
@@ -33660,7 +34380,9 @@
         <v>7</v>
       </c>
       <c r="M24" s="106"/>
-      <c r="N24" s="54"/>
+      <c r="N24" s="55">
+        <v>5</v>
+      </c>
       <c r="O24" s="106"/>
       <c r="P24" s="106"/>
       <c r="Q24" s="106"/>
@@ -34046,7 +34768,7 @@
         <v>492</v>
       </c>
       <c r="C31" s="150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="50">
         <v>2</v>
@@ -34055,8 +34777,8 @@
         <v>1</v>
       </c>
       <c r="F31" s="107">
-        <f>AVERAGE(H31,I31,J31,L31,M31)</f>
-        <v>6.4</v>
+        <f>AVERAGE(H31,I31,J31,L31,M31,N31)</f>
+        <v>6.333333333333333</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>106</v>
@@ -34079,7 +34801,9 @@
       <c r="M31" s="88">
         <v>6</v>
       </c>
-      <c r="N31" s="106"/>
+      <c r="N31" s="106">
+        <v>6</v>
+      </c>
       <c r="O31" s="106"/>
       <c r="P31" s="106"/>
       <c r="Q31" s="106"/>
@@ -34123,7 +34847,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="152"/>
       <c r="F32" s="107">
@@ -34149,7 +34873,9 @@
       <c r="M32" s="88">
         <v>6</v>
       </c>
-      <c r="N32" s="106"/>
+      <c r="N32" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O32" s="106"/>
       <c r="P32" s="106"/>
       <c r="Q32" s="106"/>
@@ -34190,7 +34916,7 @@
         <v>646</v>
       </c>
       <c r="C33" s="150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="50">
         <v>2</v>
@@ -34199,8 +34925,8 @@
         <v>1</v>
       </c>
       <c r="F33" s="107">
-        <f>AVERAGE(K33,L33)</f>
-        <v>6</v>
+        <f>AVERAGE(K33,L33,N33)</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="106"/>
@@ -34217,7 +34943,9 @@
       <c r="M33" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N33" s="106"/>
+      <c r="N33" s="106">
+        <v>5</v>
+      </c>
       <c r="O33" s="106"/>
       <c r="P33" s="106"/>
       <c r="Q33" s="106"/>
@@ -34618,7 +35346,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="152">
         <v>3</v>
@@ -34648,7 +35376,9 @@
       <c r="M41" s="305">
         <v>7</v>
       </c>
-      <c r="N41" s="106"/>
+      <c r="N41" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O41" s="106"/>
       <c r="P41" s="88"/>
       <c r="Q41" s="54"/>
@@ -34748,15 +35478,15 @@
         <v>644</v>
       </c>
       <c r="C43" s="150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="107">
-        <f>AVERAGE(J43,L43)</f>
-        <v>8</v>
+        <f>AVERAGE(J43,L43,N43)</f>
+        <v>7.333333333333333</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="54"/>
@@ -34769,7 +35499,9 @@
         <v>8</v>
       </c>
       <c r="M43" s="88"/>
-      <c r="N43" s="106"/>
+      <c r="N43" s="54">
+        <v>6</v>
+      </c>
       <c r="O43" s="106"/>
       <c r="P43" s="88"/>
       <c r="Q43" s="54"/>
@@ -34882,7 +35614,10 @@
         <f>AVERAGE(M8,M14,M15,M16,M17,M19,M20,M28,M31,M32,M41)</f>
         <v>5.7272727272727275</v>
       </c>
-      <c r="N45" s="26"/>
+      <c r="N45" s="26">
+        <f>AVERAGE(N8,N14,N15,N16,N17,N19,N20,N24,N31,N33,N43)</f>
+        <v>5.4545454545454541</v>
+      </c>
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
@@ -35004,7 +35739,9 @@
       <c r="M6" s="139" t="s">
         <v>738</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="139" t="s">
+        <v>758</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="81"/>
@@ -35044,12 +35781,12 @@
         <v>46</v>
       </c>
       <c r="C7" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="119"/>
       <c r="E7" s="108"/>
       <c r="F7" s="30">
-        <f>AVERAGE(G7,H7,I7,J7,K7,L7,M7)</f>
+        <f>AVERAGE(G7,H7,I7,J7,K7,L7,M7,N7)</f>
         <v>6</v>
       </c>
       <c r="G7" s="55">
@@ -35073,7 +35810,9 @@
       <c r="M7" s="55">
         <v>5</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="55">
+        <v>6</v>
+      </c>
       <c r="O7" s="55"/>
       <c r="P7" s="145"/>
       <c r="Q7" s="55"/>
@@ -35466,15 +36205,15 @@
         <v>367</v>
       </c>
       <c r="C14" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
       </c>
       <c r="E14" s="142"/>
       <c r="F14" s="107">
-        <f>AVERAGE(H14,I14,J14,K14)</f>
-        <v>6</v>
+        <f>AVERAGE(H14,I14,J14,K14,N14)</f>
+        <v>5.6</v>
       </c>
       <c r="G14" s="157"/>
       <c r="H14" s="306">
@@ -35493,7 +36232,9 @@
         <v>106</v>
       </c>
       <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
+      <c r="N14" s="55">
+        <v>4</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
@@ -35660,15 +36401,15 @@
         <v>623</v>
       </c>
       <c r="C17" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="134">
         <v>1</v>
       </c>
       <c r="E17" s="142"/>
       <c r="F17" s="107">
-        <f>AVERAGE(K17,L17,M17)</f>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(K17,L17,M17,N17)</f>
+        <v>4.75</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="55"/>
@@ -35685,7 +36426,9 @@
       <c r="M17" s="55">
         <v>5</v>
       </c>
-      <c r="N17" s="55"/>
+      <c r="N17" s="308">
+        <v>3</v>
+      </c>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
       <c r="Q17" s="55"/>
@@ -35912,7 +36655,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="134">
         <v>3</v>
@@ -35941,7 +36684,9 @@
       <c r="M21" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="106" t="s">
+        <v>430</v>
+      </c>
       <c r="O21" s="166"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
@@ -36101,13 +36846,13 @@
         <v>413</v>
       </c>
       <c r="C24" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="134"/>
       <c r="E24" s="130"/>
       <c r="F24" s="107">
-        <f>AVERAGE(G24,I24,J24,K24,M24)</f>
-        <v>5.6</v>
+        <f>AVERAGE(G24,I24,J24,K24,M24,N24)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="G24" s="55">
         <v>4</v>
@@ -36126,7 +36871,9 @@
       <c r="M24" s="166">
         <v>6</v>
       </c>
-      <c r="N24" s="55"/>
+      <c r="N24" s="55">
+        <v>4</v>
+      </c>
       <c r="O24" s="55"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="166"/>
@@ -36227,15 +36974,15 @@
         <v>602</v>
       </c>
       <c r="C26" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
       </c>
       <c r="E26" s="130"/>
       <c r="F26" s="107">
-        <f>AVERAGE(J26,K26,L26,M26)</f>
-        <v>5</v>
+        <f>AVERAGE(J26,K26,L26,M26,N26)</f>
+        <v>4.8</v>
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="157"/>
@@ -36254,7 +37001,9 @@
       <c r="M26" s="166">
         <v>5</v>
       </c>
-      <c r="N26" s="55"/>
+      <c r="N26" s="55">
+        <v>4</v>
+      </c>
       <c r="O26" s="55"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="166"/>
@@ -36295,13 +37044,13 @@
         <v>252</v>
       </c>
       <c r="C27" s="356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="358"/>
       <c r="E27" s="354"/>
       <c r="F27" s="371">
-        <f>AVERAGE(L27,M27)</f>
-        <v>6</v>
+        <f>AVERAGE(L27,M27,N27)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="G27" s="55"/>
       <c r="H27" s="157"/>
@@ -36314,7 +37063,9 @@
       <c r="M27" s="166">
         <v>6</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="N27" s="55">
+        <v>4</v>
+      </c>
       <c r="O27" s="55"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="166"/>
@@ -36354,7 +37105,9 @@
       <c r="B28" s="381" t="s">
         <v>739</v>
       </c>
-      <c r="C28" s="356"/>
+      <c r="C28" s="356">
+        <v>1</v>
+      </c>
       <c r="D28" s="358">
         <v>1</v>
       </c>
@@ -36362,8 +37115,8 @@
         <v>1</v>
       </c>
       <c r="F28" s="371">
-        <f>AVERAGE(M28)</f>
-        <v>6</v>
+        <f>AVERAGE(M28,N28)</f>
+        <v>5</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="157"/>
@@ -36374,7 +37127,9 @@
       <c r="M28" s="44">
         <v>6</v>
       </c>
-      <c r="N28" s="55"/>
+      <c r="N28" s="55">
+        <v>4</v>
+      </c>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="166"/>
@@ -36415,15 +37170,15 @@
         <v>130</v>
       </c>
       <c r="C29" s="136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="137">
         <v>1</v>
       </c>
       <c r="E29" s="138"/>
       <c r="F29" s="29">
-        <f>AVERAGE(G29,I29,K29,L29,M29)</f>
-        <v>5.2</v>
+        <f>AVERAGE(G29,I29,K29,L29,M29,N29)</f>
+        <v>5.166666666666667</v>
       </c>
       <c r="G29" s="55">
         <v>4</v>
@@ -36442,7 +37197,9 @@
       <c r="M29" s="55">
         <v>6</v>
       </c>
-      <c r="N29" s="55"/>
+      <c r="N29" s="55">
+        <v>5</v>
+      </c>
       <c r="O29" s="166"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="166"/>
@@ -36483,7 +37240,7 @@
         <v>195</v>
       </c>
       <c r="C30" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -36492,8 +37249,8 @@
         <v>1</v>
       </c>
       <c r="F30" s="107">
-        <f>AVERAGE(H30,I30,K30,L30,M30)</f>
-        <v>6</v>
+        <f>AVERAGE(H30,I30,K30,L30,M30,N30)</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="G30" s="88" t="s">
         <v>106</v>
@@ -36514,7 +37271,9 @@
       <c r="M30" s="55">
         <v>6</v>
       </c>
-      <c r="N30" s="55"/>
+      <c r="N30" s="55">
+        <v>4</v>
+      </c>
       <c r="O30" s="55"/>
       <c r="P30" s="145"/>
       <c r="Q30" s="55"/>
@@ -36657,7 +37416,7 @@
         <v>349</v>
       </c>
       <c r="C33" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="134">
         <v>2</v>
@@ -36666,8 +37425,8 @@
         <v>2</v>
       </c>
       <c r="F33" s="107">
-        <f>AVERAGE(G33,I33,K33,M33)</f>
-        <v>4.5</v>
+        <f>AVERAGE(G33,I33,K33,M33,N33)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G33" s="55">
         <v>4</v>
@@ -36688,7 +37447,9 @@
       <c r="M33" s="44">
         <v>6</v>
       </c>
-      <c r="N33" s="55"/>
+      <c r="N33" s="55">
+        <v>4</v>
+      </c>
       <c r="O33" s="55"/>
       <c r="P33" s="145"/>
       <c r="Q33" s="55"/>
@@ -36730,12 +37491,15 @@
       </c>
       <c r="C34" s="132"/>
       <c r="D34" s="134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="130">
         <v>1</v>
       </c>
-      <c r="F34" s="107"/>
+      <c r="F34" s="107">
+        <f>AVERAGE(N34)</f>
+        <v>4</v>
+      </c>
       <c r="G34" s="44" t="s">
         <v>106</v>
       </c>
@@ -36747,7 +37511,9 @@
       </c>
       <c r="L34" s="145"/>
       <c r="M34" s="166"/>
-      <c r="N34" s="55"/>
+      <c r="N34" s="88">
+        <v>4</v>
+      </c>
       <c r="O34" s="55"/>
       <c r="P34" s="145"/>
       <c r="Q34" s="55"/>
@@ -36791,11 +37557,11 @@
         <v>5</v>
       </c>
       <c r="D35" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="130"/>
       <c r="F35" s="107">
-        <f>AVERAGE(G35,H35,I35,K35,L35,M35)</f>
+        <f>AVERAGE(G35,H35,I35,K35,L35,M35,N35)</f>
         <v>5</v>
       </c>
       <c r="G35" s="55">
@@ -36817,7 +37583,9 @@
       <c r="M35" s="166">
         <v>5</v>
       </c>
-      <c r="N35" s="55"/>
+      <c r="N35" s="88">
+        <v>5</v>
+      </c>
       <c r="O35" s="55"/>
       <c r="P35" s="55"/>
       <c r="Q35" s="166"/>
@@ -36851,63 +37619,63 @@
       <c r="AS35" s="140"/>
     </row>
     <row r="36" spans="1:45" s="115" customFormat="1">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="378" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="383" t="s">
         <v>568</v>
       </c>
-      <c r="C36" s="132">
+      <c r="C36" s="384">
         <v>1</v>
       </c>
-      <c r="D36" s="134"/>
-      <c r="E36" s="130">
+      <c r="D36" s="385"/>
+      <c r="E36" s="386">
         <v>1</v>
       </c>
-      <c r="F36" s="107">
+      <c r="F36" s="192">
         <f>AVERAGE(H36)</f>
         <v>7</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="317">
+      <c r="G36" s="402"/>
+      <c r="H36" s="181">
         <v>7</v>
       </c>
-      <c r="I36" s="166"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="166"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="166"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="166"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="166"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="145"/>
-      <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="50"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="156"/>
-      <c r="AL36" s="50"/>
-      <c r="AM36" s="48"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="55"/>
-      <c r="AQ36" s="50"/>
-      <c r="AR36" s="55"/>
+      <c r="I36" s="403"/>
+      <c r="J36" s="403"/>
+      <c r="K36" s="402"/>
+      <c r="L36" s="402"/>
+      <c r="M36" s="403"/>
+      <c r="N36" s="402"/>
+      <c r="O36" s="402"/>
+      <c r="P36" s="402"/>
+      <c r="Q36" s="402"/>
+      <c r="R36" s="403"/>
+      <c r="S36" s="262"/>
+      <c r="T36" s="271"/>
+      <c r="U36" s="402"/>
+      <c r="V36" s="403"/>
+      <c r="W36" s="262"/>
+      <c r="X36" s="403"/>
+      <c r="Y36" s="402"/>
+      <c r="Z36" s="403"/>
+      <c r="AA36" s="403"/>
+      <c r="AB36" s="403"/>
+      <c r="AC36" s="262"/>
+      <c r="AD36" s="259"/>
+      <c r="AE36" s="402"/>
+      <c r="AF36" s="402"/>
+      <c r="AG36" s="402"/>
+      <c r="AH36" s="404"/>
+      <c r="AI36" s="402"/>
+      <c r="AJ36" s="402"/>
+      <c r="AK36" s="402"/>
+      <c r="AL36" s="404"/>
+      <c r="AM36" s="289"/>
+      <c r="AN36" s="402"/>
+      <c r="AO36" s="404"/>
+      <c r="AP36" s="402"/>
+      <c r="AQ36" s="404"/>
+      <c r="AR36" s="403"/>
       <c r="AS36" s="140"/>
     </row>
     <row r="37" spans="1:45" s="115" customFormat="1" ht="15.75" thickBot="1">
@@ -36921,7 +37689,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="131">
         <v>1</v>
@@ -36947,7 +37715,9 @@
       <c r="M37" s="44">
         <v>6</v>
       </c>
-      <c r="N37" s="55"/>
+      <c r="N37" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O37" s="166"/>
       <c r="P37" s="166"/>
       <c r="Q37" s="55"/>
@@ -37009,7 +37779,10 @@
         <f>AVERAGE(M7,M28,M17,M24,M26,M27,M29,M30,M33,M35,M37)</f>
         <v>5.6363636363636367</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="25">
+        <f>AVERAGE(N7,N14,N17,N35,N24,N26,N27,N28,N29,N30,N33)</f>
+        <v>4.2727272727272725</v>
+      </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
@@ -37130,7 +37903,9 @@
       <c r="M7" s="139" t="s">
         <v>740</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>748</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="78"/>
@@ -37170,13 +37945,13 @@
         <v>49</v>
       </c>
       <c r="C8" s="118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="119"/>
       <c r="E8" s="117"/>
       <c r="F8" s="30">
-        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>4.5714285714285712</v>
+        <f>AVERAGE(G8,H8,I8,J8,K8,L8,M8,N8)</f>
+        <v>4.75</v>
       </c>
       <c r="G8" s="201">
         <v>4</v>
@@ -37199,7 +37974,9 @@
       <c r="M8" s="308">
         <v>3</v>
       </c>
-      <c r="N8" s="145"/>
+      <c r="N8" s="54">
+        <v>6</v>
+      </c>
       <c r="O8" s="55"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
@@ -37344,7 +38121,9 @@
       <c r="C11" s="132">
         <v>4</v>
       </c>
-      <c r="D11" s="134"/>
+      <c r="D11" s="134">
+        <v>1</v>
+      </c>
       <c r="E11" s="130"/>
       <c r="F11" s="107">
         <f>AVERAGE(G11,H11,I11,L11)</f>
@@ -37365,7 +38144,9 @@
         <v>5</v>
       </c>
       <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="N11" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
@@ -37470,13 +38251,13 @@
         <v>132</v>
       </c>
       <c r="C13" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="130"/>
       <c r="F13" s="107">
-        <f>AVERAGE(G13,H13,I13,J13,K13,L13,M13)</f>
-        <v>4.5714285714285712</v>
+        <f>AVERAGE(G13,H13,I13,J13,K13,L13,M13,N13)</f>
+        <v>4.75</v>
       </c>
       <c r="G13" s="144">
         <v>4</v>
@@ -37499,7 +38280,9 @@
       <c r="M13" s="308">
         <v>3</v>
       </c>
-      <c r="N13" s="166"/>
+      <c r="N13" s="166">
+        <v>6</v>
+      </c>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="145"/>
@@ -37542,7 +38325,9 @@
       <c r="C14" s="132">
         <v>5</v>
       </c>
-      <c r="D14" s="134"/>
+      <c r="D14" s="134">
+        <v>1</v>
+      </c>
       <c r="E14" s="130"/>
       <c r="F14" s="107">
         <f>AVERAGE(G14,H14,I14,J14)</f>
@@ -37565,7 +38350,9 @@
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="166"/>
+      <c r="N14" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
@@ -37606,14 +38393,14 @@
         <v>313</v>
       </c>
       <c r="C15" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="134"/>
       <c r="E15" s="130">
         <v>1</v>
       </c>
       <c r="F15" s="107">
-        <f>AVERAGE(G15,H15,I15,J15,K15,M15)</f>
+        <f>AVERAGE(G15,H15,I15,J15,K15,M15,N15)</f>
         <v>5</v>
       </c>
       <c r="G15" s="144">
@@ -37635,7 +38422,9 @@
       <c r="M15" s="54">
         <v>5</v>
       </c>
-      <c r="N15" s="166"/>
+      <c r="N15" s="166">
+        <v>5</v>
+      </c>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -37736,7 +38525,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="134">
         <v>2</v>
@@ -37745,8 +38534,8 @@
         <v>1</v>
       </c>
       <c r="F17" s="107">
-        <f>AVERAGE(G17,H17,J17,L17,M17)</f>
-        <v>4.8</v>
+        <f>AVERAGE(G17,H17,J17,L17,M17,N17)</f>
+        <v>5</v>
       </c>
       <c r="G17" s="144">
         <v>6</v>
@@ -37767,7 +38556,9 @@
       <c r="M17" s="88">
         <v>4</v>
       </c>
-      <c r="N17" s="166"/>
+      <c r="N17" s="166">
+        <v>6</v>
+      </c>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
       <c r="Q17" s="55"/>
@@ -37808,15 +38599,15 @@
         <v>53</v>
       </c>
       <c r="C18" s="136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="137"/>
       <c r="E18" s="121">
         <v>1</v>
       </c>
       <c r="F18" s="29">
-        <f>AVERAGE(J18,K18,L18,M18)</f>
-        <v>4.5</v>
+        <f>AVERAGE(J18,K18,L18,M18,N18)</f>
+        <v>4.8</v>
       </c>
       <c r="G18" s="144"/>
       <c r="H18" s="55"/>
@@ -37833,7 +38624,9 @@
       <c r="M18" s="55">
         <v>4</v>
       </c>
-      <c r="N18" s="55"/>
+      <c r="N18" s="55">
+        <v>6</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -37976,15 +38769,15 @@
         <v>42</v>
       </c>
       <c r="C21" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="134">
         <v>2</v>
       </c>
       <c r="E21" s="130"/>
       <c r="F21" s="107">
-        <f>AVERAGE(G21,I21,L21,M21)</f>
-        <v>4.5</v>
+        <f>AVERAGE(G21,I21,L21,M21,N21)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G21" s="144">
         <v>4</v>
@@ -38005,7 +38798,9 @@
       <c r="M21" s="55">
         <v>5</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="55">
+        <v>5</v>
+      </c>
       <c r="O21" s="166"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
@@ -38104,15 +38899,15 @@
         <v>29</v>
       </c>
       <c r="C23" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="134"/>
       <c r="E23" s="130">
         <v>2</v>
       </c>
       <c r="F23" s="107">
-        <f>AVERAGE(G23,K23,L23,M23)</f>
-        <v>5.5</v>
+        <f>AVERAGE(G23,K23,L23,M23,N23)</f>
+        <v>5.4</v>
       </c>
       <c r="G23" s="252">
         <v>7</v>
@@ -38129,7 +38924,9 @@
       <c r="M23" s="55">
         <v>5</v>
       </c>
-      <c r="N23" s="55"/>
+      <c r="N23" s="55">
+        <v>5</v>
+      </c>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="166"/>
@@ -38170,15 +38967,15 @@
         <v>401</v>
       </c>
       <c r="C24" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
       </c>
       <c r="E24" s="130"/>
       <c r="F24" s="107">
-        <f>AVERAGE(G24,H24,I24,J24,K24)</f>
-        <v>4.4000000000000004</v>
+        <f>AVERAGE(G24,H24,I24,J24,K24,N24)</f>
+        <v>4.5</v>
       </c>
       <c r="G24" s="173">
         <v>5</v>
@@ -38199,7 +38996,9 @@
       <c r="M24" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="55"/>
+      <c r="N24" s="55">
+        <v>5</v>
+      </c>
       <c r="O24" s="55"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="166"/>
@@ -38291,7 +39090,7 @@
         <v>166</v>
       </c>
       <c r="C26" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -38300,8 +39099,8 @@
         <v>1</v>
       </c>
       <c r="F26" s="107">
-        <f>AVERAGE(H26,I26,J26,K26,L26,M26)</f>
-        <v>4.666666666666667</v>
+        <f>AVERAGE(H26,I26,J26,K26,L26,M26,N26)</f>
+        <v>4.8571428571428568</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>106</v>
@@ -38324,7 +39123,9 @@
       <c r="M26" s="55">
         <v>4</v>
       </c>
-      <c r="N26" s="166"/>
+      <c r="N26" s="166">
+        <v>6</v>
+      </c>
       <c r="O26" s="55"/>
       <c r="P26" s="166"/>
       <c r="Q26" s="55"/>
@@ -38367,10 +39168,12 @@
       <c r="C27" s="356">
         <v>1</v>
       </c>
-      <c r="D27" s="358"/>
+      <c r="D27" s="358">
+        <v>1</v>
+      </c>
       <c r="E27" s="354"/>
       <c r="F27" s="371">
-        <f>AVERAGE(L27)</f>
+        <f>AVERAGE(L27,N27)</f>
         <v>5</v>
       </c>
       <c r="G27" s="43"/>
@@ -38382,7 +39185,9 @@
         <v>5</v>
       </c>
       <c r="M27" s="55"/>
-      <c r="N27" s="166"/>
+      <c r="N27" s="88">
+        <v>5</v>
+      </c>
       <c r="O27" s="55"/>
       <c r="P27" s="166"/>
       <c r="Q27" s="55"/>
@@ -38478,15 +39283,15 @@
         <v>58</v>
       </c>
       <c r="C29" s="136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="137">
         <v>2</v>
       </c>
       <c r="E29" s="138"/>
       <c r="F29" s="29">
-        <f>AVERAGE(J29,K29,L29,M29)</f>
-        <v>4.25</v>
+        <f>AVERAGE(J29,K29,L29,M29,N29)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>106</v>
@@ -38505,7 +39310,9 @@
       <c r="M29" s="55">
         <v>4</v>
       </c>
-      <c r="N29" s="55"/>
+      <c r="N29" s="55">
+        <v>5</v>
+      </c>
       <c r="O29" s="55"/>
       <c r="P29" s="145"/>
       <c r="Q29" s="55"/>
@@ -38822,15 +39629,17 @@
         <v>407</v>
       </c>
       <c r="C35" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="134">
         <v>1</v>
       </c>
-      <c r="E35" s="130"/>
+      <c r="E35" s="130">
+        <v>1</v>
+      </c>
       <c r="F35" s="107">
-        <f>AVERAGE(G35,H35,I35,J35,K35,M35)</f>
-        <v>4.833333333333333</v>
+        <f>AVERAGE(G35,H35,I35,J35,K35,M35,N35)</f>
+        <v>4.8571428571428568</v>
       </c>
       <c r="G35" s="144">
         <v>6</v>
@@ -38853,7 +39662,9 @@
       <c r="M35" s="166">
         <v>6</v>
       </c>
-      <c r="N35" s="55"/>
+      <c r="N35" s="54">
+        <v>5</v>
+      </c>
       <c r="O35" s="55"/>
       <c r="P35" s="55"/>
       <c r="Q35" s="55"/>
@@ -39049,7 +39860,10 @@
         <f>AVERAGE(M8,M13,M15,M18,M21,M23,M26,M29,M30,M35)</f>
         <v>4.3</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="25">
+        <f>AVERAGE(N8,N13,N15,N17,N18,N21,N23,N24,N26,N29,N35)</f>
+        <v>5.4545454545454541</v>
+      </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
@@ -39161,7 +39975,9 @@
       <c r="M6" s="139" t="s">
         <v>722</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="139" t="s">
+        <v>755</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="67"/>
@@ -39201,13 +40017,13 @@
         <v>75</v>
       </c>
       <c r="C7" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="134"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27">
-        <f>AVERAGE(I7,J7,K7,L7,M7)</f>
-        <v>5.8</v>
+        <f>AVERAGE(I7,J7,K7,L7,M7,N7)</f>
+        <v>5.833333333333333</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -39226,7 +40042,9 @@
       <c r="M7" s="54">
         <v>6</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="55">
+        <v>6</v>
+      </c>
       <c r="O7" s="55"/>
       <c r="P7" s="145"/>
       <c r="Q7" s="145"/>
@@ -39378,13 +40196,13 @@
         <v>197</v>
       </c>
       <c r="C10" s="132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="134"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27">
-        <f>AVERAGE(G10,H10,J10,K10,L10,M10)</f>
-        <v>5</v>
+        <f>AVERAGE(G10,H10,J10,K10,L10,M10,N10)</f>
+        <v>4.8571428571428568</v>
       </c>
       <c r="G10" s="55">
         <v>6</v>
@@ -39405,7 +40223,9 @@
       <c r="M10" s="55">
         <v>5</v>
       </c>
-      <c r="N10" s="55"/>
+      <c r="N10" s="55">
+        <v>4</v>
+      </c>
       <c r="O10" s="55"/>
       <c r="P10" s="55"/>
       <c r="Q10" s="55"/>
@@ -39446,13 +40266,13 @@
         <v>231</v>
       </c>
       <c r="C11" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="134"/>
       <c r="E11" s="130"/>
       <c r="F11" s="27">
-        <f>AVERAGE(J11,K11,L11,M11)</f>
-        <v>5.25</v>
+        <f>AVERAGE(J11,K11,L11,M11,N11)</f>
+        <v>5</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
@@ -39469,7 +40289,9 @@
       <c r="M11" s="55">
         <v>5</v>
       </c>
-      <c r="N11" s="55"/>
+      <c r="N11" s="55">
+        <v>4</v>
+      </c>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="166"/>
@@ -39674,13 +40496,13 @@
         <v>357</v>
       </c>
       <c r="C15" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="134"/>
       <c r="E15" s="130"/>
       <c r="F15" s="107">
-        <f>AVERAGE(G15,H15,I15,J15,K15,L15,M15)</f>
-        <v>5</v>
+        <f>AVERAGE(G15,H15,I15,J15,K15,L15,M15,N15)</f>
+        <v>4.875</v>
       </c>
       <c r="G15" s="35">
         <v>4</v>
@@ -39703,7 +40525,9 @@
       <c r="M15" s="55">
         <v>5</v>
       </c>
-      <c r="N15" s="145"/>
+      <c r="N15" s="55">
+        <v>4</v>
+      </c>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -39744,13 +40568,13 @@
         <v>663</v>
       </c>
       <c r="C16" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="134"/>
       <c r="E16" s="130"/>
       <c r="F16" s="107">
-        <f>AVERAGE(K16,L16,M16)</f>
-        <v>5.666666666666667</v>
+        <f>AVERAGE(K16,L16,M16,N16)</f>
+        <v>5.25</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="145"/>
@@ -39765,7 +40589,9 @@
       <c r="M16" s="55">
         <v>6</v>
       </c>
-      <c r="N16" s="145"/>
+      <c r="N16" s="55">
+        <v>4</v>
+      </c>
       <c r="O16" s="55"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
@@ -39857,15 +40683,15 @@
         <v>77</v>
       </c>
       <c r="C18" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="134"/>
       <c r="E18" s="130">
         <v>1</v>
       </c>
       <c r="F18" s="27">
-        <f>AVERAGE(I18,J18,L18,M18)</f>
-        <v>6</v>
+        <f>AVERAGE(I18,J18,L18,M18,N18)</f>
+        <v>5.6</v>
       </c>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
@@ -39882,7 +40708,9 @@
       <c r="M18" s="55">
         <v>5</v>
       </c>
-      <c r="N18" s="55"/>
+      <c r="N18" s="55">
+        <v>4</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
@@ -39923,13 +40751,13 @@
         <v>78</v>
       </c>
       <c r="C19" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="134"/>
       <c r="E19" s="130"/>
       <c r="F19" s="27">
-        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19)</f>
-        <v>5</v>
+        <f>AVERAGE(G19,H19,I19,J19,K19,L19,M19,N19)</f>
+        <v>4.75</v>
       </c>
       <c r="G19" s="55">
         <v>5</v>
@@ -39952,7 +40780,9 @@
       <c r="M19" s="166">
         <v>5</v>
       </c>
-      <c r="N19" s="145"/>
+      <c r="N19" s="308">
+        <v>3</v>
+      </c>
       <c r="O19" s="55"/>
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
@@ -40108,7 +40938,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="130"/>
       <c r="F22" s="107">
@@ -40132,7 +40962,9 @@
       <c r="M22" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="55"/>
+      <c r="N22" s="166" t="s">
+        <v>106</v>
+      </c>
       <c r="O22" s="156"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="156"/>
@@ -40458,15 +41290,15 @@
         <v>410</v>
       </c>
       <c r="C28" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="134"/>
       <c r="E28" s="130">
         <v>3</v>
       </c>
       <c r="F28" s="107">
-        <f>AVERAGE(G28,H28,I28,J28,K28,L28,M28)</f>
-        <v>5.5714285714285712</v>
+        <f>AVERAGE(G28,H28,I28,J28,K28,L28,M28,N28)</f>
+        <v>5.5</v>
       </c>
       <c r="G28" s="274">
         <v>7</v>
@@ -40489,7 +41321,9 @@
       <c r="M28" s="55">
         <v>5</v>
       </c>
-      <c r="N28" s="55"/>
+      <c r="N28" s="55">
+        <v>5</v>
+      </c>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
@@ -40530,7 +41364,7 @@
         <v>428</v>
       </c>
       <c r="C29" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -40539,8 +41373,8 @@
         <v>1</v>
       </c>
       <c r="F29" s="107">
-        <f>AVERAGE(H29,I29,J29,K29,M29)</f>
-        <v>5</v>
+        <f>AVERAGE(H29,I29,J29,K29,M29,N29)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G29" s="204" t="s">
         <v>106</v>
@@ -40561,7 +41395,9 @@
       <c r="M29" s="55">
         <v>4</v>
       </c>
-      <c r="N29" s="55"/>
+      <c r="N29" s="308">
+        <v>3</v>
+      </c>
       <c r="O29" s="55"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
@@ -40602,13 +41438,13 @@
         <v>545</v>
       </c>
       <c r="C30" s="132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="134"/>
       <c r="E30" s="130"/>
       <c r="F30" s="107">
-        <f>AVERAGE(H30,I30)</f>
-        <v>5</v>
+        <f>AVERAGE(H30,I30,N30)</f>
+        <v>4.333333333333333</v>
       </c>
       <c r="G30" s="204"/>
       <c r="H30" s="55">
@@ -40621,7 +41457,9 @@
       <c r="K30" s="166"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
+      <c r="N30" s="308">
+        <v>3</v>
+      </c>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
@@ -40715,7 +41553,9 @@
       <c r="C32" s="132">
         <v>5</v>
       </c>
-      <c r="D32" s="134"/>
+      <c r="D32" s="134">
+        <v>1</v>
+      </c>
       <c r="E32" s="130"/>
       <c r="F32" s="27">
         <f>AVERAGE(G32,H32,I32,L32,M32)</f>
@@ -40738,7 +41578,9 @@
       <c r="M32" s="55">
         <v>4</v>
       </c>
-      <c r="N32" s="145"/>
+      <c r="N32" s="166" t="s">
+        <v>106</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="166"/>
       <c r="Q32" s="166"/>
@@ -40901,7 +41743,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="152">
         <v>2</v>
@@ -40929,7 +41771,9 @@
       <c r="M35" s="55">
         <v>4</v>
       </c>
-      <c r="N35" s="156"/>
+      <c r="N35" s="166" t="s">
+        <v>106</v>
+      </c>
       <c r="O35" s="145"/>
       <c r="P35" s="145"/>
       <c r="Q35" s="145"/>
@@ -41080,15 +41924,15 @@
         <v>81</v>
       </c>
       <c r="C38" s="133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="135"/>
       <c r="E38" s="131">
         <v>2</v>
       </c>
       <c r="F38" s="28">
-        <f>AVERAGE(G38,H38,I38,J38,K38)</f>
-        <v>4.5999999999999996</v>
+        <f>AVERAGE(G38,H38,I38,J38,K38,N38)</f>
+        <v>4.5</v>
       </c>
       <c r="G38" s="44">
         <v>5</v>
@@ -41107,7 +41951,9 @@
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="166"/>
-      <c r="N38" s="55"/>
+      <c r="N38" s="55">
+        <v>4</v>
+      </c>
       <c r="O38" s="145"/>
       <c r="P38" s="55"/>
       <c r="Q38" s="55"/>
@@ -41169,7 +42015,10 @@
         <f>AVERAGE(M7,M10,M11,M15,M16,M18,M19,M28,M29,M32,M35)</f>
         <v>4.9090909090909092</v>
       </c>
-      <c r="N39" s="31"/>
+      <c r="N39" s="31">
+        <f>AVERAGE(N7,N10,N11,N15,N16,N18,N19,N28,N29,N30,N38)</f>
+        <v>4</v>
+      </c>
       <c r="O39" s="31"/>
       <c r="P39" s="31"/>
       <c r="Q39" s="31"/>
@@ -41284,7 +42133,9 @@
       <c r="M7" s="139" t="s">
         <v>726</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="139" t="s">
+        <v>760</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="73"/>
@@ -41375,13 +42226,13 @@
         <v>83</v>
       </c>
       <c r="C9" s="136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="137"/>
       <c r="E9" s="11"/>
       <c r="F9" s="29">
-        <f>AVERAGE(G9,H9,I9,J9,K9,L9,M9)</f>
-        <v>5.5714285714285712</v>
+        <f>AVERAGE(G9,H9,I9,J9,K9,L9,M9,N9)</f>
+        <v>5.25</v>
       </c>
       <c r="G9" s="254">
         <v>5</v>
@@ -41404,7 +42255,9 @@
       <c r="M9" s="349">
         <v>8</v>
       </c>
-      <c r="N9" s="166"/>
+      <c r="N9" s="295">
+        <v>3</v>
+      </c>
       <c r="O9" s="55"/>
       <c r="P9" s="166"/>
       <c r="Q9" s="55"/>
@@ -41496,13 +42349,13 @@
         <v>237</v>
       </c>
       <c r="C11" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="134"/>
       <c r="E11" s="126"/>
       <c r="F11" s="107">
-        <f>AVERAGE(H11,K11,L11,M11)</f>
-        <v>5</v>
+        <f>AVERAGE(H11,K11,L11,M11,N11)</f>
+        <v>4.8</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="166">
@@ -41519,7 +42372,9 @@
       <c r="M11" s="50">
         <v>5</v>
       </c>
-      <c r="N11" s="166"/>
+      <c r="N11" s="166">
+        <v>4</v>
+      </c>
       <c r="O11" s="55"/>
       <c r="P11" s="166"/>
       <c r="Q11" s="55"/>
@@ -41560,13 +42415,13 @@
         <v>212</v>
       </c>
       <c r="C12" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="134"/>
       <c r="E12" s="126"/>
       <c r="F12" s="107">
-        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12)</f>
-        <v>4.1428571428571432</v>
+        <f>AVERAGE(G12,H12,I12,J12,K12,L12,M12,N12)</f>
+        <v>4.125</v>
       </c>
       <c r="G12" s="268">
         <v>3</v>
@@ -41589,7 +42444,9 @@
       <c r="M12" s="50">
         <v>5</v>
       </c>
-      <c r="N12" s="166"/>
+      <c r="N12" s="166">
+        <v>4</v>
+      </c>
       <c r="O12" s="55"/>
       <c r="P12" s="166"/>
       <c r="Q12" s="55"/>
@@ -41630,13 +42487,13 @@
         <v>356</v>
       </c>
       <c r="C13" s="132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="120"/>
       <c r="F13" s="107">
-        <f>AVERAGE(I13,K13,L13,M13)</f>
-        <v>5.5</v>
+        <f>AVERAGE(I13,K13,L13,M13,N13)</f>
+        <v>5.2</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>435</v>
@@ -41655,7 +42512,9 @@
       <c r="M13" s="50">
         <v>6</v>
       </c>
-      <c r="N13" s="166"/>
+      <c r="N13" s="166">
+        <v>4</v>
+      </c>
       <c r="O13" s="145"/>
       <c r="P13" s="166"/>
       <c r="Q13" s="55"/>
@@ -41930,16 +42789,16 @@
       <c r="A18" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="375" t="s">
         <v>639</v>
       </c>
       <c r="C18" s="132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="134"/>
       <c r="E18" s="120"/>
       <c r="F18" s="107">
-        <f>AVERAGE(J18,K18,M18)</f>
+        <f>AVERAGE(J18,K18,M18,N18)</f>
         <v>5</v>
       </c>
       <c r="G18" s="43"/>
@@ -41955,7 +42814,9 @@
       <c r="M18" s="50">
         <v>5</v>
       </c>
-      <c r="N18" s="166"/>
+      <c r="N18" s="166">
+        <v>5</v>
+      </c>
       <c r="O18" s="55"/>
       <c r="P18" s="166"/>
       <c r="Q18" s="55"/>
@@ -41996,13 +42857,13 @@
         <v>125</v>
       </c>
       <c r="C19" s="132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="134"/>
       <c r="E19" s="120"/>
       <c r="F19" s="107">
-        <f>AVERAGE(J19,K19,L19,M19)</f>
-        <v>5.25</v>
+        <f>AVERAGE(J19,K19,L19,M19,N19)</f>
+        <v>5</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="166"/>
@@ -42019,7 +42880,9 @@
       <c r="M19" s="50">
         <v>6</v>
       </c>
-      <c r="N19" s="166"/>
+      <c r="N19" s="166">
+        <v>4</v>
+      </c>
       <c r="O19" s="55"/>
       <c r="P19" s="166"/>
       <c r="Q19" s="55"/>
@@ -42189,7 +43052,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="126"/>
       <c r="F22" s="107">
@@ -42217,7 +43080,9 @@
       <c r="M22" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="166"/>
+      <c r="N22" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O22" s="166"/>
       <c r="P22" s="166"/>
       <c r="Q22" s="166"/>
@@ -42388,7 +43253,7 @@
         <v>280</v>
       </c>
       <c r="C25" s="132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="134">
         <v>4</v>
@@ -42397,7 +43262,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="107">
-        <f>AVERAGE(M25)</f>
+        <f>AVERAGE(M25,N25)</f>
         <v>6</v>
       </c>
       <c r="G25" s="161"/>
@@ -42417,7 +43282,9 @@
       <c r="M25" s="52">
         <v>6</v>
       </c>
-      <c r="N25" s="166"/>
+      <c r="N25" s="166">
+        <v>6</v>
+      </c>
       <c r="O25" s="55"/>
       <c r="P25" s="166"/>
       <c r="Q25" s="166"/>
@@ -42573,12 +43440,12 @@
         <v>437</v>
       </c>
       <c r="C28" s="134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="134"/>
       <c r="E28" s="126"/>
       <c r="F28" s="107">
-        <f>AVERAGE(G28,I28,H28,J28,M28)</f>
+        <f>AVERAGE(G28,I28,H28,J28,M28,N28)</f>
         <v>5</v>
       </c>
       <c r="G28" s="173">
@@ -42600,7 +43467,9 @@
       <c r="M28" s="50">
         <v>5</v>
       </c>
-      <c r="N28" s="166"/>
+      <c r="N28" s="166">
+        <v>5</v>
+      </c>
       <c r="O28" s="55"/>
       <c r="P28" s="166"/>
       <c r="Q28" s="166"/>
@@ -42699,15 +43568,15 @@
         <v>640</v>
       </c>
       <c r="C30" s="134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
       </c>
       <c r="E30" s="126"/>
       <c r="F30" s="107">
-        <f>AVERAGE(K30,L30,M30)</f>
-        <v>5.666666666666667</v>
+        <f>AVERAGE(K30,L30,M30,N30)</f>
+        <v>5.5</v>
       </c>
       <c r="G30" s="173"/>
       <c r="H30" s="166"/>
@@ -42724,7 +43593,9 @@
       <c r="M30" s="50">
         <v>5</v>
       </c>
-      <c r="N30" s="166"/>
+      <c r="N30" s="166">
+        <v>5</v>
+      </c>
       <c r="O30" s="55"/>
       <c r="P30" s="166"/>
       <c r="Q30" s="166"/>
@@ -42765,13 +43636,13 @@
         <v>670</v>
       </c>
       <c r="C31" s="134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="134"/>
       <c r="E31" s="126"/>
       <c r="F31" s="107">
-        <f>AVERAGE(K31,L31)</f>
-        <v>4.5</v>
+        <f>AVERAGE(K31,L31,N31)</f>
+        <v>5</v>
       </c>
       <c r="G31" s="173"/>
       <c r="H31" s="166"/>
@@ -42784,7 +43655,9 @@
         <v>4</v>
       </c>
       <c r="M31" s="50"/>
-      <c r="N31" s="166"/>
+      <c r="N31" s="166">
+        <v>6</v>
+      </c>
       <c r="O31" s="55"/>
       <c r="P31" s="166"/>
       <c r="Q31" s="166"/>
@@ -42826,7 +43699,7 @@
       </c>
       <c r="C32" s="137"/>
       <c r="D32" s="137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="29"/>
@@ -42839,7 +43712,9 @@
       <c r="M32" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="N32" s="166"/>
+      <c r="N32" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O32" s="55"/>
       <c r="P32" s="166"/>
       <c r="Q32" s="166"/>
@@ -43039,15 +43914,15 @@
         <v>213</v>
       </c>
       <c r="C36" s="132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="134"/>
       <c r="E36" s="126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="107">
-        <f>AVERAGE(G36,H36,I36,J36,K36,L36,M36)</f>
-        <v>4.5714285714285712</v>
+        <f>AVERAGE(G36,H36,I36,J36,K36,L36,M36,N36)</f>
+        <v>4.75</v>
       </c>
       <c r="G36" s="252">
         <v>7</v>
@@ -43070,7 +43945,9 @@
       <c r="M36" s="48">
         <v>4</v>
       </c>
-      <c r="N36" s="166"/>
+      <c r="N36" s="44">
+        <v>6</v>
+      </c>
       <c r="O36" s="145"/>
       <c r="P36" s="156"/>
       <c r="Q36" s="166"/>
@@ -43114,7 +43991,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="28">
@@ -43140,7 +44017,9 @@
       <c r="M37" s="48">
         <v>4</v>
       </c>
-      <c r="N37" s="166"/>
+      <c r="N37" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="O37" s="145"/>
       <c r="P37" s="166"/>
       <c r="Q37" s="166"/>
@@ -43202,7 +44081,10 @@
         <f>AVERAGE(M9,M11,M12,M13,M18,M19,M21,M25,M28,M30,M36)</f>
         <v>5.5454545454545459</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="25">
+        <f>AVERAGE(N9,N11,N12,N13,N18,N19,N25,N28,N30,N31,N36)</f>
+        <v>4.7272727272727275</v>
+      </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
